--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>122300</v>
+        <v>63200</v>
       </c>
       <c r="E8" s="3">
-        <v>74700</v>
+        <v>119300</v>
       </c>
       <c r="F8" s="3">
-        <v>65600</v>
+        <v>72800</v>
       </c>
       <c r="G8" s="3">
-        <v>67600</v>
+        <v>63900</v>
       </c>
       <c r="H8" s="3">
-        <v>109500</v>
+        <v>65900</v>
       </c>
       <c r="I8" s="3">
-        <v>75400</v>
+        <v>106800</v>
       </c>
       <c r="J8" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K8" s="3">
         <v>68900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>284100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>67700</v>
+        <v>32800</v>
       </c>
       <c r="E9" s="3">
-        <v>41200</v>
+        <v>66100</v>
       </c>
       <c r="F9" s="3">
-        <v>29600</v>
+        <v>40200</v>
       </c>
       <c r="G9" s="3">
         <v>28800</v>
       </c>
       <c r="H9" s="3">
-        <v>53300</v>
+        <v>28100</v>
       </c>
       <c r="I9" s="3">
-        <v>39400</v>
+        <v>52000</v>
       </c>
       <c r="J9" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K9" s="3">
         <v>31300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>258700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54600</v>
+        <v>30300</v>
       </c>
       <c r="E10" s="3">
-        <v>33400</v>
+        <v>53200</v>
       </c>
       <c r="F10" s="3">
-        <v>36000</v>
+        <v>32600</v>
       </c>
       <c r="G10" s="3">
-        <v>38800</v>
+        <v>35100</v>
       </c>
       <c r="H10" s="3">
-        <v>56200</v>
+        <v>37800</v>
       </c>
       <c r="I10" s="3">
-        <v>36000</v>
+        <v>54800</v>
       </c>
       <c r="J10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K10" s="3">
         <v>37700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9200</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="G12" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="H12" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="I12" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K12" s="3">
         <v>12100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,22 +1032,25 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>5200</v>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>5100</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>5000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
@@ -1039,8 +1061,8 @@
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>130500</v>
+        <v>123900</v>
       </c>
       <c r="E17" s="3">
-        <v>103200</v>
+        <v>127300</v>
       </c>
       <c r="F17" s="3">
-        <v>91500</v>
+        <v>100700</v>
       </c>
       <c r="G17" s="3">
-        <v>82400</v>
+        <v>89200</v>
       </c>
       <c r="H17" s="3">
-        <v>110000</v>
+        <v>80400</v>
       </c>
       <c r="I17" s="3">
-        <v>92700</v>
+        <v>107300</v>
       </c>
       <c r="J17" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K17" s="3">
         <v>86300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>129400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>111100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>369600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8200</v>
+        <v>-60800</v>
       </c>
       <c r="E18" s="3">
-        <v>-28600</v>
+        <v>-8000</v>
       </c>
       <c r="F18" s="3">
-        <v>-25900</v>
+        <v>-27900</v>
       </c>
       <c r="G18" s="3">
-        <v>-14800</v>
+        <v>-25300</v>
       </c>
       <c r="H18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-85500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,22 +1302,25 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
+      <c r="G22" s="3">
+        <v>1000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1292,8 +1331,8 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,57 +1349,63 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F23" s="3">
-        <v>-21300</v>
+        <v>-23500</v>
       </c>
       <c r="G23" s="3">
-        <v>-10800</v>
+        <v>-20800</v>
       </c>
       <c r="H23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I23" s="3">
         <v>3800</v>
       </c>
-      <c r="I23" s="3">
-        <v>-12000</v>
-      </c>
       <c r="J23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
@@ -1369,37 +1414,40 @@
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-24000</v>
-      </c>
       <c r="F26" s="3">
-        <v>-21300</v>
+        <v>-23400</v>
       </c>
       <c r="G26" s="3">
-        <v>-10500</v>
+        <v>-20700</v>
       </c>
       <c r="H26" s="3">
-        <v>4000</v>
+        <v>-10200</v>
       </c>
       <c r="I26" s="3">
-        <v>-11900</v>
+        <v>3900</v>
       </c>
       <c r="J26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-82600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F27" s="3">
-        <v>-21600</v>
+        <v>-23500</v>
       </c>
       <c r="G27" s="3">
-        <v>-9300</v>
+        <v>-21100</v>
       </c>
       <c r="H27" s="3">
-        <v>4500</v>
+        <v>-9000</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>4300</v>
       </c>
       <c r="J27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-81600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7500</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-4300</v>
       </c>
       <c r="J32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F33" s="3">
-        <v>-21600</v>
+        <v>-23500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9300</v>
+        <v>-21100</v>
       </c>
       <c r="H33" s="3">
-        <v>4500</v>
+        <v>-9000</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>4300</v>
       </c>
       <c r="J33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-81600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F35" s="3">
-        <v>-21600</v>
+        <v>-23500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9300</v>
+        <v>-21100</v>
       </c>
       <c r="H35" s="3">
-        <v>4500</v>
+        <v>-9000</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>4300</v>
       </c>
       <c r="J35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-81600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2052,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59000</v>
+        <v>41400</v>
       </c>
       <c r="E41" s="3">
-        <v>51900</v>
+        <v>57500</v>
       </c>
       <c r="F41" s="3">
-        <v>63300</v>
+        <v>50700</v>
       </c>
       <c r="G41" s="3">
-        <v>80400</v>
+        <v>61800</v>
       </c>
       <c r="H41" s="3">
-        <v>88100</v>
+        <v>78400</v>
       </c>
       <c r="I41" s="3">
-        <v>92100</v>
+        <v>86000</v>
       </c>
       <c r="J41" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K41" s="3">
         <v>87800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>157800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>217200</v>
+        <v>182700</v>
       </c>
       <c r="E42" s="3">
-        <v>202900</v>
+        <v>211900</v>
       </c>
       <c r="F42" s="3">
-        <v>159900</v>
+        <v>197900</v>
       </c>
       <c r="G42" s="3">
-        <v>123300</v>
+        <v>156000</v>
       </c>
       <c r="H42" s="3">
-        <v>149000</v>
+        <v>120300</v>
       </c>
       <c r="I42" s="3">
-        <v>157100</v>
+        <v>145400</v>
       </c>
       <c r="J42" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K42" s="3">
         <v>341500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>457800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>511100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>493200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>500700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>524100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91600</v>
+        <v>83300</v>
       </c>
       <c r="E43" s="3">
-        <v>162700</v>
+        <v>89300</v>
       </c>
       <c r="F43" s="3">
-        <v>156300</v>
+        <v>158700</v>
       </c>
       <c r="G43" s="3">
-        <v>149800</v>
+        <v>152500</v>
       </c>
       <c r="H43" s="3">
-        <v>173400</v>
+        <v>146100</v>
       </c>
       <c r="I43" s="3">
-        <v>150000</v>
+        <v>169200</v>
       </c>
       <c r="J43" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K43" s="3">
         <v>64400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>143000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>151300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>172500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>156400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2238,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244700</v>
+        <v>227800</v>
       </c>
       <c r="E45" s="3">
-        <v>260500</v>
+        <v>238700</v>
       </c>
       <c r="F45" s="3">
-        <v>261400</v>
+        <v>254100</v>
       </c>
       <c r="G45" s="3">
-        <v>279000</v>
+        <v>255000</v>
       </c>
       <c r="H45" s="3">
-        <v>280600</v>
+        <v>272100</v>
       </c>
       <c r="I45" s="3">
-        <v>260300</v>
+        <v>273700</v>
       </c>
       <c r="J45" s="3">
+        <v>253900</v>
+      </c>
+      <c r="K45" s="3">
         <v>163100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>214200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>148900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>492900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>612400</v>
+        <v>535100</v>
       </c>
       <c r="E46" s="3">
-        <v>678000</v>
+        <v>597400</v>
       </c>
       <c r="F46" s="3">
-        <v>640900</v>
+        <v>661400</v>
       </c>
       <c r="G46" s="3">
-        <v>632400</v>
+        <v>625200</v>
       </c>
       <c r="H46" s="3">
-        <v>691200</v>
+        <v>616900</v>
       </c>
       <c r="I46" s="3">
-        <v>659500</v>
+        <v>674200</v>
       </c>
       <c r="J46" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K46" s="3">
         <v>656800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>755300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>994300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>970700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>934000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1093800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>272500</v>
+        <v>260800</v>
       </c>
       <c r="E47" s="3">
-        <v>213000</v>
+        <v>265800</v>
       </c>
       <c r="F47" s="3">
-        <v>181600</v>
+        <v>207800</v>
       </c>
       <c r="G47" s="3">
-        <v>186900</v>
+        <v>177100</v>
       </c>
       <c r="H47" s="3">
-        <v>190900</v>
+        <v>182300</v>
       </c>
       <c r="I47" s="3">
-        <v>190300</v>
+        <v>186200</v>
       </c>
       <c r="J47" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K47" s="3">
         <v>142500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55400</v>
+        <v>46100</v>
       </c>
       <c r="E48" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="F48" s="3">
-        <v>56600</v>
+        <v>53300</v>
       </c>
       <c r="G48" s="3">
-        <v>26900</v>
+        <v>55200</v>
       </c>
       <c r="H48" s="3">
-        <v>24800</v>
+        <v>26200</v>
       </c>
       <c r="I48" s="3">
-        <v>22800</v>
+        <v>24200</v>
       </c>
       <c r="J48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K48" s="3">
         <v>21400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72100</v>
+        <v>55700</v>
       </c>
       <c r="E49" s="3">
-        <v>76400</v>
+        <v>56400</v>
       </c>
       <c r="F49" s="3">
-        <v>77900</v>
+        <v>60500</v>
       </c>
       <c r="G49" s="3">
-        <v>83000</v>
+        <v>62000</v>
       </c>
       <c r="H49" s="3">
-        <v>73100</v>
+        <v>66800</v>
       </c>
       <c r="I49" s="3">
-        <v>77100</v>
+        <v>71300</v>
       </c>
       <c r="J49" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K49" s="3">
         <v>82300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>95800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>101200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>107600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12500</v>
+        <v>25600</v>
       </c>
       <c r="E52" s="3">
-        <v>12200</v>
+        <v>26100</v>
       </c>
       <c r="F52" s="3">
-        <v>12300</v>
+        <v>25900</v>
       </c>
       <c r="G52" s="3">
-        <v>11600</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="I52" s="3">
-        <v>25800</v>
+        <v>24300</v>
       </c>
       <c r="J52" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K52" s="3">
         <v>39200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>88600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1024900</v>
+        <v>923300</v>
       </c>
       <c r="E54" s="3">
-        <v>1034200</v>
+        <v>999800</v>
       </c>
       <c r="F54" s="3">
-        <v>969400</v>
+        <v>1008900</v>
       </c>
       <c r="G54" s="3">
-        <v>940800</v>
+        <v>945600</v>
       </c>
       <c r="H54" s="3">
-        <v>1005000</v>
+        <v>917700</v>
       </c>
       <c r="I54" s="3">
-        <v>975400</v>
+        <v>980300</v>
       </c>
       <c r="J54" s="3">
+        <v>951500</v>
+      </c>
+      <c r="K54" s="3">
         <v>942200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>988100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1179500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1177200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1141700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1333800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,66 +2748,70 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>259800</v>
+        <v>183600</v>
       </c>
       <c r="E57" s="3">
-        <v>257700</v>
+        <v>253500</v>
       </c>
       <c r="F57" s="3">
-        <v>214800</v>
+        <v>251400</v>
       </c>
       <c r="G57" s="3">
-        <v>187300</v>
+        <v>209500</v>
       </c>
       <c r="H57" s="3">
-        <v>234000</v>
+        <v>182700</v>
       </c>
       <c r="I57" s="3">
-        <v>187500</v>
+        <v>228300</v>
       </c>
       <c r="J57" s="3">
+        <v>182900</v>
+      </c>
+      <c r="K57" s="3">
         <v>166700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>126500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>218700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>173800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>142400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>148700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20700</v>
+        <v>28500</v>
       </c>
       <c r="E58" s="3">
-        <v>12000</v>
+        <v>20200</v>
       </c>
       <c r="F58" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>11700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2689,8 +2822,8 @@
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,111 +2840,120 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>272400</v>
+        <v>312500</v>
       </c>
       <c r="E59" s="3">
-        <v>294400</v>
+        <v>265700</v>
       </c>
       <c r="F59" s="3">
-        <v>256000</v>
+        <v>287100</v>
       </c>
       <c r="G59" s="3">
-        <v>257800</v>
+        <v>249700</v>
       </c>
       <c r="H59" s="3">
-        <v>264900</v>
+        <v>251500</v>
       </c>
       <c r="I59" s="3">
-        <v>291900</v>
+        <v>258400</v>
       </c>
       <c r="J59" s="3">
+        <v>284800</v>
+      </c>
+      <c r="K59" s="3">
         <v>254700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>307000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>380000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>416000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>358800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>509600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>553000</v>
+        <v>524700</v>
       </c>
       <c r="E60" s="3">
-        <v>564100</v>
+        <v>539400</v>
       </c>
       <c r="F60" s="3">
-        <v>479100</v>
+        <v>550300</v>
       </c>
       <c r="G60" s="3">
-        <v>445200</v>
+        <v>467300</v>
       </c>
       <c r="H60" s="3">
-        <v>498900</v>
+        <v>434200</v>
       </c>
       <c r="I60" s="3">
-        <v>479400</v>
+        <v>486700</v>
       </c>
       <c r="J60" s="3">
+        <v>467600</v>
+      </c>
+      <c r="K60" s="3">
         <v>421400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>433500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>598600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>589800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>501200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>658400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
-        <v>900</v>
-      </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16400</v>
+        <v>12500</v>
       </c>
       <c r="E62" s="3">
-        <v>17700</v>
+        <v>16000</v>
       </c>
       <c r="F62" s="3">
-        <v>20200</v>
+        <v>17200</v>
       </c>
       <c r="G62" s="3">
-        <v>5800</v>
+        <v>19700</v>
       </c>
       <c r="H62" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="I62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>583600</v>
+        <v>543900</v>
       </c>
       <c r="E66" s="3">
-        <v>595000</v>
+        <v>569300</v>
       </c>
       <c r="F66" s="3">
-        <v>509300</v>
+        <v>580400</v>
       </c>
       <c r="G66" s="3">
-        <v>460100</v>
+        <v>496800</v>
       </c>
       <c r="H66" s="3">
-        <v>515800</v>
+        <v>448800</v>
       </c>
       <c r="I66" s="3">
-        <v>495900</v>
+        <v>503100</v>
       </c>
       <c r="J66" s="3">
+        <v>483700</v>
+      </c>
+      <c r="K66" s="3">
         <v>442000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>454500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>619600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>611800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>523200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>679600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-863800</v>
+        <v>-893800</v>
       </c>
       <c r="E72" s="3">
-        <v>-862100</v>
+        <v>-842600</v>
       </c>
       <c r="F72" s="3">
-        <v>-838100</v>
+        <v>-840900</v>
       </c>
       <c r="G72" s="3">
-        <v>-816600</v>
+        <v>-817600</v>
       </c>
       <c r="H72" s="3">
-        <v>-807800</v>
+        <v>-796600</v>
       </c>
       <c r="I72" s="3">
-        <v>-812200</v>
+        <v>-788000</v>
       </c>
       <c r="J72" s="3">
+        <v>-792300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-800600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-817100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-790000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-785800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-745800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-689100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>441300</v>
+        <v>379400</v>
       </c>
       <c r="E76" s="3">
-        <v>439200</v>
+        <v>430500</v>
       </c>
       <c r="F76" s="3">
-        <v>460200</v>
+        <v>428500</v>
       </c>
       <c r="G76" s="3">
-        <v>480700</v>
+        <v>448900</v>
       </c>
       <c r="H76" s="3">
-        <v>489200</v>
+        <v>468900</v>
       </c>
       <c r="I76" s="3">
-        <v>479500</v>
+        <v>477200</v>
       </c>
       <c r="J76" s="3">
+        <v>467800</v>
+      </c>
+      <c r="K76" s="3">
         <v>500200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>533600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>559900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>565500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>618500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>654300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F81" s="3">
-        <v>-21600</v>
+        <v>-23500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9300</v>
+        <v>-21100</v>
       </c>
       <c r="H81" s="3">
-        <v>4500</v>
+        <v>-9000</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>4300</v>
       </c>
       <c r="J81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-81600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>63200</v>
+        <v>25300</v>
       </c>
       <c r="E8" s="3">
-        <v>119300</v>
+        <v>65500</v>
       </c>
       <c r="F8" s="3">
-        <v>72800</v>
+        <v>123800</v>
       </c>
       <c r="G8" s="3">
-        <v>63900</v>
+        <v>75600</v>
       </c>
       <c r="H8" s="3">
-        <v>65900</v>
+        <v>66400</v>
       </c>
       <c r="I8" s="3">
-        <v>106800</v>
+        <v>68400</v>
       </c>
       <c r="J8" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K8" s="3">
         <v>73500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>284100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32800</v>
+        <v>11800</v>
       </c>
       <c r="E9" s="3">
-        <v>66100</v>
+        <v>34100</v>
       </c>
       <c r="F9" s="3">
-        <v>40200</v>
+        <v>68600</v>
       </c>
       <c r="G9" s="3">
-        <v>28800</v>
+        <v>41700</v>
       </c>
       <c r="H9" s="3">
-        <v>28100</v>
+        <v>29900</v>
       </c>
       <c r="I9" s="3">
-        <v>52000</v>
+        <v>29200</v>
       </c>
       <c r="J9" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K9" s="3">
         <v>38400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>258700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30300</v>
+        <v>13400</v>
       </c>
       <c r="E10" s="3">
-        <v>53200</v>
+        <v>31500</v>
       </c>
       <c r="F10" s="3">
-        <v>32600</v>
+        <v>55300</v>
       </c>
       <c r="G10" s="3">
+        <v>33800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>36400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K10" s="3">
         <v>35100</v>
       </c>
-      <c r="H10" s="3">
-        <v>37800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>54800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>35100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>65400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>8900</v>
+        <v>11500</v>
       </c>
       <c r="F12" s="3">
-        <v>11200</v>
+        <v>9300</v>
       </c>
       <c r="G12" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="H12" s="3">
-        <v>10600</v>
+        <v>11500</v>
       </c>
       <c r="I12" s="3">
         <v>11000</v>
       </c>
       <c r="J12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,25 +1055,28 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
+      <c r="H15" s="3">
+        <v>5100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
@@ -1064,8 +1087,8 @@
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>123900</v>
+        <v>56600</v>
       </c>
       <c r="E17" s="3">
-        <v>127300</v>
+        <v>128600</v>
       </c>
       <c r="F17" s="3">
-        <v>100700</v>
+        <v>132100</v>
       </c>
       <c r="G17" s="3">
-        <v>89200</v>
+        <v>104500</v>
       </c>
       <c r="H17" s="3">
-        <v>80400</v>
+        <v>92600</v>
       </c>
       <c r="I17" s="3">
-        <v>107300</v>
+        <v>83400</v>
       </c>
       <c r="J17" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K17" s="3">
         <v>90500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>111100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>369600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-60800</v>
+        <v>-31300</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-63100</v>
       </c>
       <c r="F18" s="3">
-        <v>-27900</v>
+        <v>-8300</v>
       </c>
       <c r="G18" s="3">
-        <v>-25300</v>
+        <v>-28900</v>
       </c>
       <c r="H18" s="3">
-        <v>-14400</v>
+        <v>-26200</v>
       </c>
       <c r="I18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-45700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,25 +1342,28 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
+      <c r="H22" s="3">
+        <v>1000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -1334,8 +1374,8 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1352,63 +1392,69 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-55800</v>
+        <v>-29900</v>
       </c>
       <c r="E23" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-23500</v>
-      </c>
       <c r="G23" s="3">
-        <v>-20800</v>
+        <v>-24400</v>
       </c>
       <c r="H23" s="3">
-        <v>-10500</v>
+        <v>-21600</v>
       </c>
       <c r="I23" s="3">
-        <v>3800</v>
+        <v>-10900</v>
       </c>
       <c r="J23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-39600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-42400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1417,37 +1463,40 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56200</v>
+        <v>-29800</v>
       </c>
       <c r="E26" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-23400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-20700</v>
+        <v>-24300</v>
       </c>
       <c r="H26" s="3">
-        <v>-10200</v>
+        <v>-21500</v>
       </c>
       <c r="I26" s="3">
-        <v>3900</v>
+        <v>-10600</v>
       </c>
       <c r="J26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-82600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51400</v>
+        <v>-29300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1900</v>
+        <v>-53300</v>
       </c>
       <c r="F27" s="3">
-        <v>-23500</v>
+        <v>-2000</v>
       </c>
       <c r="G27" s="3">
-        <v>-21100</v>
+        <v>-24400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9000</v>
+        <v>-21900</v>
       </c>
       <c r="I27" s="3">
-        <v>4300</v>
+        <v>-9400</v>
       </c>
       <c r="J27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7300</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3900</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51400</v>
+        <v>-29300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1900</v>
+        <v>-53300</v>
       </c>
       <c r="F33" s="3">
-        <v>-23500</v>
+        <v>-2000</v>
       </c>
       <c r="G33" s="3">
-        <v>-21100</v>
+        <v>-24400</v>
       </c>
       <c r="H33" s="3">
-        <v>-9000</v>
+        <v>-21900</v>
       </c>
       <c r="I33" s="3">
-        <v>4300</v>
+        <v>-9400</v>
       </c>
       <c r="J33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51400</v>
+        <v>-29300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1900</v>
+        <v>-53300</v>
       </c>
       <c r="F35" s="3">
-        <v>-23500</v>
+        <v>-2000</v>
       </c>
       <c r="G35" s="3">
-        <v>-21100</v>
+        <v>-24400</v>
       </c>
       <c r="H35" s="3">
-        <v>-9000</v>
+        <v>-21900</v>
       </c>
       <c r="I35" s="3">
-        <v>4300</v>
+        <v>-9400</v>
       </c>
       <c r="J35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,149 +2139,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41400</v>
+        <v>85800</v>
       </c>
       <c r="E41" s="3">
-        <v>57500</v>
+        <v>42900</v>
       </c>
       <c r="F41" s="3">
-        <v>50700</v>
+        <v>59700</v>
       </c>
       <c r="G41" s="3">
-        <v>61800</v>
+        <v>52600</v>
       </c>
       <c r="H41" s="3">
-        <v>78400</v>
+        <v>64100</v>
       </c>
       <c r="I41" s="3">
-        <v>86000</v>
+        <v>81400</v>
       </c>
       <c r="J41" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K41" s="3">
         <v>89900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>157800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>182700</v>
+        <v>202900</v>
       </c>
       <c r="E42" s="3">
-        <v>211900</v>
+        <v>189600</v>
       </c>
       <c r="F42" s="3">
-        <v>197900</v>
+        <v>219800</v>
       </c>
       <c r="G42" s="3">
-        <v>156000</v>
+        <v>205400</v>
       </c>
       <c r="H42" s="3">
-        <v>120300</v>
+        <v>161800</v>
       </c>
       <c r="I42" s="3">
-        <v>145400</v>
+        <v>124800</v>
       </c>
       <c r="J42" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K42" s="3">
         <v>153200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>341500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>457800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>511100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>493200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>524100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>83300</v>
+        <v>74600</v>
       </c>
       <c r="E43" s="3">
-        <v>89300</v>
+        <v>86400</v>
       </c>
       <c r="F43" s="3">
-        <v>158700</v>
+        <v>92700</v>
       </c>
       <c r="G43" s="3">
-        <v>152500</v>
+        <v>164700</v>
       </c>
       <c r="H43" s="3">
-        <v>146100</v>
+        <v>158200</v>
       </c>
       <c r="I43" s="3">
-        <v>169200</v>
+        <v>151600</v>
       </c>
       <c r="J43" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K43" s="3">
         <v>146300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>172500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>156400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,243 +2337,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227800</v>
+        <v>154400</v>
       </c>
       <c r="E45" s="3">
-        <v>238700</v>
+        <v>236300</v>
       </c>
       <c r="F45" s="3">
-        <v>254100</v>
+        <v>247600</v>
       </c>
       <c r="G45" s="3">
-        <v>255000</v>
+        <v>263600</v>
       </c>
       <c r="H45" s="3">
-        <v>272100</v>
+        <v>264600</v>
       </c>
       <c r="I45" s="3">
-        <v>273700</v>
+        <v>282400</v>
       </c>
       <c r="J45" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K45" s="3">
         <v>253900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>163100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>214200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>148900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>492900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>535100</v>
+        <v>517800</v>
       </c>
       <c r="E46" s="3">
-        <v>597400</v>
+        <v>555300</v>
       </c>
       <c r="F46" s="3">
-        <v>661400</v>
+        <v>619900</v>
       </c>
       <c r="G46" s="3">
-        <v>625200</v>
+        <v>686300</v>
       </c>
       <c r="H46" s="3">
-        <v>616900</v>
+        <v>648800</v>
       </c>
       <c r="I46" s="3">
-        <v>674200</v>
+        <v>640200</v>
       </c>
       <c r="J46" s="3">
+        <v>699600</v>
+      </c>
+      <c r="K46" s="3">
         <v>643300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>656800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>755300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>994300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>970700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>934000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1093800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>260800</v>
+        <v>194700</v>
       </c>
       <c r="E47" s="3">
-        <v>265800</v>
+        <v>270600</v>
       </c>
       <c r="F47" s="3">
-        <v>207800</v>
+        <v>275800</v>
       </c>
       <c r="G47" s="3">
-        <v>177100</v>
+        <v>215600</v>
       </c>
       <c r="H47" s="3">
-        <v>182300</v>
+        <v>183800</v>
       </c>
       <c r="I47" s="3">
-        <v>186200</v>
+        <v>189200</v>
       </c>
       <c r="J47" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K47" s="3">
         <v>185600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>72000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46100</v>
+        <v>43200</v>
       </c>
       <c r="E48" s="3">
-        <v>54100</v>
+        <v>47800</v>
       </c>
       <c r="F48" s="3">
-        <v>53300</v>
+        <v>56100</v>
       </c>
       <c r="G48" s="3">
-        <v>55200</v>
+        <v>55300</v>
       </c>
       <c r="H48" s="3">
-        <v>26200</v>
+        <v>57300</v>
       </c>
       <c r="I48" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="P48" s="3">
         <v>24200</v>
       </c>
-      <c r="J48" s="3">
-        <v>22200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>21900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>22700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>24200</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55700</v>
+        <v>52700</v>
       </c>
       <c r="E49" s="3">
-        <v>56400</v>
+        <v>57800</v>
       </c>
       <c r="F49" s="3">
-        <v>60500</v>
+        <v>58500</v>
       </c>
       <c r="G49" s="3">
-        <v>62000</v>
+        <v>62800</v>
       </c>
       <c r="H49" s="3">
-        <v>66800</v>
+        <v>64300</v>
       </c>
       <c r="I49" s="3">
-        <v>71300</v>
+        <v>69300</v>
       </c>
       <c r="J49" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K49" s="3">
         <v>75200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>101200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>107600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25600</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>26100</v>
+        <v>26500</v>
       </c>
       <c r="F52" s="3">
-        <v>25900</v>
+        <v>27100</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="H52" s="3">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="I52" s="3">
-        <v>24300</v>
+        <v>26400</v>
       </c>
       <c r="J52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K52" s="3">
         <v>25100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>88600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>923300</v>
+        <v>832900</v>
       </c>
       <c r="E54" s="3">
-        <v>999800</v>
+        <v>958000</v>
       </c>
       <c r="F54" s="3">
-        <v>1008900</v>
+        <v>1037400</v>
       </c>
       <c r="G54" s="3">
-        <v>945600</v>
+        <v>1046900</v>
       </c>
       <c r="H54" s="3">
-        <v>917700</v>
+        <v>981200</v>
       </c>
       <c r="I54" s="3">
-        <v>980300</v>
+        <v>952300</v>
       </c>
       <c r="J54" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="K54" s="3">
         <v>951500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>942200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>988100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1179500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1177200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1141700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1333800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,72 +2879,76 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>183600</v>
+        <v>164100</v>
       </c>
       <c r="E57" s="3">
-        <v>253500</v>
+        <v>190500</v>
       </c>
       <c r="F57" s="3">
-        <v>251400</v>
+        <v>263000</v>
       </c>
       <c r="G57" s="3">
-        <v>209500</v>
+        <v>260900</v>
       </c>
       <c r="H57" s="3">
-        <v>182700</v>
+        <v>217400</v>
       </c>
       <c r="I57" s="3">
-        <v>228300</v>
+        <v>189600</v>
       </c>
       <c r="J57" s="3">
+        <v>236800</v>
+      </c>
+      <c r="K57" s="3">
         <v>182900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>166700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>218700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>173800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>142400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>148700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="E58" s="3">
-        <v>20200</v>
+        <v>29600</v>
       </c>
       <c r="F58" s="3">
-        <v>11700</v>
+        <v>21000</v>
       </c>
       <c r="G58" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>12100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2825,8 +2959,8 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2843,120 +2977,129 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>312500</v>
+        <v>257700</v>
       </c>
       <c r="E59" s="3">
-        <v>265700</v>
+        <v>324300</v>
       </c>
       <c r="F59" s="3">
-        <v>287100</v>
+        <v>275700</v>
       </c>
       <c r="G59" s="3">
-        <v>249700</v>
+        <v>297900</v>
       </c>
       <c r="H59" s="3">
-        <v>251500</v>
+        <v>259100</v>
       </c>
       <c r="I59" s="3">
-        <v>258400</v>
+        <v>261000</v>
       </c>
       <c r="J59" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K59" s="3">
         <v>284800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>254700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>307000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>380000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>416000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>358800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>509600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>524700</v>
+        <v>451400</v>
       </c>
       <c r="E60" s="3">
-        <v>539400</v>
+        <v>544400</v>
       </c>
       <c r="F60" s="3">
-        <v>550300</v>
+        <v>559700</v>
       </c>
       <c r="G60" s="3">
-        <v>467300</v>
+        <v>571000</v>
       </c>
       <c r="H60" s="3">
-        <v>434200</v>
+        <v>484900</v>
       </c>
       <c r="I60" s="3">
-        <v>486700</v>
+        <v>450600</v>
       </c>
       <c r="J60" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K60" s="3">
         <v>467600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>421400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>433500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>598600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>589800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>501200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>658400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
-        <v>800</v>
-      </c>
       <c r="G61" s="3">
+        <v>900</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="F62" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="G62" s="3">
-        <v>19700</v>
+        <v>17900</v>
       </c>
       <c r="H62" s="3">
-        <v>5700</v>
+        <v>20500</v>
       </c>
       <c r="I62" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="J62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>543900</v>
+        <v>469500</v>
       </c>
       <c r="E66" s="3">
-        <v>569300</v>
+        <v>564400</v>
       </c>
       <c r="F66" s="3">
-        <v>580400</v>
+        <v>590800</v>
       </c>
       <c r="G66" s="3">
-        <v>496800</v>
+        <v>602300</v>
       </c>
       <c r="H66" s="3">
-        <v>448800</v>
+        <v>515500</v>
       </c>
       <c r="I66" s="3">
-        <v>503100</v>
+        <v>465700</v>
       </c>
       <c r="J66" s="3">
+        <v>522100</v>
+      </c>
+      <c r="K66" s="3">
         <v>483700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>442000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>454500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>619600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>611800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>523200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>679600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-893800</v>
+        <v>-959500</v>
       </c>
       <c r="E72" s="3">
-        <v>-842600</v>
+        <v>-927400</v>
       </c>
       <c r="F72" s="3">
-        <v>-840900</v>
+        <v>-874300</v>
       </c>
       <c r="G72" s="3">
+        <v>-872600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-848400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-826600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-817600</v>
       </c>
-      <c r="H72" s="3">
-        <v>-796600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-788000</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-792300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-817100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-790000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-785800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-745800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-689100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>379400</v>
+        <v>363400</v>
       </c>
       <c r="E76" s="3">
-        <v>430500</v>
+        <v>393700</v>
       </c>
       <c r="F76" s="3">
-        <v>428500</v>
+        <v>446700</v>
       </c>
       <c r="G76" s="3">
-        <v>448900</v>
+        <v>444600</v>
       </c>
       <c r="H76" s="3">
-        <v>468900</v>
+        <v>465800</v>
       </c>
       <c r="I76" s="3">
-        <v>477200</v>
+        <v>486600</v>
       </c>
       <c r="J76" s="3">
+        <v>495100</v>
+      </c>
+      <c r="K76" s="3">
         <v>467800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>533600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>559900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>565500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>618500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>654300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51400</v>
+        <v>-29300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1900</v>
+        <v>-53300</v>
       </c>
       <c r="F81" s="3">
-        <v>-23500</v>
+        <v>-2000</v>
       </c>
       <c r="G81" s="3">
-        <v>-21100</v>
+        <v>-24400</v>
       </c>
       <c r="H81" s="3">
-        <v>-9000</v>
+        <v>-21900</v>
       </c>
       <c r="I81" s="3">
-        <v>4300</v>
+        <v>-9400</v>
       </c>
       <c r="J81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25300</v>
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
-        <v>65500</v>
+        <v>26500</v>
       </c>
       <c r="F8" s="3">
-        <v>123800</v>
+        <v>68700</v>
       </c>
       <c r="G8" s="3">
-        <v>75600</v>
+        <v>129700</v>
       </c>
       <c r="H8" s="3">
-        <v>66400</v>
+        <v>79100</v>
       </c>
       <c r="I8" s="3">
-        <v>68400</v>
+        <v>69500</v>
       </c>
       <c r="J8" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K8" s="3">
         <v>110800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>284100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11800</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="3">
-        <v>34100</v>
+        <v>12400</v>
       </c>
       <c r="F9" s="3">
-        <v>68600</v>
+        <v>35700</v>
       </c>
       <c r="G9" s="3">
-        <v>41700</v>
+        <v>71800</v>
       </c>
       <c r="H9" s="3">
-        <v>29900</v>
+        <v>43700</v>
       </c>
       <c r="I9" s="3">
-        <v>29200</v>
+        <v>31300</v>
       </c>
       <c r="J9" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K9" s="3">
         <v>54000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>258700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13400</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
-        <v>31500</v>
+        <v>14100</v>
       </c>
       <c r="F10" s="3">
-        <v>55300</v>
+        <v>33000</v>
       </c>
       <c r="G10" s="3">
-        <v>33800</v>
+        <v>57900</v>
       </c>
       <c r="H10" s="3">
-        <v>36400</v>
+        <v>35400</v>
       </c>
       <c r="I10" s="3">
-        <v>39200</v>
+        <v>38200</v>
       </c>
       <c r="J10" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K10" s="3">
         <v>56900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>65400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J12" s="3">
         <v>11500</v>
       </c>
-      <c r="F12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,28 +1078,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
-        <v>5200</v>
-      </c>
       <c r="G15" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="H15" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>16</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>56600</v>
+        <v>28000</v>
       </c>
       <c r="E17" s="3">
-        <v>128600</v>
+        <v>59200</v>
       </c>
       <c r="F17" s="3">
-        <v>132100</v>
+        <v>134700</v>
       </c>
       <c r="G17" s="3">
-        <v>104500</v>
+        <v>138300</v>
       </c>
       <c r="H17" s="3">
-        <v>92600</v>
+        <v>109500</v>
       </c>
       <c r="I17" s="3">
-        <v>83400</v>
+        <v>97000</v>
       </c>
       <c r="J17" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K17" s="3">
         <v>111400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>102500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>111100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>369600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-31300</v>
+        <v>-22900</v>
       </c>
       <c r="E18" s="3">
-        <v>-63100</v>
+        <v>-32800</v>
       </c>
       <c r="F18" s="3">
-        <v>-8300</v>
+        <v>-66100</v>
       </c>
       <c r="G18" s="3">
-        <v>-28900</v>
+        <v>-8700</v>
       </c>
       <c r="H18" s="3">
-        <v>-26200</v>
+        <v>-30300</v>
       </c>
       <c r="I18" s="3">
-        <v>-15000</v>
+        <v>-27500</v>
       </c>
       <c r="J18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-85500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>3000</v>
       </c>
       <c r="F20" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="J20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,19 +1394,19 @@
         <v>1500</v>
       </c>
       <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
-        <v>1300</v>
-      </c>
       <c r="G22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29900</v>
+        <v>-23700</v>
       </c>
       <c r="E23" s="3">
-        <v>-57900</v>
+        <v>-31300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1900</v>
+        <v>-60600</v>
       </c>
       <c r="G23" s="3">
-        <v>-24400</v>
+        <v>-2000</v>
       </c>
       <c r="H23" s="3">
-        <v>-21600</v>
+        <v>-25500</v>
       </c>
       <c r="I23" s="3">
-        <v>-10900</v>
+        <v>-22600</v>
       </c>
       <c r="J23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-83000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,10 +1500,10 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1466,37 +1512,40 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-29800</v>
+        <v>-23500</v>
       </c>
       <c r="E26" s="3">
-        <v>-58300</v>
+        <v>-31200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1800</v>
+        <v>-61100</v>
       </c>
       <c r="G26" s="3">
-        <v>-24300</v>
+        <v>-1900</v>
       </c>
       <c r="H26" s="3">
-        <v>-21500</v>
+        <v>-25400</v>
       </c>
       <c r="I26" s="3">
-        <v>-10600</v>
+        <v>-22500</v>
       </c>
       <c r="J26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-82600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29300</v>
+        <v>-22500</v>
       </c>
       <c r="E27" s="3">
-        <v>-53300</v>
+        <v>-30700</v>
       </c>
       <c r="F27" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-24400</v>
-      </c>
       <c r="H27" s="3">
-        <v>-21900</v>
+        <v>-25600</v>
       </c>
       <c r="I27" s="3">
-        <v>-9400</v>
+        <v>-22900</v>
       </c>
       <c r="J27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-40200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-81600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-3000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-8000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-5900</v>
       </c>
       <c r="J32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29300</v>
+        <v>-22500</v>
       </c>
       <c r="E33" s="3">
-        <v>-53300</v>
+        <v>-30700</v>
       </c>
       <c r="F33" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-24400</v>
-      </c>
       <c r="H33" s="3">
-        <v>-21900</v>
+        <v>-25600</v>
       </c>
       <c r="I33" s="3">
-        <v>-9400</v>
+        <v>-22900</v>
       </c>
       <c r="J33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-40200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-81600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29300</v>
+        <v>-22500</v>
       </c>
       <c r="E35" s="3">
-        <v>-53300</v>
+        <v>-30700</v>
       </c>
       <c r="F35" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-24400</v>
-      </c>
       <c r="H35" s="3">
-        <v>-21900</v>
+        <v>-25600</v>
       </c>
       <c r="I35" s="3">
-        <v>-9400</v>
+        <v>-22900</v>
       </c>
       <c r="J35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-40200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-81600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85800</v>
+        <v>80300</v>
       </c>
       <c r="E41" s="3">
-        <v>42900</v>
+        <v>89900</v>
       </c>
       <c r="F41" s="3">
-        <v>59700</v>
+        <v>44900</v>
       </c>
       <c r="G41" s="3">
-        <v>52600</v>
+        <v>62500</v>
       </c>
       <c r="H41" s="3">
-        <v>64100</v>
+        <v>55100</v>
       </c>
       <c r="I41" s="3">
-        <v>81400</v>
+        <v>67200</v>
       </c>
       <c r="J41" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K41" s="3">
         <v>89200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>89900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>159100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>157800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202900</v>
+        <v>148600</v>
       </c>
       <c r="E42" s="3">
-        <v>189600</v>
+        <v>212600</v>
       </c>
       <c r="F42" s="3">
-        <v>219800</v>
+        <v>198600</v>
       </c>
       <c r="G42" s="3">
-        <v>205400</v>
+        <v>230300</v>
       </c>
       <c r="H42" s="3">
-        <v>161800</v>
+        <v>215100</v>
       </c>
       <c r="I42" s="3">
-        <v>124800</v>
+        <v>169500</v>
       </c>
       <c r="J42" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K42" s="3">
         <v>150900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>153200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>341500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>457800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>511100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>493200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>524100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74600</v>
+        <v>63200</v>
       </c>
       <c r="E43" s="3">
-        <v>86400</v>
+        <v>78100</v>
       </c>
       <c r="F43" s="3">
-        <v>92700</v>
+        <v>90500</v>
       </c>
       <c r="G43" s="3">
-        <v>164700</v>
+        <v>97100</v>
       </c>
       <c r="H43" s="3">
-        <v>158200</v>
+        <v>172500</v>
       </c>
       <c r="I43" s="3">
-        <v>151600</v>
+        <v>165700</v>
       </c>
       <c r="J43" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K43" s="3">
         <v>175500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>72600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>151300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>156400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154400</v>
+        <v>149900</v>
       </c>
       <c r="E45" s="3">
-        <v>236300</v>
+        <v>161800</v>
       </c>
       <c r="F45" s="3">
         <v>247600</v>
       </c>
       <c r="G45" s="3">
-        <v>263600</v>
+        <v>259400</v>
       </c>
       <c r="H45" s="3">
-        <v>264600</v>
+        <v>276100</v>
       </c>
       <c r="I45" s="3">
-        <v>282400</v>
+        <v>277100</v>
       </c>
       <c r="J45" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K45" s="3">
         <v>284000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>253900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>214200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>167100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>148900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>492900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>517800</v>
+        <v>442000</v>
       </c>
       <c r="E46" s="3">
-        <v>555300</v>
+        <v>542300</v>
       </c>
       <c r="F46" s="3">
-        <v>619900</v>
+        <v>581600</v>
       </c>
       <c r="G46" s="3">
-        <v>686300</v>
+        <v>649300</v>
       </c>
       <c r="H46" s="3">
-        <v>648800</v>
+        <v>718800</v>
       </c>
       <c r="I46" s="3">
-        <v>640200</v>
+        <v>679500</v>
       </c>
       <c r="J46" s="3">
+        <v>670500</v>
+      </c>
+      <c r="K46" s="3">
         <v>699600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>643300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>656800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>755300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>994300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>970700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>934000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1093800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>194700</v>
+        <v>168800</v>
       </c>
       <c r="E47" s="3">
-        <v>270600</v>
+        <v>204000</v>
       </c>
       <c r="F47" s="3">
-        <v>275800</v>
+        <v>283400</v>
       </c>
       <c r="G47" s="3">
-        <v>215600</v>
+        <v>288900</v>
       </c>
       <c r="H47" s="3">
-        <v>183800</v>
+        <v>225800</v>
       </c>
       <c r="I47" s="3">
-        <v>189200</v>
+        <v>192500</v>
       </c>
       <c r="J47" s="3">
+        <v>198100</v>
+      </c>
+      <c r="K47" s="3">
         <v>193200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>185600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>142500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>72000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43200</v>
+        <v>38400</v>
       </c>
       <c r="E48" s="3">
-        <v>47800</v>
+        <v>45300</v>
       </c>
       <c r="F48" s="3">
-        <v>56100</v>
+        <v>50100</v>
       </c>
       <c r="G48" s="3">
-        <v>55300</v>
+        <v>58800</v>
       </c>
       <c r="H48" s="3">
-        <v>57300</v>
+        <v>57900</v>
       </c>
       <c r="I48" s="3">
-        <v>27200</v>
+        <v>60000</v>
       </c>
       <c r="J48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K48" s="3">
         <v>25100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52700</v>
+        <v>67300</v>
       </c>
       <c r="E49" s="3">
-        <v>57800</v>
+        <v>55200</v>
       </c>
       <c r="F49" s="3">
-        <v>58500</v>
+        <v>60600</v>
       </c>
       <c r="G49" s="3">
-        <v>62800</v>
+        <v>61300</v>
       </c>
       <c r="H49" s="3">
-        <v>64300</v>
+        <v>65800</v>
       </c>
       <c r="I49" s="3">
-        <v>69300</v>
+        <v>67400</v>
       </c>
       <c r="J49" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K49" s="3">
         <v>74000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>95800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>101200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>107600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="F52" s="3">
-        <v>27100</v>
+        <v>27800</v>
       </c>
       <c r="G52" s="3">
-        <v>26800</v>
+        <v>28300</v>
       </c>
       <c r="H52" s="3">
-        <v>27000</v>
+        <v>28100</v>
       </c>
       <c r="I52" s="3">
-        <v>26400</v>
+        <v>28300</v>
       </c>
       <c r="J52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K52" s="3">
         <v>25300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>88600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>832900</v>
+        <v>725600</v>
       </c>
       <c r="E54" s="3">
-        <v>958000</v>
+        <v>872500</v>
       </c>
       <c r="F54" s="3">
-        <v>1037400</v>
+        <v>1003500</v>
       </c>
       <c r="G54" s="3">
-        <v>1046900</v>
+        <v>1086600</v>
       </c>
       <c r="H54" s="3">
-        <v>981200</v>
+        <v>1096500</v>
       </c>
       <c r="I54" s="3">
-        <v>952300</v>
+        <v>1027800</v>
       </c>
       <c r="J54" s="3">
+        <v>997400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1017200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>951500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>942200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>988100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1179500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1177200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1141700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1333800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,78 +3010,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>164100</v>
+        <v>151900</v>
       </c>
       <c r="E57" s="3">
-        <v>190500</v>
+        <v>171900</v>
       </c>
       <c r="F57" s="3">
-        <v>263000</v>
+        <v>199600</v>
       </c>
       <c r="G57" s="3">
-        <v>260900</v>
+        <v>275500</v>
       </c>
       <c r="H57" s="3">
-        <v>217400</v>
+        <v>273300</v>
       </c>
       <c r="I57" s="3">
-        <v>189600</v>
+        <v>227700</v>
       </c>
       <c r="J57" s="3">
+        <v>198600</v>
+      </c>
+      <c r="K57" s="3">
         <v>236800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>182900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>166700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>218700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>173800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>142400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>148700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29600</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="F58" s="3">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="G58" s="3">
-        <v>12100</v>
+        <v>21900</v>
       </c>
       <c r="H58" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>12700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,129 +3114,138 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257700</v>
+        <v>189500</v>
       </c>
       <c r="E59" s="3">
-        <v>324300</v>
+        <v>269900</v>
       </c>
       <c r="F59" s="3">
-        <v>275700</v>
+        <v>339700</v>
       </c>
       <c r="G59" s="3">
-        <v>297900</v>
+        <v>288800</v>
       </c>
       <c r="H59" s="3">
-        <v>259100</v>
+        <v>312100</v>
       </c>
       <c r="I59" s="3">
-        <v>261000</v>
+        <v>271400</v>
       </c>
       <c r="J59" s="3">
+        <v>273400</v>
+      </c>
+      <c r="K59" s="3">
         <v>268100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>284800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>254700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>307000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>380000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>416000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>358800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>509600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>451400</v>
+        <v>349100</v>
       </c>
       <c r="E60" s="3">
-        <v>544400</v>
+        <v>472800</v>
       </c>
       <c r="F60" s="3">
-        <v>559700</v>
+        <v>570300</v>
       </c>
       <c r="G60" s="3">
-        <v>571000</v>
+        <v>586300</v>
       </c>
       <c r="H60" s="3">
-        <v>484900</v>
+        <v>598100</v>
       </c>
       <c r="I60" s="3">
-        <v>450600</v>
+        <v>507900</v>
       </c>
       <c r="J60" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K60" s="3">
         <v>505000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>467600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>421400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>433500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>598600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>589800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>501200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>658400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>1500</v>
       </c>
       <c r="G61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="E62" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="F62" s="3">
-        <v>16600</v>
+        <v>13600</v>
       </c>
       <c r="G62" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="H62" s="3">
-        <v>20500</v>
+        <v>18700</v>
       </c>
       <c r="I62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>469500</v>
+        <v>367000</v>
       </c>
       <c r="E66" s="3">
-        <v>564400</v>
+        <v>491800</v>
       </c>
       <c r="F66" s="3">
-        <v>590800</v>
+        <v>591100</v>
       </c>
       <c r="G66" s="3">
-        <v>602300</v>
+        <v>618800</v>
       </c>
       <c r="H66" s="3">
-        <v>515500</v>
+        <v>630800</v>
       </c>
       <c r="I66" s="3">
-        <v>465700</v>
+        <v>539900</v>
       </c>
       <c r="J66" s="3">
+        <v>487800</v>
+      </c>
+      <c r="K66" s="3">
         <v>522100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>483700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>442000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>454500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>619600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>611800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>523200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>679600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-959500</v>
+        <v>-1027500</v>
       </c>
       <c r="E72" s="3">
-        <v>-927400</v>
+        <v>-1005000</v>
       </c>
       <c r="F72" s="3">
-        <v>-874300</v>
+        <v>-971400</v>
       </c>
       <c r="G72" s="3">
-        <v>-872600</v>
+        <v>-915800</v>
       </c>
       <c r="H72" s="3">
-        <v>-848400</v>
+        <v>-914000</v>
       </c>
       <c r="I72" s="3">
-        <v>-826600</v>
+        <v>-888600</v>
       </c>
       <c r="J72" s="3">
+        <v>-865800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-817600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-792300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-817100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-790000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-785800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-745800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-689100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363400</v>
+        <v>358600</v>
       </c>
       <c r="E76" s="3">
-        <v>393700</v>
+        <v>380700</v>
       </c>
       <c r="F76" s="3">
-        <v>446700</v>
+        <v>412300</v>
       </c>
       <c r="G76" s="3">
-        <v>444600</v>
+        <v>467900</v>
       </c>
       <c r="H76" s="3">
-        <v>465800</v>
+        <v>465700</v>
       </c>
       <c r="I76" s="3">
-        <v>486600</v>
+        <v>487900</v>
       </c>
       <c r="J76" s="3">
+        <v>509700</v>
+      </c>
+      <c r="K76" s="3">
         <v>495100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>467800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>533600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>559900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>565500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>618500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>654300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29300</v>
+        <v>-22500</v>
       </c>
       <c r="E81" s="3">
-        <v>-53300</v>
+        <v>-30700</v>
       </c>
       <c r="F81" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-24400</v>
-      </c>
       <c r="H81" s="3">
-        <v>-21900</v>
+        <v>-25600</v>
       </c>
       <c r="I81" s="3">
-        <v>-9400</v>
+        <v>-22900</v>
       </c>
       <c r="J81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-40200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-81600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
-        <v>26500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>68700</v>
-      </c>
       <c r="G8" s="3">
-        <v>129700</v>
+        <v>26600</v>
       </c>
       <c r="H8" s="3">
-        <v>79100</v>
+        <v>68900</v>
       </c>
       <c r="I8" s="3">
+        <v>130200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K8" s="3">
         <v>69500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>71700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>110800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>73500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>68900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>69700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>119600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>68300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>67700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>284100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
-        <v>35700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>71800</v>
-      </c>
       <c r="H9" s="3">
-        <v>43700</v>
+        <v>35800</v>
       </c>
       <c r="I9" s="3">
+        <v>72100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K9" s="3">
         <v>31300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>31300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>34800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>54200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>32600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>258700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>14100</v>
       </c>
-      <c r="F10" s="3">
-        <v>33000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>57900</v>
-      </c>
       <c r="H10" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="I10" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K10" s="3">
         <v>38200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>35100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>34900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>65400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>35700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>37300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>25400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12000</v>
-      </c>
       <c r="G12" s="3">
-        <v>9700</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
         <v>12100</v>
       </c>
       <c r="I12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K12" s="3">
         <v>12100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>16500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>18400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>21800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>23700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>24700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,34 +1120,40 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>5500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>5400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>16</v>
@@ -1116,11 +1161,11 @@
       <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28000</v>
+        <v>157500</v>
       </c>
       <c r="E17" s="3">
-        <v>59200</v>
+        <v>28500</v>
       </c>
       <c r="F17" s="3">
-        <v>134700</v>
+        <v>28200</v>
       </c>
       <c r="G17" s="3">
-        <v>138300</v>
+        <v>59500</v>
       </c>
       <c r="H17" s="3">
-        <v>109500</v>
+        <v>135300</v>
       </c>
       <c r="I17" s="3">
+        <v>138900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K17" s="3">
         <v>97000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>87400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>111400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>90500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>86300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>102500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>129400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>111100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>113400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>369600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-22900</v>
+        <v>-139400</v>
       </c>
       <c r="E18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-32800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-66100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-45700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-85500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1344,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H20" s="3">
         <v>7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,34 +1458,40 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
@@ -1420,11 +1499,11 @@
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23700</v>
+        <v>-141400</v>
       </c>
       <c r="E23" s="3">
-        <v>-31300</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3">
-        <v>-60600</v>
+        <v>-23800</v>
       </c>
       <c r="G23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-26500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-42400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-83000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-400</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23500</v>
+        <v>-140800</v>
       </c>
       <c r="E26" s="3">
-        <v>-31200</v>
+        <v>-9500</v>
       </c>
       <c r="F26" s="3">
-        <v>-61100</v>
+        <v>-23600</v>
       </c>
       <c r="G26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-25400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-27600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-42600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-82600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-22500</v>
+        <v>-137800</v>
       </c>
       <c r="E27" s="3">
-        <v>-30700</v>
+        <v>-8700</v>
       </c>
       <c r="F27" s="3">
-        <v>-55800</v>
+        <v>-22600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2000</v>
+        <v>-30800</v>
       </c>
       <c r="H27" s="3">
-        <v>-25600</v>
+        <v>-56100</v>
       </c>
       <c r="I27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-27400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-42800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-81600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-22500</v>
+        <v>-137800</v>
       </c>
       <c r="E33" s="3">
-        <v>-30700</v>
+        <v>-8700</v>
       </c>
       <c r="F33" s="3">
-        <v>-55800</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>-2000</v>
+        <v>-30800</v>
       </c>
       <c r="H33" s="3">
-        <v>-25600</v>
+        <v>-56100</v>
       </c>
       <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-27400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-42800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-81600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-22500</v>
+        <v>-137800</v>
       </c>
       <c r="E35" s="3">
-        <v>-30700</v>
+        <v>-8700</v>
       </c>
       <c r="F35" s="3">
-        <v>-55800</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>-2000</v>
+        <v>-30800</v>
       </c>
       <c r="H35" s="3">
-        <v>-25600</v>
+        <v>-56100</v>
       </c>
       <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-27400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-42800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-81600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2398,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80300</v>
+        <v>32600</v>
       </c>
       <c r="E41" s="3">
+        <v>102100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>80700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>62800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="L41" s="3">
+        <v>85200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>89200</v>
+      </c>
+      <c r="N41" s="3">
         <v>89900</v>
       </c>
-      <c r="F41" s="3">
-        <v>44900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>62500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>55100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>67200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>85200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>89200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>89900</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>87800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>71800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>125800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>159100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>112000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>157800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>148600</v>
+        <v>206800</v>
       </c>
       <c r="E42" s="3">
-        <v>212600</v>
+        <v>129300</v>
       </c>
       <c r="F42" s="3">
-        <v>198600</v>
+        <v>149300</v>
       </c>
       <c r="G42" s="3">
-        <v>230300</v>
+        <v>213500</v>
       </c>
       <c r="H42" s="3">
-        <v>215100</v>
+        <v>199400</v>
       </c>
       <c r="I42" s="3">
+        <v>231300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>216100</v>
+      </c>
+      <c r="K42" s="3">
         <v>169500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>130700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>150900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>153200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>341500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>457800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>511100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>493200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>500700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>524100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>63200</v>
+        <v>44000</v>
       </c>
       <c r="E43" s="3">
-        <v>78100</v>
+        <v>55500</v>
       </c>
       <c r="F43" s="3">
-        <v>90500</v>
+        <v>63400</v>
       </c>
       <c r="G43" s="3">
-        <v>97100</v>
+        <v>78400</v>
       </c>
       <c r="H43" s="3">
+        <v>90900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>97500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>165700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>158800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>175500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>146300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>64400</v>
+      </c>
+      <c r="P43" s="3">
+        <v>72600</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>143000</v>
+      </c>
+      <c r="R43" s="3">
+        <v>151300</v>
+      </c>
+      <c r="S43" s="3">
         <v>172500</v>
       </c>
-      <c r="I43" s="3">
-        <v>165700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>158800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>175500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>146300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>64400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>72600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>143000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>151300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>172500</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>156400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2630,309 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>149900</v>
+        <v>65600</v>
       </c>
       <c r="E45" s="3">
-        <v>161800</v>
+        <v>132200</v>
       </c>
       <c r="F45" s="3">
-        <v>247600</v>
+        <v>150600</v>
       </c>
       <c r="G45" s="3">
-        <v>259400</v>
+        <v>162500</v>
       </c>
       <c r="H45" s="3">
-        <v>276100</v>
+        <v>248600</v>
       </c>
       <c r="I45" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>277300</v>
+      </c>
+      <c r="K45" s="3">
         <v>277100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>295800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>284000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>253900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>163100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>153100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>214200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>167100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>148900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>492900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>442000</v>
+        <v>349000</v>
       </c>
       <c r="E46" s="3">
-        <v>542300</v>
+        <v>419100</v>
       </c>
       <c r="F46" s="3">
-        <v>581600</v>
+        <v>443900</v>
       </c>
       <c r="G46" s="3">
-        <v>649300</v>
+        <v>544700</v>
       </c>
       <c r="H46" s="3">
-        <v>718800</v>
+        <v>584100</v>
       </c>
       <c r="I46" s="3">
+        <v>652100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>722000</v>
+      </c>
+      <c r="K46" s="3">
         <v>679500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>670500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>699600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>643300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>656800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>755300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>994300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>970700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>934000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1093800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>168800</v>
+        <v>40800</v>
       </c>
       <c r="E47" s="3">
-        <v>204000</v>
+        <v>155600</v>
       </c>
       <c r="F47" s="3">
-        <v>283400</v>
+        <v>169600</v>
       </c>
       <c r="G47" s="3">
-        <v>288900</v>
+        <v>204900</v>
       </c>
       <c r="H47" s="3">
-        <v>225800</v>
+        <v>284700</v>
       </c>
       <c r="I47" s="3">
+        <v>290200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>226800</v>
+      </c>
+      <c r="K47" s="3">
         <v>192500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>198100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>193200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>185600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>142500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>72000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>14500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>10900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>8700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>18000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38400</v>
+        <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>45300</v>
+        <v>34800</v>
       </c>
       <c r="F48" s="3">
-        <v>50100</v>
+        <v>38500</v>
       </c>
       <c r="G48" s="3">
-        <v>58800</v>
+        <v>45500</v>
       </c>
       <c r="H48" s="3">
-        <v>57900</v>
+        <v>50300</v>
       </c>
       <c r="I48" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K48" s="3">
         <v>60000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>28500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>21400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>22000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>22700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>25900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>67300</v>
+        <v>61100</v>
       </c>
       <c r="E49" s="3">
-        <v>55200</v>
+        <v>65700</v>
       </c>
       <c r="F49" s="3">
-        <v>60600</v>
+        <v>67600</v>
       </c>
       <c r="G49" s="3">
-        <v>61300</v>
+        <v>55400</v>
       </c>
       <c r="H49" s="3">
-        <v>65800</v>
+        <v>60800</v>
       </c>
       <c r="I49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K49" s="3">
         <v>67400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>72600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>74000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>75200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>82300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>90300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>95800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>101200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>105900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>107600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9100</v>
+        <v>13900</v>
       </c>
       <c r="E52" s="3">
-        <v>25700</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>27800</v>
+        <v>9200</v>
       </c>
       <c r="G52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K52" s="3">
         <v>28300</v>
       </c>
-      <c r="H52" s="3">
-        <v>28100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>28300</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>25100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>39200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>48500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>53000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>71600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>68900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>88600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725600</v>
+        <v>488400</v>
       </c>
       <c r="E54" s="3">
-        <v>872500</v>
+        <v>682500</v>
       </c>
       <c r="F54" s="3">
-        <v>1003500</v>
+        <v>728800</v>
       </c>
       <c r="G54" s="3">
-        <v>1086600</v>
+        <v>876200</v>
       </c>
       <c r="H54" s="3">
-        <v>1096500</v>
+        <v>1007800</v>
       </c>
       <c r="I54" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1027800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>997400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1017200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>951500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>942200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>988100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1179500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1177200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1141700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1333800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,87 +3270,95 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151900</v>
+        <v>107800</v>
       </c>
       <c r="E57" s="3">
-        <v>171900</v>
+        <v>141500</v>
       </c>
       <c r="F57" s="3">
-        <v>199600</v>
+        <v>152600</v>
       </c>
       <c r="G57" s="3">
-        <v>275500</v>
+        <v>172600</v>
       </c>
       <c r="H57" s="3">
-        <v>273300</v>
+        <v>200400</v>
       </c>
       <c r="I57" s="3">
+        <v>276700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>274400</v>
+      </c>
+      <c r="K57" s="3">
         <v>227700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>198600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>236800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>182900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>166700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>126500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>218700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>173800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>142400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>148700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>7700</v>
       </c>
-      <c r="E58" s="3">
-        <v>31000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>31000</v>
-      </c>
       <c r="G58" s="3">
-        <v>21900</v>
+        <v>31100</v>
       </c>
       <c r="H58" s="3">
-        <v>12700</v>
+        <v>31100</v>
       </c>
       <c r="I58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K58" s="3">
         <v>8800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
@@ -3099,11 +3366,11 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3117,141 +3384,159 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>189500</v>
+        <v>149400</v>
       </c>
       <c r="E59" s="3">
-        <v>269900</v>
+        <v>172600</v>
       </c>
       <c r="F59" s="3">
-        <v>339700</v>
+        <v>190300</v>
       </c>
       <c r="G59" s="3">
-        <v>288800</v>
+        <v>271100</v>
       </c>
       <c r="H59" s="3">
-        <v>312100</v>
+        <v>341200</v>
       </c>
       <c r="I59" s="3">
+        <v>290100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K59" s="3">
         <v>271400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>273400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>268100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>284800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>254700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>307000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>380000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>416000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>358800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>509600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>349100</v>
+        <v>266500</v>
       </c>
       <c r="E60" s="3">
-        <v>472800</v>
+        <v>317200</v>
       </c>
       <c r="F60" s="3">
-        <v>570300</v>
+        <v>350600</v>
       </c>
       <c r="G60" s="3">
-        <v>586300</v>
+        <v>474900</v>
       </c>
       <c r="H60" s="3">
-        <v>598100</v>
+        <v>572700</v>
       </c>
       <c r="I60" s="3">
+        <v>588800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>600700</v>
+      </c>
+      <c r="K60" s="3">
         <v>507900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>472000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>505000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>467600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>421400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>433500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>598600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>589800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>501200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>658400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3561,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10700</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G62" s="3">
         <v>12100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17400</v>
       </c>
-      <c r="H62" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K62" s="3">
         <v>21400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>6400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>367000</v>
+        <v>276800</v>
       </c>
       <c r="E66" s="3">
-        <v>491800</v>
+        <v>332600</v>
       </c>
       <c r="F66" s="3">
-        <v>591100</v>
+        <v>368600</v>
       </c>
       <c r="G66" s="3">
-        <v>618800</v>
+        <v>493900</v>
       </c>
       <c r="H66" s="3">
-        <v>630800</v>
+        <v>593700</v>
       </c>
       <c r="I66" s="3">
+        <v>621500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>633600</v>
+      </c>
+      <c r="K66" s="3">
         <v>539900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>487800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>522100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>483700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>442000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>454500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>619600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>611800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>523200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>679600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1027500</v>
+        <v>-1178400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1005000</v>
+        <v>-1040700</v>
       </c>
       <c r="F72" s="3">
-        <v>-971400</v>
+        <v>-1032000</v>
       </c>
       <c r="G72" s="3">
-        <v>-915800</v>
+        <v>-1009400</v>
       </c>
       <c r="H72" s="3">
-        <v>-914000</v>
+        <v>-975600</v>
       </c>
       <c r="I72" s="3">
+        <v>-919800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-918000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-888600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-865800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-817600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-792300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-800600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-817100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-790000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-785800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-745800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-689100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>358600</v>
+        <v>211600</v>
       </c>
       <c r="E76" s="3">
-        <v>380700</v>
+        <v>350000</v>
       </c>
       <c r="F76" s="3">
-        <v>412300</v>
+        <v>360200</v>
       </c>
       <c r="G76" s="3">
-        <v>467900</v>
+        <v>382300</v>
       </c>
       <c r="H76" s="3">
-        <v>465700</v>
+        <v>414100</v>
       </c>
       <c r="I76" s="3">
+        <v>469900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>467700</v>
+      </c>
+      <c r="K76" s="3">
         <v>487900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>509700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>495100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>467800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>533600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>559900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>565500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>618500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>654300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-22500</v>
+        <v>-137800</v>
       </c>
       <c r="E81" s="3">
-        <v>-30700</v>
+        <v>-8700</v>
       </c>
       <c r="F81" s="3">
-        <v>-55800</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>-2000</v>
+        <v>-30800</v>
       </c>
       <c r="H81" s="3">
-        <v>-25600</v>
+        <v>-56100</v>
       </c>
       <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-27400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-42800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-81600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="E8" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="F8" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G8" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="H8" s="3">
-        <v>68900</v>
+        <v>70400</v>
       </c>
       <c r="I8" s="3">
-        <v>130200</v>
+        <v>133000</v>
       </c>
       <c r="J8" s="3">
-        <v>79500</v>
+        <v>81200</v>
       </c>
       <c r="K8" s="3">
         <v>69500</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="E9" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F9" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G9" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H9" s="3">
-        <v>35800</v>
+        <v>36600</v>
       </c>
       <c r="I9" s="3">
-        <v>72100</v>
+        <v>73600</v>
       </c>
       <c r="J9" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="K9" s="3">
         <v>31300</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E10" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="H10" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="I10" s="3">
-        <v>58100</v>
+        <v>59400</v>
       </c>
       <c r="J10" s="3">
-        <v>35600</v>
+        <v>36300</v>
       </c>
       <c r="K10" s="3">
         <v>38200</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H12" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="I12" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="J12" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="K12" s="3">
         <v>12100</v>
@@ -1131,26 +1131,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>500</v>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J15" s="3">
         <v>5500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5400</v>
       </c>
       <c r="K15" s="3">
         <v>5400</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>157500</v>
+        <v>160800</v>
       </c>
       <c r="E17" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="F17" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="G17" s="3">
-        <v>59500</v>
+        <v>60800</v>
       </c>
       <c r="H17" s="3">
-        <v>135300</v>
+        <v>138100</v>
       </c>
       <c r="I17" s="3">
-        <v>138900</v>
+        <v>141900</v>
       </c>
       <c r="J17" s="3">
-        <v>109900</v>
+        <v>112300</v>
       </c>
       <c r="K17" s="3">
         <v>97000</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-139400</v>
+        <v>-142300</v>
       </c>
       <c r="E18" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="F18" s="3">
-        <v>-23000</v>
+        <v>-23500</v>
       </c>
       <c r="G18" s="3">
-        <v>-32900</v>
+        <v>-33600</v>
       </c>
       <c r="H18" s="3">
-        <v>-66300</v>
+        <v>-67700</v>
       </c>
       <c r="I18" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="J18" s="3">
-        <v>-30400</v>
+        <v>-31100</v>
       </c>
       <c r="K18" s="3">
         <v>-27500</v>
@@ -1355,7 +1355,7 @@
         <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
@@ -1364,13 +1364,13 @@
         <v>3100</v>
       </c>
       <c r="H20" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K20" s="3">
         <v>5900</v>
@@ -1482,7 +1482,7 @@
         <v>1600</v>
       </c>
       <c r="H22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-141400</v>
+        <v>-144400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="F23" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="G23" s="3">
-        <v>-31500</v>
+        <v>-32100</v>
       </c>
       <c r="H23" s="3">
-        <v>-60900</v>
+        <v>-62200</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K23" s="3">
         <v>-22600</v>
@@ -1600,7 +1600,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-140800</v>
+        <v>-143800</v>
       </c>
       <c r="E26" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F26" s="3">
-        <v>-23600</v>
+        <v>-24100</v>
       </c>
       <c r="G26" s="3">
-        <v>-31300</v>
+        <v>-32000</v>
       </c>
       <c r="H26" s="3">
-        <v>-61300</v>
+        <v>-62600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J26" s="3">
-        <v>-25500</v>
+        <v>-26100</v>
       </c>
       <c r="K26" s="3">
         <v>-22500</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-137800</v>
+        <v>-140700</v>
       </c>
       <c r="E27" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F27" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="G27" s="3">
-        <v>-30800</v>
+        <v>-31400</v>
       </c>
       <c r="H27" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="I27" s="3">
         <v>-2100</v>
       </c>
       <c r="J27" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K27" s="3">
         <v>-22900</v>
@@ -2063,7 +2063,7 @@
         <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
@@ -2072,13 +2072,13 @@
         <v>-3100</v>
       </c>
       <c r="H32" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K32" s="3">
         <v>-5900</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-137800</v>
+        <v>-140700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="G33" s="3">
-        <v>-30800</v>
+        <v>-31400</v>
       </c>
       <c r="H33" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="I33" s="3">
         <v>-2100</v>
       </c>
       <c r="J33" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K33" s="3">
         <v>-22900</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-137800</v>
+        <v>-140700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="G35" s="3">
-        <v>-30800</v>
+        <v>-31400</v>
       </c>
       <c r="H35" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="I35" s="3">
         <v>-2100</v>
       </c>
       <c r="J35" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K35" s="3">
         <v>-22900</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32600</v>
+        <v>33300</v>
       </c>
       <c r="E41" s="3">
-        <v>102100</v>
+        <v>104300</v>
       </c>
       <c r="F41" s="3">
-        <v>80700</v>
+        <v>82400</v>
       </c>
       <c r="G41" s="3">
-        <v>90300</v>
+        <v>92200</v>
       </c>
       <c r="H41" s="3">
-        <v>45100</v>
+        <v>46100</v>
       </c>
       <c r="I41" s="3">
-        <v>62800</v>
+        <v>64100</v>
       </c>
       <c r="J41" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="K41" s="3">
         <v>67200</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>206800</v>
+        <v>211200</v>
       </c>
       <c r="E42" s="3">
-        <v>129300</v>
+        <v>132000</v>
       </c>
       <c r="F42" s="3">
-        <v>149300</v>
+        <v>152400</v>
       </c>
       <c r="G42" s="3">
-        <v>213500</v>
+        <v>218000</v>
       </c>
       <c r="H42" s="3">
-        <v>199400</v>
+        <v>203700</v>
       </c>
       <c r="I42" s="3">
-        <v>231300</v>
+        <v>236200</v>
       </c>
       <c r="J42" s="3">
-        <v>216100</v>
+        <v>220600</v>
       </c>
       <c r="K42" s="3">
         <v>169500</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44000</v>
+        <v>44900</v>
       </c>
       <c r="E43" s="3">
-        <v>55500</v>
+        <v>56700</v>
       </c>
       <c r="F43" s="3">
-        <v>63400</v>
+        <v>64800</v>
       </c>
       <c r="G43" s="3">
-        <v>78400</v>
+        <v>80100</v>
       </c>
       <c r="H43" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="I43" s="3">
-        <v>97500</v>
+        <v>99600</v>
       </c>
       <c r="J43" s="3">
-        <v>173200</v>
+        <v>176900</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65600</v>
+        <v>67000</v>
       </c>
       <c r="E45" s="3">
-        <v>132200</v>
+        <v>135000</v>
       </c>
       <c r="F45" s="3">
-        <v>150600</v>
+        <v>153700</v>
       </c>
       <c r="G45" s="3">
-        <v>162500</v>
+        <v>165900</v>
       </c>
       <c r="H45" s="3">
-        <v>248600</v>
+        <v>253900</v>
       </c>
       <c r="I45" s="3">
-        <v>260500</v>
+        <v>266000</v>
       </c>
       <c r="J45" s="3">
-        <v>277300</v>
+        <v>283200</v>
       </c>
       <c r="K45" s="3">
         <v>277100</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>349000</v>
+        <v>356400</v>
       </c>
       <c r="E46" s="3">
-        <v>419100</v>
+        <v>428000</v>
       </c>
       <c r="F46" s="3">
-        <v>443900</v>
+        <v>453300</v>
       </c>
       <c r="G46" s="3">
-        <v>544700</v>
+        <v>556200</v>
       </c>
       <c r="H46" s="3">
-        <v>584100</v>
+        <v>596500</v>
       </c>
       <c r="I46" s="3">
-        <v>652100</v>
+        <v>665900</v>
       </c>
       <c r="J46" s="3">
-        <v>722000</v>
+        <v>737200</v>
       </c>
       <c r="K46" s="3">
         <v>679500</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="E47" s="3">
-        <v>155600</v>
+        <v>158900</v>
       </c>
       <c r="F47" s="3">
-        <v>169600</v>
+        <v>173100</v>
       </c>
       <c r="G47" s="3">
-        <v>204900</v>
+        <v>209200</v>
       </c>
       <c r="H47" s="3">
-        <v>284700</v>
+        <v>290700</v>
       </c>
       <c r="I47" s="3">
-        <v>290200</v>
+        <v>296300</v>
       </c>
       <c r="J47" s="3">
-        <v>226800</v>
+        <v>231600</v>
       </c>
       <c r="K47" s="3">
         <v>192500</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="E48" s="3">
-        <v>34800</v>
+        <v>35500</v>
       </c>
       <c r="F48" s="3">
-        <v>38500</v>
+        <v>39300</v>
       </c>
       <c r="G48" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="H48" s="3">
-        <v>50300</v>
+        <v>51400</v>
       </c>
       <c r="I48" s="3">
-        <v>59000</v>
+        <v>60300</v>
       </c>
       <c r="J48" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="K48" s="3">
         <v>60000</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61100</v>
+        <v>62400</v>
       </c>
       <c r="E49" s="3">
-        <v>65700</v>
+        <v>67100</v>
       </c>
       <c r="F49" s="3">
-        <v>67600</v>
+        <v>69000</v>
       </c>
       <c r="G49" s="3">
-        <v>55400</v>
+        <v>56600</v>
       </c>
       <c r="H49" s="3">
-        <v>60800</v>
+        <v>62100</v>
       </c>
       <c r="I49" s="3">
-        <v>61600</v>
+        <v>62900</v>
       </c>
       <c r="J49" s="3">
-        <v>66100</v>
+        <v>67500</v>
       </c>
       <c r="K49" s="3">
         <v>67400</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="E52" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F52" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G52" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="H52" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="I52" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="J52" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K52" s="3">
         <v>28300</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>488400</v>
+        <v>498700</v>
       </c>
       <c r="E54" s="3">
-        <v>682500</v>
+        <v>697000</v>
       </c>
       <c r="F54" s="3">
-        <v>728800</v>
+        <v>744200</v>
       </c>
       <c r="G54" s="3">
-        <v>876200</v>
+        <v>894800</v>
       </c>
       <c r="H54" s="3">
-        <v>1007800</v>
+        <v>1029100</v>
       </c>
       <c r="I54" s="3">
-        <v>1091400</v>
+        <v>1114400</v>
       </c>
       <c r="J54" s="3">
-        <v>1101300</v>
+        <v>1124600</v>
       </c>
       <c r="K54" s="3">
         <v>1027800</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107800</v>
+        <v>110100</v>
       </c>
       <c r="E57" s="3">
-        <v>141500</v>
+        <v>144400</v>
       </c>
       <c r="F57" s="3">
-        <v>152600</v>
+        <v>155800</v>
       </c>
       <c r="G57" s="3">
-        <v>172600</v>
+        <v>176300</v>
       </c>
       <c r="H57" s="3">
-        <v>200400</v>
+        <v>204700</v>
       </c>
       <c r="I57" s="3">
-        <v>276700</v>
+        <v>282500</v>
       </c>
       <c r="J57" s="3">
-        <v>274400</v>
+        <v>280200</v>
       </c>
       <c r="K57" s="3">
         <v>227700</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G58" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H58" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="I58" s="3">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="J58" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="K58" s="3">
         <v>8800</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149400</v>
+        <v>152600</v>
       </c>
       <c r="E59" s="3">
-        <v>172600</v>
+        <v>176300</v>
       </c>
       <c r="F59" s="3">
-        <v>190300</v>
+        <v>194400</v>
       </c>
       <c r="G59" s="3">
-        <v>271100</v>
+        <v>276800</v>
       </c>
       <c r="H59" s="3">
-        <v>341200</v>
+        <v>348400</v>
       </c>
       <c r="I59" s="3">
-        <v>290100</v>
+        <v>296200</v>
       </c>
       <c r="J59" s="3">
-        <v>313400</v>
+        <v>320100</v>
       </c>
       <c r="K59" s="3">
         <v>271400</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>266500</v>
+        <v>272200</v>
       </c>
       <c r="E60" s="3">
-        <v>317200</v>
+        <v>323900</v>
       </c>
       <c r="F60" s="3">
-        <v>350600</v>
+        <v>358100</v>
       </c>
       <c r="G60" s="3">
-        <v>474900</v>
+        <v>484900</v>
       </c>
       <c r="H60" s="3">
-        <v>572700</v>
+        <v>584800</v>
       </c>
       <c r="I60" s="3">
-        <v>588800</v>
+        <v>601300</v>
       </c>
       <c r="J60" s="3">
-        <v>600700</v>
+        <v>613400</v>
       </c>
       <c r="K60" s="3">
         <v>507900</v>
@@ -3514,10 +3514,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E61" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F61" s="3">
         <v>3000</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F62" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H62" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="I62" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="J62" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="K62" s="3">
         <v>21400</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>276800</v>
+        <v>282700</v>
       </c>
       <c r="E66" s="3">
-        <v>332600</v>
+        <v>339600</v>
       </c>
       <c r="F66" s="3">
-        <v>368600</v>
+        <v>376400</v>
       </c>
       <c r="G66" s="3">
-        <v>493900</v>
+        <v>504400</v>
       </c>
       <c r="H66" s="3">
-        <v>593700</v>
+        <v>606300</v>
       </c>
       <c r="I66" s="3">
-        <v>621500</v>
+        <v>634600</v>
       </c>
       <c r="J66" s="3">
-        <v>633600</v>
+        <v>647000</v>
       </c>
       <c r="K66" s="3">
         <v>539900</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1178400</v>
+        <v>-1203400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1040700</v>
+        <v>-1062700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1032000</v>
+        <v>-1053800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1009400</v>
+        <v>-1030700</v>
       </c>
       <c r="H72" s="3">
-        <v>-975600</v>
+        <v>-996300</v>
       </c>
       <c r="I72" s="3">
-        <v>-919800</v>
+        <v>-939200</v>
       </c>
       <c r="J72" s="3">
-        <v>-918000</v>
+        <v>-937400</v>
       </c>
       <c r="K72" s="3">
         <v>-888600</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>211600</v>
+        <v>216000</v>
       </c>
       <c r="E76" s="3">
-        <v>350000</v>
+        <v>357400</v>
       </c>
       <c r="F76" s="3">
-        <v>360200</v>
+        <v>367800</v>
       </c>
       <c r="G76" s="3">
-        <v>382300</v>
+        <v>390400</v>
       </c>
       <c r="H76" s="3">
-        <v>414100</v>
+        <v>422900</v>
       </c>
       <c r="I76" s="3">
-        <v>469900</v>
+        <v>479800</v>
       </c>
       <c r="J76" s="3">
-        <v>467700</v>
+        <v>477600</v>
       </c>
       <c r="K76" s="3">
         <v>487900</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-137800</v>
+        <v>-140700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-23000</v>
       </c>
       <c r="G81" s="3">
-        <v>-30800</v>
+        <v>-31400</v>
       </c>
       <c r="H81" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="I81" s="3">
         <v>-2100</v>
       </c>
       <c r="J81" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K81" s="3">
         <v>-22900</v>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="E8" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="F8" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G8" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="H8" s="3">
-        <v>70400</v>
+        <v>69500</v>
       </c>
       <c r="I8" s="3">
-        <v>133000</v>
+        <v>131300</v>
       </c>
       <c r="J8" s="3">
-        <v>81200</v>
+        <v>80100</v>
       </c>
       <c r="K8" s="3">
         <v>69500</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="E9" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F9" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="H9" s="3">
-        <v>36600</v>
+        <v>36100</v>
       </c>
       <c r="I9" s="3">
-        <v>73600</v>
+        <v>72700</v>
       </c>
       <c r="J9" s="3">
-        <v>44800</v>
+        <v>44200</v>
       </c>
       <c r="K9" s="3">
         <v>31300</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E10" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="H10" s="3">
-        <v>33800</v>
+        <v>33400</v>
       </c>
       <c r="I10" s="3">
-        <v>59400</v>
+        <v>58600</v>
       </c>
       <c r="J10" s="3">
-        <v>36300</v>
+        <v>35900</v>
       </c>
       <c r="K10" s="3">
         <v>38200</v>
@@ -958,22 +958,22 @@
         <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
         <v>3100</v>
       </c>
       <c r="G12" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J12" s="3">
         <v>12300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>12400</v>
       </c>
       <c r="K12" s="3">
         <v>12100</v>
@@ -1138,10 +1138,10 @@
         <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
@@ -1150,7 +1150,7 @@
         <v>5600</v>
       </c>
       <c r="J15" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K15" s="3">
         <v>5400</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>160800</v>
+        <v>158700</v>
       </c>
       <c r="E17" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="F17" s="3">
-        <v>28800</v>
+        <v>28400</v>
       </c>
       <c r="G17" s="3">
-        <v>60800</v>
+        <v>60000</v>
       </c>
       <c r="H17" s="3">
-        <v>138100</v>
+        <v>136300</v>
       </c>
       <c r="I17" s="3">
-        <v>141900</v>
+        <v>140000</v>
       </c>
       <c r="J17" s="3">
-        <v>112300</v>
+        <v>110800</v>
       </c>
       <c r="K17" s="3">
         <v>97000</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-142300</v>
+        <v>-140500</v>
       </c>
       <c r="E18" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="F18" s="3">
-        <v>-23500</v>
+        <v>-23200</v>
       </c>
       <c r="G18" s="3">
-        <v>-33600</v>
+        <v>-33200</v>
       </c>
       <c r="H18" s="3">
-        <v>-67700</v>
+        <v>-66900</v>
       </c>
       <c r="I18" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J18" s="3">
-        <v>-31100</v>
+        <v>-30700</v>
       </c>
       <c r="K18" s="3">
         <v>-27500</v>
@@ -1364,13 +1364,13 @@
         <v>3100</v>
       </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I20" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J20" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K20" s="3">
         <v>5900</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-144400</v>
+        <v>-142500</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="F23" s="3">
-        <v>-24300</v>
+        <v>-24000</v>
       </c>
       <c r="G23" s="3">
-        <v>-32100</v>
+        <v>-31700</v>
       </c>
       <c r="H23" s="3">
-        <v>-62200</v>
+        <v>-61400</v>
       </c>
       <c r="I23" s="3">
         <v>-2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K23" s="3">
         <v>-22600</v>
@@ -1600,7 +1600,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-143800</v>
+        <v>-141900</v>
       </c>
       <c r="E26" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F26" s="3">
-        <v>-24100</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3">
-        <v>-32000</v>
+        <v>-31600</v>
       </c>
       <c r="H26" s="3">
-        <v>-62600</v>
+        <v>-61800</v>
       </c>
       <c r="I26" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J26" s="3">
-        <v>-26100</v>
+        <v>-25700</v>
       </c>
       <c r="K26" s="3">
         <v>-22500</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-140700</v>
+        <v>-138900</v>
       </c>
       <c r="E27" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="G27" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="H27" s="3">
-        <v>-57300</v>
+        <v>-56500</v>
       </c>
       <c r="I27" s="3">
         <v>-2100</v>
       </c>
       <c r="J27" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K27" s="3">
         <v>-22900</v>
@@ -2072,13 +2072,13 @@
         <v>-3100</v>
       </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="I32" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="J32" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="K32" s="3">
         <v>-5900</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-140700</v>
+        <v>-138900</v>
       </c>
       <c r="E33" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="G33" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="H33" s="3">
-        <v>-57300</v>
+        <v>-56500</v>
       </c>
       <c r="I33" s="3">
         <v>-2100</v>
       </c>
       <c r="J33" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K33" s="3">
         <v>-22900</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-140700</v>
+        <v>-138900</v>
       </c>
       <c r="E35" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="G35" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="H35" s="3">
-        <v>-57300</v>
+        <v>-56500</v>
       </c>
       <c r="I35" s="3">
         <v>-2100</v>
       </c>
       <c r="J35" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K35" s="3">
         <v>-22900</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="E41" s="3">
-        <v>104300</v>
+        <v>102900</v>
       </c>
       <c r="F41" s="3">
-        <v>82400</v>
+        <v>81300</v>
       </c>
       <c r="G41" s="3">
-        <v>92200</v>
+        <v>91000</v>
       </c>
       <c r="H41" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="I41" s="3">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="J41" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="K41" s="3">
         <v>67200</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>211200</v>
+        <v>208400</v>
       </c>
       <c r="E42" s="3">
-        <v>132000</v>
+        <v>130300</v>
       </c>
       <c r="F42" s="3">
-        <v>152400</v>
+        <v>150400</v>
       </c>
       <c r="G42" s="3">
-        <v>218000</v>
+        <v>215200</v>
       </c>
       <c r="H42" s="3">
-        <v>203700</v>
+        <v>201000</v>
       </c>
       <c r="I42" s="3">
-        <v>236200</v>
+        <v>233100</v>
       </c>
       <c r="J42" s="3">
-        <v>220600</v>
+        <v>217800</v>
       </c>
       <c r="K42" s="3">
         <v>169500</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="E43" s="3">
-        <v>56700</v>
+        <v>56000</v>
       </c>
       <c r="F43" s="3">
-        <v>64800</v>
+        <v>63900</v>
       </c>
       <c r="G43" s="3">
-        <v>80100</v>
+        <v>79100</v>
       </c>
       <c r="H43" s="3">
-        <v>92800</v>
+        <v>91600</v>
       </c>
       <c r="I43" s="3">
-        <v>99600</v>
+        <v>98300</v>
       </c>
       <c r="J43" s="3">
-        <v>176900</v>
+        <v>174600</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67000</v>
+        <v>66100</v>
       </c>
       <c r="E45" s="3">
-        <v>135000</v>
+        <v>133200</v>
       </c>
       <c r="F45" s="3">
-        <v>153700</v>
+        <v>151700</v>
       </c>
       <c r="G45" s="3">
-        <v>165900</v>
+        <v>163700</v>
       </c>
       <c r="H45" s="3">
-        <v>253900</v>
+        <v>250600</v>
       </c>
       <c r="I45" s="3">
-        <v>266000</v>
+        <v>262600</v>
       </c>
       <c r="J45" s="3">
-        <v>283200</v>
+        <v>279500</v>
       </c>
       <c r="K45" s="3">
         <v>277100</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>356400</v>
+        <v>351800</v>
       </c>
       <c r="E46" s="3">
-        <v>428000</v>
+        <v>422400</v>
       </c>
       <c r="F46" s="3">
-        <v>453300</v>
+        <v>447400</v>
       </c>
       <c r="G46" s="3">
-        <v>556200</v>
+        <v>549000</v>
       </c>
       <c r="H46" s="3">
-        <v>596500</v>
+        <v>588700</v>
       </c>
       <c r="I46" s="3">
-        <v>665900</v>
+        <v>657200</v>
       </c>
       <c r="J46" s="3">
-        <v>737200</v>
+        <v>727600</v>
       </c>
       <c r="K46" s="3">
         <v>679500</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41600</v>
+        <v>41100</v>
       </c>
       <c r="E47" s="3">
-        <v>158900</v>
+        <v>156800</v>
       </c>
       <c r="F47" s="3">
-        <v>173100</v>
+        <v>170900</v>
       </c>
       <c r="G47" s="3">
-        <v>209200</v>
+        <v>206500</v>
       </c>
       <c r="H47" s="3">
-        <v>290700</v>
+        <v>286900</v>
       </c>
       <c r="I47" s="3">
-        <v>296300</v>
+        <v>292500</v>
       </c>
       <c r="J47" s="3">
-        <v>231600</v>
+        <v>228600</v>
       </c>
       <c r="K47" s="3">
         <v>192500</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="E48" s="3">
-        <v>35500</v>
+        <v>35000</v>
       </c>
       <c r="F48" s="3">
-        <v>39300</v>
+        <v>38800</v>
       </c>
       <c r="G48" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="H48" s="3">
-        <v>51400</v>
+        <v>50700</v>
       </c>
       <c r="I48" s="3">
-        <v>60300</v>
+        <v>59500</v>
       </c>
       <c r="J48" s="3">
-        <v>59400</v>
+        <v>58600</v>
       </c>
       <c r="K48" s="3">
         <v>60000</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62400</v>
+        <v>61600</v>
       </c>
       <c r="E49" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="F49" s="3">
-        <v>69000</v>
+        <v>68100</v>
       </c>
       <c r="G49" s="3">
-        <v>56600</v>
+        <v>55800</v>
       </c>
       <c r="H49" s="3">
+        <v>61300</v>
+      </c>
+      <c r="I49" s="3">
         <v>62100</v>
       </c>
-      <c r="I49" s="3">
-        <v>62900</v>
-      </c>
       <c r="J49" s="3">
-        <v>67500</v>
+        <v>66600</v>
       </c>
       <c r="K49" s="3">
         <v>67400</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="E52" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G52" s="3">
-        <v>26400</v>
+        <v>26000</v>
       </c>
       <c r="H52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J52" s="3">
         <v>28500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>29100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>28800</v>
       </c>
       <c r="K52" s="3">
         <v>28300</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>498700</v>
+        <v>492200</v>
       </c>
       <c r="E54" s="3">
-        <v>697000</v>
+        <v>687900</v>
       </c>
       <c r="F54" s="3">
-        <v>744200</v>
+        <v>734500</v>
       </c>
       <c r="G54" s="3">
-        <v>894800</v>
+        <v>883100</v>
       </c>
       <c r="H54" s="3">
-        <v>1029100</v>
+        <v>1015700</v>
       </c>
       <c r="I54" s="3">
-        <v>1114400</v>
+        <v>1099900</v>
       </c>
       <c r="J54" s="3">
-        <v>1124600</v>
+        <v>1109900</v>
       </c>
       <c r="K54" s="3">
         <v>1027800</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110100</v>
+        <v>108700</v>
       </c>
       <c r="E57" s="3">
-        <v>144400</v>
+        <v>142600</v>
       </c>
       <c r="F57" s="3">
-        <v>155800</v>
+        <v>153800</v>
       </c>
       <c r="G57" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="H57" s="3">
-        <v>204700</v>
+        <v>202000</v>
       </c>
       <c r="I57" s="3">
-        <v>282500</v>
+        <v>278900</v>
       </c>
       <c r="J57" s="3">
-        <v>280200</v>
+        <v>276600</v>
       </c>
       <c r="K57" s="3">
         <v>227700</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="H58" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="I58" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="J58" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="K58" s="3">
         <v>8800</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152600</v>
+        <v>150600</v>
       </c>
       <c r="E59" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="F59" s="3">
-        <v>194400</v>
+        <v>191800</v>
       </c>
       <c r="G59" s="3">
-        <v>276800</v>
+        <v>273200</v>
       </c>
       <c r="H59" s="3">
-        <v>348400</v>
+        <v>343800</v>
       </c>
       <c r="I59" s="3">
-        <v>296200</v>
+        <v>292400</v>
       </c>
       <c r="J59" s="3">
-        <v>320100</v>
+        <v>315900</v>
       </c>
       <c r="K59" s="3">
         <v>271400</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>272200</v>
+        <v>268600</v>
       </c>
       <c r="E60" s="3">
-        <v>323900</v>
+        <v>319700</v>
       </c>
       <c r="F60" s="3">
-        <v>358100</v>
+        <v>353400</v>
       </c>
       <c r="G60" s="3">
-        <v>484900</v>
+        <v>478600</v>
       </c>
       <c r="H60" s="3">
-        <v>584800</v>
+        <v>577200</v>
       </c>
       <c r="I60" s="3">
-        <v>601300</v>
+        <v>593400</v>
       </c>
       <c r="J60" s="3">
-        <v>613400</v>
+        <v>605400</v>
       </c>
       <c r="K60" s="3">
         <v>507900</v>
@@ -3517,7 +3517,7 @@
         <v>3500</v>
       </c>
       <c r="E61" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F61" s="3">
         <v>3000</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="F62" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G62" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="H62" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="I62" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="J62" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="K62" s="3">
         <v>21400</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282700</v>
+        <v>279000</v>
       </c>
       <c r="E66" s="3">
-        <v>339600</v>
+        <v>335200</v>
       </c>
       <c r="F66" s="3">
-        <v>376400</v>
+        <v>371500</v>
       </c>
       <c r="G66" s="3">
-        <v>504400</v>
+        <v>497800</v>
       </c>
       <c r="H66" s="3">
-        <v>606300</v>
+        <v>598400</v>
       </c>
       <c r="I66" s="3">
-        <v>634600</v>
+        <v>626400</v>
       </c>
       <c r="J66" s="3">
-        <v>647000</v>
+        <v>638600</v>
       </c>
       <c r="K66" s="3">
         <v>539900</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1203400</v>
+        <v>-1187700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1062700</v>
+        <v>-1048800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1053800</v>
+        <v>-1040100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1030700</v>
+        <v>-1017300</v>
       </c>
       <c r="H72" s="3">
-        <v>-996300</v>
+        <v>-983300</v>
       </c>
       <c r="I72" s="3">
-        <v>-939200</v>
+        <v>-927000</v>
       </c>
       <c r="J72" s="3">
-        <v>-937400</v>
+        <v>-925200</v>
       </c>
       <c r="K72" s="3">
         <v>-888600</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216000</v>
+        <v>213200</v>
       </c>
       <c r="E76" s="3">
-        <v>357400</v>
+        <v>352700</v>
       </c>
       <c r="F76" s="3">
-        <v>367800</v>
+        <v>363000</v>
       </c>
       <c r="G76" s="3">
-        <v>390400</v>
+        <v>385300</v>
       </c>
       <c r="H76" s="3">
-        <v>422900</v>
+        <v>417400</v>
       </c>
       <c r="I76" s="3">
-        <v>479800</v>
+        <v>473600</v>
       </c>
       <c r="J76" s="3">
-        <v>477600</v>
+        <v>471400</v>
       </c>
       <c r="K76" s="3">
         <v>487900</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-140700</v>
+        <v>-138900</v>
       </c>
       <c r="E81" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="G81" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="H81" s="3">
-        <v>-57300</v>
+        <v>-56500</v>
       </c>
       <c r="I81" s="3">
         <v>-2100</v>
       </c>
       <c r="J81" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K81" s="3">
         <v>-22900</v>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18300</v>
+        <v>17900</v>
       </c>
       <c r="E8" s="3">
-        <v>19000</v>
+        <v>25200</v>
       </c>
       <c r="F8" s="3">
-        <v>5200</v>
+        <v>12100</v>
       </c>
       <c r="G8" s="3">
-        <v>26800</v>
+        <v>18600</v>
       </c>
       <c r="H8" s="3">
-        <v>69500</v>
+        <v>19300</v>
       </c>
       <c r="I8" s="3">
-        <v>131300</v>
+        <v>5300</v>
       </c>
       <c r="J8" s="3">
-        <v>80100</v>
+        <v>27200</v>
       </c>
       <c r="K8" s="3">
         <v>69500</v>
       </c>
       <c r="L8" s="3">
+        <v>131300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>80100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>69500</v>
+      </c>
+      <c r="O8" s="3">
         <v>71700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>110800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>73500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>68900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>69700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>119600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>68300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>67700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>284100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E9" s="3">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="F9" s="3">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="G9" s="3">
-        <v>12500</v>
+        <v>11100</v>
       </c>
       <c r="H9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K9" s="3">
         <v>36100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>72700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>44200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>31300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>30600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>54000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>38400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>31300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>34800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>54200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>32600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>30400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>258700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7400</v>
+        <v>6200</v>
       </c>
       <c r="E10" s="3">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="F10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
-        <v>14200</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K10" s="3">
         <v>33400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>58600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>35900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>38200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>41100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>56900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>35100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>34900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>65400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>35700</v>
-      </c>
-      <c r="S10" s="3">
-        <v>37300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>25400</v>
       </c>
       <c r="U10" s="3">
         <v>35700</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="W10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="X10" s="3">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +988,79 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
-        <v>2300</v>
-      </c>
       <c r="F12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K12" s="3">
         <v>12200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>12300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>11400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>12100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>16500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>18400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>21800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="3">
         <v>23700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="3">
         <v>24700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1118,17 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,55 +1186,64 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>5600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>5400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>5400</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1185,8 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1283,147 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>158700</v>
+        <v>26800</v>
       </c>
       <c r="E17" s="3">
-        <v>28700</v>
+        <v>29300</v>
       </c>
       <c r="F17" s="3">
-        <v>28400</v>
+        <v>20700</v>
       </c>
       <c r="G17" s="3">
-        <v>60000</v>
+        <v>161400</v>
       </c>
       <c r="H17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>28900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K17" s="3">
         <v>136300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>140000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>110800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>97000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>87400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>111400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>90500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>86300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>102500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>129400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>111100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>113400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>369600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-140500</v>
+        <v>-8900</v>
       </c>
       <c r="E18" s="3">
-        <v>-9700</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>-23200</v>
+        <v>-8600</v>
       </c>
       <c r="G18" s="3">
-        <v>-33200</v>
+        <v>-142800</v>
       </c>
       <c r="H18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-66900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-30700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-27500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-16900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-9800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-42800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-45700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-85500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1445,79 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1464,55 +1575,64 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1523,84 +1643,102 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-142500</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-144900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-39600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-42400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-83000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1609,40 +1747,49 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>-300</v>
-      </c>
       <c r="M24" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1847,153 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-141900</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-9600</v>
+        <v>-2200</v>
       </c>
       <c r="F26" s="3">
-        <v>-23800</v>
+        <v>-6500</v>
       </c>
       <c r="G26" s="3">
-        <v>-31600</v>
+        <v>-144300</v>
       </c>
       <c r="H26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-61800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-25700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-22500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-42600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-82600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-138900</v>
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
-        <v>-8800</v>
+        <v>-2000</v>
       </c>
       <c r="F27" s="3">
-        <v>-22700</v>
+        <v>-6200</v>
       </c>
       <c r="G27" s="3">
-        <v>-31000</v>
+        <v>-141200</v>
       </c>
       <c r="H27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-25900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-22900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-11100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-40200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-42800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-81600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +2051,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2119,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2187,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2255,153 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138900</v>
+        <v>-5500</v>
       </c>
       <c r="E33" s="3">
-        <v>-8800</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
-        <v>-22700</v>
+        <v>-6200</v>
       </c>
       <c r="G33" s="3">
-        <v>-31000</v>
+        <v>-141200</v>
       </c>
       <c r="H33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-56500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-25900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-22900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-11100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-40200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-42800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-81600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2459,158 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138900</v>
+        <v>-5500</v>
       </c>
       <c r="E35" s="3">
-        <v>-8800</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
-        <v>-22700</v>
+        <v>-6200</v>
       </c>
       <c r="G35" s="3">
-        <v>-31000</v>
+        <v>-141200</v>
       </c>
       <c r="H35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-56500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-25900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-22900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-11100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-40200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-42800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-81600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2632,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2658,215 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32900</v>
+        <v>55900</v>
       </c>
       <c r="E41" s="3">
-        <v>102900</v>
+        <v>66900</v>
       </c>
       <c r="F41" s="3">
-        <v>81300</v>
+        <v>77500</v>
       </c>
       <c r="G41" s="3">
-        <v>91000</v>
+        <v>33400</v>
       </c>
       <c r="H41" s="3">
+        <v>104600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>82700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K41" s="3">
         <v>45500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>63300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>55700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>67200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>85200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>89200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>89900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>87800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>71800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>125800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>159100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>112000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>157800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>208400</v>
+        <v>99400</v>
       </c>
       <c r="E42" s="3">
-        <v>130300</v>
+        <v>104700</v>
       </c>
       <c r="F42" s="3">
-        <v>150400</v>
+        <v>120900</v>
       </c>
       <c r="G42" s="3">
-        <v>215200</v>
+        <v>211900</v>
       </c>
       <c r="H42" s="3">
+        <v>132500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>153000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>218800</v>
+      </c>
+      <c r="K42" s="3">
         <v>201000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>233100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>217800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>169500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>130700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>150900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>153200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>341500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>457800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>511100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>493200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>500700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>524100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="X42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44400</v>
+        <v>39200</v>
       </c>
       <c r="E43" s="3">
-        <v>56000</v>
+        <v>42800</v>
       </c>
       <c r="F43" s="3">
-        <v>63900</v>
+        <v>43300</v>
       </c>
       <c r="G43" s="3">
-        <v>79100</v>
+        <v>45100</v>
       </c>
       <c r="H43" s="3">
+        <v>56900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K43" s="3">
         <v>91600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>98300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>174600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>165700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>158800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>175500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>146300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>64400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>72600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>143000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>151300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>172500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>156400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2924,357 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66100</v>
+        <v>69400</v>
       </c>
       <c r="E45" s="3">
-        <v>133200</v>
+        <v>74300</v>
       </c>
       <c r="F45" s="3">
-        <v>151700</v>
+        <v>63500</v>
       </c>
       <c r="G45" s="3">
-        <v>163700</v>
+        <v>67200</v>
       </c>
       <c r="H45" s="3">
+        <v>135400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>154300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>166500</v>
+      </c>
+      <c r="K45" s="3">
         <v>250600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>262600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>279500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>277100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>295800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>284000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>253900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>163100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>153100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>214200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>167100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>148900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>492900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>351800</v>
+        <v>263800</v>
       </c>
       <c r="E46" s="3">
-        <v>422400</v>
+        <v>288700</v>
       </c>
       <c r="F46" s="3">
-        <v>447400</v>
+        <v>305100</v>
       </c>
       <c r="G46" s="3">
-        <v>549000</v>
+        <v>357700</v>
       </c>
       <c r="H46" s="3">
+        <v>429500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>454900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>558200</v>
+      </c>
+      <c r="K46" s="3">
         <v>588700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>657200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>727600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>679500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>670500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>699600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>643300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>656800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>755300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>994300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>970700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>934000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>1093800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41100</v>
+        <v>31700</v>
       </c>
       <c r="E47" s="3">
-        <v>156800</v>
+        <v>36000</v>
       </c>
       <c r="F47" s="3">
-        <v>170900</v>
+        <v>40600</v>
       </c>
       <c r="G47" s="3">
-        <v>206500</v>
+        <v>41800</v>
       </c>
       <c r="H47" s="3">
+        <v>159400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>173700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K47" s="3">
         <v>286900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>292500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>228600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>192500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>198100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>193200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>185600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>142500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>72000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>14500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>10900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>8700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>18000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23700</v>
+        <v>25700</v>
       </c>
       <c r="E48" s="3">
-        <v>35000</v>
+        <v>26500</v>
       </c>
       <c r="F48" s="3">
-        <v>38800</v>
+        <v>27300</v>
       </c>
       <c r="G48" s="3">
-        <v>45800</v>
+        <v>24100</v>
       </c>
       <c r="H48" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>39500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K48" s="3">
         <v>50700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>59500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>58600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>60000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>28500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>25100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>22200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>21400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>22000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>21900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>22700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>24200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>25900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61600</v>
+        <v>60500</v>
       </c>
       <c r="E49" s="3">
-        <v>66200</v>
+        <v>61200</v>
       </c>
       <c r="F49" s="3">
-        <v>68100</v>
+        <v>61900</v>
       </c>
       <c r="G49" s="3">
-        <v>55800</v>
+        <v>62600</v>
       </c>
       <c r="H49" s="3">
+        <v>67300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K49" s="3">
         <v>61300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>62100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>66600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>67400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>72600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>74000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>75200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>82300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>90300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>95800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>101200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>105900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>107600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3332,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3400,85 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F52" s="3">
         <v>14000</v>
       </c>
-      <c r="E52" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9300</v>
-      </c>
       <c r="G52" s="3">
-        <v>26000</v>
+        <v>14300</v>
       </c>
       <c r="H52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K52" s="3">
         <v>28100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>28700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>28500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>28300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>27700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>25300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>25100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>39200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>48500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>53000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>71600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>68900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>88600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3536,85 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>492200</v>
+        <v>396800</v>
       </c>
       <c r="E54" s="3">
-        <v>687900</v>
+        <v>427600</v>
       </c>
       <c r="F54" s="3">
-        <v>734500</v>
+        <v>448800</v>
       </c>
       <c r="G54" s="3">
-        <v>883100</v>
+        <v>500500</v>
       </c>
       <c r="H54" s="3">
+        <v>699400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>746800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>897900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1015700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1099900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1109900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1027800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>997400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1017200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>951500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>942200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>988100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>1179500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>1177200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>1141700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>1333800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3636,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,114 +3662,126 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108700</v>
+        <v>83000</v>
       </c>
       <c r="E57" s="3">
-        <v>142600</v>
+        <v>102400</v>
       </c>
       <c r="F57" s="3">
-        <v>153800</v>
+        <v>108000</v>
       </c>
       <c r="G57" s="3">
-        <v>174000</v>
+        <v>110500</v>
       </c>
       <c r="H57" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>156400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K57" s="3">
         <v>202000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>278900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>276600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>227700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>198600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>236800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>182900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>166700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>126500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>218700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>173800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>142400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>148700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K58" s="3">
         <v>31400</v>
       </c>
-      <c r="H58" s="3">
-        <v>31400</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>22200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>12900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>8800</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3390,162 +3792,189 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150600</v>
+        <v>97600</v>
       </c>
       <c r="E59" s="3">
-        <v>174000</v>
+        <v>101900</v>
       </c>
       <c r="F59" s="3">
-        <v>191800</v>
+        <v>107900</v>
       </c>
       <c r="G59" s="3">
-        <v>273200</v>
+        <v>153100</v>
       </c>
       <c r="H59" s="3">
+        <v>176900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>195000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>277800</v>
+      </c>
+      <c r="K59" s="3">
         <v>343800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>292400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>315900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>271400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>273400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>268100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>284800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>254700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>307000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>380000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>416000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>358800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>509600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268600</v>
+        <v>182300</v>
       </c>
       <c r="E60" s="3">
-        <v>319700</v>
+        <v>207500</v>
       </c>
       <c r="F60" s="3">
-        <v>353400</v>
+        <v>225300</v>
       </c>
       <c r="G60" s="3">
-        <v>478600</v>
+        <v>273100</v>
       </c>
       <c r="H60" s="3">
+        <v>325100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>359300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K60" s="3">
         <v>577200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>593400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>605400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>507900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>472000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>505000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>467600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>421400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>433500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>598600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>589800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>501200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>658400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>3000</v>
       </c>
       <c r="G61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3567,67 +3996,85 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
+        <v>9600</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F62" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="G62" s="3">
-        <v>12200</v>
+        <v>8200</v>
       </c>
       <c r="H62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K62" s="3">
         <v>13800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>17600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>19000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>21400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>6100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>6800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>6200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>5900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>6300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>6400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>7700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>7900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>11400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +4132,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4200,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4268,85 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>279000</v>
+        <v>192300</v>
       </c>
       <c r="E66" s="3">
-        <v>335200</v>
+        <v>218500</v>
       </c>
       <c r="F66" s="3">
-        <v>371500</v>
+        <v>237400</v>
       </c>
       <c r="G66" s="3">
-        <v>497800</v>
+        <v>283700</v>
       </c>
       <c r="H66" s="3">
+        <v>340800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>377700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>506200</v>
+      </c>
+      <c r="K66" s="3">
         <v>598400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>626400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>638600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>539900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>487800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>522100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>483700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>442000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>454500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>619600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>611800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>523200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>679600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4368,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4430,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4498,17 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4566,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4634,85 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1187700</v>
+        <v>-1221300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1048800</v>
+        <v>-1215800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1040100</v>
+        <v>-1213800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1017300</v>
+        <v>-1207600</v>
       </c>
       <c r="H72" s="3">
+        <v>-1066400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1057500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1034400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-983300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-927000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-925200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-888600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-865800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-817600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-792300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-800600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-817100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-790000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-785800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-745800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-689100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4770,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4838,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4906,85 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>213200</v>
+        <v>204500</v>
       </c>
       <c r="E76" s="3">
-        <v>352700</v>
+        <v>209200</v>
       </c>
       <c r="F76" s="3">
-        <v>363000</v>
+        <v>211500</v>
       </c>
       <c r="G76" s="3">
-        <v>385300</v>
+        <v>216800</v>
       </c>
       <c r="H76" s="3">
+        <v>358600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>369100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K76" s="3">
         <v>417400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>473600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>471400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>487900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>509700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>495100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>467800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>500200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>533600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>559900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>565500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>618500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>654300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +5042,158 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138900</v>
+        <v>-5500</v>
       </c>
       <c r="E81" s="3">
-        <v>-8800</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
-        <v>-22700</v>
+        <v>-6200</v>
       </c>
       <c r="G81" s="3">
-        <v>-31000</v>
+        <v>-141200</v>
       </c>
       <c r="H81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-56500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-25900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-22900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-11100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-40200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-42800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-81600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5215,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5345,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5413,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5481,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5549,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5617,17 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5685,17 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5717,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5847,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5915,17 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +6015,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +6077,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +6145,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +6213,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6281,17 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +6349,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6417,17 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="E8" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="F8" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G8" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="H8" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="I8" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J8" s="3">
-        <v>27200</v>
+        <v>27500</v>
       </c>
       <c r="K8" s="3">
         <v>69500</v>
@@ -835,16 +835,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E9" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F9" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G9" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="H9" s="3">
         <v>9200</v>
@@ -853,7 +853,7 @@
         <v>4100</v>
       </c>
       <c r="J9" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="K9" s="3">
         <v>36100</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E10" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F10" s="3">
         <v>4500</v>
       </c>
       <c r="G10" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H10" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="I10" s="3">
         <v>1200</v>
       </c>
       <c r="J10" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K10" s="3">
         <v>33400</v>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
         <v>2000</v>
@@ -1015,7 +1015,7 @@
         <v>3100</v>
       </c>
       <c r="J12" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K12" s="3">
         <v>12200</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="E17" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="F17" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="G17" s="3">
-        <v>161400</v>
+        <v>162600</v>
       </c>
       <c r="H17" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="I17" s="3">
-        <v>28900</v>
+        <v>29100</v>
       </c>
       <c r="J17" s="3">
-        <v>61000</v>
+        <v>61400</v>
       </c>
       <c r="K17" s="3">
         <v>136300</v>
@@ -1369,16 +1369,16 @@
         <v>-8600</v>
       </c>
       <c r="G18" s="3">
-        <v>-142800</v>
+        <v>-143900</v>
       </c>
       <c r="H18" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="I18" s="3">
-        <v>-23500</v>
+        <v>-23700</v>
       </c>
       <c r="J18" s="3">
-        <v>-33700</v>
+        <v>-34000</v>
       </c>
       <c r="K18" s="3">
         <v>-66900</v>
@@ -1472,7 +1472,7 @@
         <v>700</v>
       </c>
       <c r="J20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K20" s="3">
         <v>7200</v>
@@ -1608,7 +1608,7 @@
         <v>1500</v>
       </c>
       <c r="J22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
@@ -1664,19 +1664,19 @@
         <v>-2200</v>
       </c>
       <c r="F23" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="G23" s="3">
-        <v>-144900</v>
+        <v>-146000</v>
       </c>
       <c r="H23" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="I23" s="3">
-        <v>-24400</v>
+        <v>-24500</v>
       </c>
       <c r="J23" s="3">
-        <v>-32200</v>
+        <v>-32500</v>
       </c>
       <c r="K23" s="3">
         <v>-61400</v>
@@ -1868,19 +1868,19 @@
         <v>-2200</v>
       </c>
       <c r="F26" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="G26" s="3">
-        <v>-144300</v>
+        <v>-145400</v>
       </c>
       <c r="H26" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="I26" s="3">
-        <v>-24200</v>
+        <v>-24400</v>
       </c>
       <c r="J26" s="3">
-        <v>-32100</v>
+        <v>-32400</v>
       </c>
       <c r="K26" s="3">
         <v>-61800</v>
@@ -1933,22 +1933,22 @@
         <v>-5500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F27" s="3">
         <v>-6200</v>
       </c>
       <c r="G27" s="3">
-        <v>-141200</v>
+        <v>-142300</v>
       </c>
       <c r="H27" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="I27" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="J27" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="K27" s="3">
         <v>-56500</v>
@@ -2288,7 +2288,7 @@
         <v>-700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K32" s="3">
         <v>-7200</v>
@@ -2341,22 +2341,22 @@
         <v>-5500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F33" s="3">
         <v>-6200</v>
       </c>
       <c r="G33" s="3">
-        <v>-141200</v>
+        <v>-142300</v>
       </c>
       <c r="H33" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="I33" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="J33" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="K33" s="3">
         <v>-56500</v>
@@ -2477,22 +2477,22 @@
         <v>-5500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F35" s="3">
         <v>-6200</v>
       </c>
       <c r="G35" s="3">
-        <v>-141200</v>
+        <v>-142300</v>
       </c>
       <c r="H35" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="I35" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="J35" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="K35" s="3">
         <v>-56500</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="E41" s="3">
-        <v>66900</v>
+        <v>67400</v>
       </c>
       <c r="F41" s="3">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="G41" s="3">
-        <v>33400</v>
+        <v>33700</v>
       </c>
       <c r="H41" s="3">
-        <v>104600</v>
+        <v>105400</v>
       </c>
       <c r="I41" s="3">
-        <v>82700</v>
+        <v>83300</v>
       </c>
       <c r="J41" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="K41" s="3">
         <v>45500</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99400</v>
+        <v>100100</v>
       </c>
       <c r="E42" s="3">
-        <v>104700</v>
+        <v>105500</v>
       </c>
       <c r="F42" s="3">
-        <v>120900</v>
+        <v>121800</v>
       </c>
       <c r="G42" s="3">
-        <v>211900</v>
+        <v>213600</v>
       </c>
       <c r="H42" s="3">
-        <v>132500</v>
+        <v>133500</v>
       </c>
       <c r="I42" s="3">
-        <v>153000</v>
+        <v>154100</v>
       </c>
       <c r="J42" s="3">
-        <v>218800</v>
+        <v>220400</v>
       </c>
       <c r="K42" s="3">
         <v>201000</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="E43" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="F43" s="3">
-        <v>43300</v>
+        <v>43600</v>
       </c>
       <c r="G43" s="3">
-        <v>45100</v>
+        <v>45400</v>
       </c>
       <c r="H43" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="I43" s="3">
-        <v>65000</v>
+        <v>65500</v>
       </c>
       <c r="J43" s="3">
-        <v>80400</v>
+        <v>81000</v>
       </c>
       <c r="K43" s="3">
         <v>91600</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69400</v>
+        <v>70000</v>
       </c>
       <c r="E45" s="3">
-        <v>74300</v>
+        <v>74900</v>
       </c>
       <c r="F45" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="G45" s="3">
-        <v>67200</v>
+        <v>67700</v>
       </c>
       <c r="H45" s="3">
-        <v>135400</v>
+        <v>136500</v>
       </c>
       <c r="I45" s="3">
-        <v>154300</v>
+        <v>155500</v>
       </c>
       <c r="J45" s="3">
-        <v>166500</v>
+        <v>167800</v>
       </c>
       <c r="K45" s="3">
         <v>250600</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>263800</v>
+        <v>265800</v>
       </c>
       <c r="E46" s="3">
-        <v>288700</v>
+        <v>290900</v>
       </c>
       <c r="F46" s="3">
-        <v>305100</v>
+        <v>307400</v>
       </c>
       <c r="G46" s="3">
-        <v>357700</v>
+        <v>360400</v>
       </c>
       <c r="H46" s="3">
-        <v>429500</v>
+        <v>432800</v>
       </c>
       <c r="I46" s="3">
-        <v>454900</v>
+        <v>458400</v>
       </c>
       <c r="J46" s="3">
-        <v>558200</v>
+        <v>562400</v>
       </c>
       <c r="K46" s="3">
         <v>588700</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="E47" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="F47" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="G47" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="H47" s="3">
-        <v>159400</v>
+        <v>160700</v>
       </c>
       <c r="I47" s="3">
-        <v>173700</v>
+        <v>175100</v>
       </c>
       <c r="J47" s="3">
-        <v>209900</v>
+        <v>211500</v>
       </c>
       <c r="K47" s="3">
         <v>286900</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="E48" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="F48" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="G48" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="H48" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="I48" s="3">
-        <v>39500</v>
+        <v>39800</v>
       </c>
       <c r="J48" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="K48" s="3">
         <v>50700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60500</v>
+        <v>60900</v>
       </c>
       <c r="E49" s="3">
-        <v>61200</v>
+        <v>61700</v>
       </c>
       <c r="F49" s="3">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="G49" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="H49" s="3">
-        <v>67300</v>
+        <v>67800</v>
       </c>
       <c r="I49" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="J49" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="K49" s="3">
         <v>61300</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E52" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F52" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G52" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="H52" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I52" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J52" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="K52" s="3">
         <v>28100</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>396800</v>
+        <v>399800</v>
       </c>
       <c r="E54" s="3">
-        <v>427600</v>
+        <v>430900</v>
       </c>
       <c r="F54" s="3">
-        <v>448800</v>
+        <v>452300</v>
       </c>
       <c r="G54" s="3">
-        <v>500500</v>
+        <v>504300</v>
       </c>
       <c r="H54" s="3">
-        <v>699400</v>
+        <v>704800</v>
       </c>
       <c r="I54" s="3">
-        <v>746800</v>
+        <v>752500</v>
       </c>
       <c r="J54" s="3">
-        <v>897900</v>
+        <v>904800</v>
       </c>
       <c r="K54" s="3">
         <v>1015700</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83000</v>
+        <v>83600</v>
       </c>
       <c r="E57" s="3">
-        <v>102400</v>
+        <v>103200</v>
       </c>
       <c r="F57" s="3">
-        <v>108000</v>
+        <v>108800</v>
       </c>
       <c r="G57" s="3">
-        <v>110500</v>
+        <v>111400</v>
       </c>
       <c r="H57" s="3">
-        <v>145000</v>
+        <v>146100</v>
       </c>
       <c r="I57" s="3">
-        <v>156400</v>
+        <v>157600</v>
       </c>
       <c r="J57" s="3">
-        <v>176900</v>
+        <v>178300</v>
       </c>
       <c r="K57" s="3">
         <v>202000</v>
@@ -3748,16 +3748,16 @@
         <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I58" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J58" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="K58" s="3">
         <v>31400</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97600</v>
+        <v>98400</v>
       </c>
       <c r="E59" s="3">
-        <v>101900</v>
+        <v>102700</v>
       </c>
       <c r="F59" s="3">
-        <v>107900</v>
+        <v>108700</v>
       </c>
       <c r="G59" s="3">
-        <v>153100</v>
+        <v>154300</v>
       </c>
       <c r="H59" s="3">
-        <v>176900</v>
+        <v>178200</v>
       </c>
       <c r="I59" s="3">
-        <v>195000</v>
+        <v>196500</v>
       </c>
       <c r="J59" s="3">
-        <v>277800</v>
+        <v>279900</v>
       </c>
       <c r="K59" s="3">
         <v>343800</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>182300</v>
+        <v>183700</v>
       </c>
       <c r="E60" s="3">
-        <v>207500</v>
+        <v>209100</v>
       </c>
       <c r="F60" s="3">
-        <v>225300</v>
+        <v>227000</v>
       </c>
       <c r="G60" s="3">
-        <v>273100</v>
+        <v>275200</v>
       </c>
       <c r="H60" s="3">
-        <v>325100</v>
+        <v>327600</v>
       </c>
       <c r="I60" s="3">
-        <v>359300</v>
+        <v>362100</v>
       </c>
       <c r="J60" s="3">
-        <v>486600</v>
+        <v>490300</v>
       </c>
       <c r="K60" s="3">
         <v>577200</v>
@@ -3952,13 +3952,13 @@
         <v>3000</v>
       </c>
       <c r="G61" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H61" s="3">
         <v>3800</v>
       </c>
       <c r="I61" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J61" s="3">
         <v>1700</v>
@@ -4011,10 +4011,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="E62" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="F62" s="3">
         <v>10600</v>
@@ -4023,13 +4023,13 @@
         <v>8200</v>
       </c>
       <c r="H62" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I62" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J62" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="K62" s="3">
         <v>13800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>192300</v>
+        <v>193800</v>
       </c>
       <c r="E66" s="3">
-        <v>218500</v>
+        <v>220100</v>
       </c>
       <c r="F66" s="3">
-        <v>237400</v>
+        <v>239200</v>
       </c>
       <c r="G66" s="3">
-        <v>283700</v>
+        <v>285900</v>
       </c>
       <c r="H66" s="3">
-        <v>340800</v>
+        <v>343400</v>
       </c>
       <c r="I66" s="3">
-        <v>377700</v>
+        <v>380600</v>
       </c>
       <c r="J66" s="3">
-        <v>506200</v>
+        <v>510000</v>
       </c>
       <c r="K66" s="3">
         <v>598400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1221300</v>
+        <v>-1230700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1215800</v>
+        <v>-1225100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1213800</v>
+        <v>-1223100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1207600</v>
+        <v>-1216900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1066400</v>
+        <v>-1074600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1057500</v>
+        <v>-1065600</v>
       </c>
       <c r="J72" s="3">
-        <v>-1034400</v>
+        <v>-1042300</v>
       </c>
       <c r="K72" s="3">
         <v>-983300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>204500</v>
+        <v>206000</v>
       </c>
       <c r="E76" s="3">
-        <v>209200</v>
+        <v>210800</v>
       </c>
       <c r="F76" s="3">
-        <v>211500</v>
+        <v>213100</v>
       </c>
       <c r="G76" s="3">
-        <v>216800</v>
+        <v>218400</v>
       </c>
       <c r="H76" s="3">
-        <v>358600</v>
+        <v>361400</v>
       </c>
       <c r="I76" s="3">
-        <v>369100</v>
+        <v>371900</v>
       </c>
       <c r="J76" s="3">
-        <v>391800</v>
+        <v>394800</v>
       </c>
       <c r="K76" s="3">
         <v>417400</v>
@@ -5133,22 +5133,22 @@
         <v>-5500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F81" s="3">
         <v>-6200</v>
       </c>
       <c r="G81" s="3">
-        <v>-141200</v>
+        <v>-142300</v>
       </c>
       <c r="H81" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="I81" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="J81" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="K81" s="3">
         <v>-56500</v>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18100</v>
+        <v>10800</v>
       </c>
       <c r="E8" s="3">
-        <v>25400</v>
+        <v>16900</v>
       </c>
       <c r="F8" s="3">
-        <v>12200</v>
+        <v>23700</v>
       </c>
       <c r="G8" s="3">
-        <v>18700</v>
+        <v>11400</v>
       </c>
       <c r="H8" s="3">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="I8" s="3">
-        <v>5400</v>
+        <v>18200</v>
       </c>
       <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
         <v>27500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>119600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>67700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>284100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11800</v>
+        <v>5800</v>
       </c>
       <c r="E9" s="3">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="F9" s="3">
-        <v>7700</v>
+        <v>13600</v>
       </c>
       <c r="G9" s="3">
-        <v>11200</v>
+        <v>7200</v>
       </c>
       <c r="H9" s="3">
-        <v>9200</v>
+        <v>10400</v>
       </c>
       <c r="I9" s="3">
-        <v>4100</v>
+        <v>8600</v>
       </c>
       <c r="J9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>72700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>54200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>258700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="3">
-        <v>10900</v>
+        <v>5900</v>
       </c>
       <c r="F10" s="3">
-        <v>4500</v>
+        <v>10200</v>
       </c>
       <c r="G10" s="3">
-        <v>7600</v>
+        <v>4200</v>
       </c>
       <c r="H10" s="3">
-        <v>10300</v>
+        <v>7100</v>
       </c>
       <c r="I10" s="3">
-        <v>1200</v>
+        <v>9600</v>
       </c>
       <c r="J10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K10" s="3">
         <v>14600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>34900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>65400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F12" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="I12" s="3">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,46 +1214,49 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3">
-        <v>1200</v>
-      </c>
       <c r="I15" s="3">
-        <v>2600</v>
+        <v>1100</v>
       </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5400</v>
       </c>
       <c r="N15" s="3">
         <v>5400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>16</v>
+      <c r="O15" s="3">
+        <v>5400</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>16</v>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>27000</v>
+        <v>17300</v>
       </c>
       <c r="E17" s="3">
-        <v>29500</v>
+        <v>25200</v>
       </c>
       <c r="F17" s="3">
-        <v>20900</v>
+        <v>27600</v>
       </c>
       <c r="G17" s="3">
-        <v>162600</v>
+        <v>19500</v>
       </c>
       <c r="H17" s="3">
-        <v>29400</v>
+        <v>151900</v>
       </c>
       <c r="I17" s="3">
-        <v>29100</v>
+        <v>27500</v>
       </c>
       <c r="J17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K17" s="3">
         <v>61400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>90500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>86300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>129400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>113400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>369600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8900</v>
+        <v>-6500</v>
       </c>
       <c r="E18" s="3">
-        <v>-4100</v>
+        <v>-8300</v>
       </c>
       <c r="F18" s="3">
-        <v>-8600</v>
+        <v>-3800</v>
       </c>
       <c r="G18" s="3">
-        <v>-143900</v>
+        <v>-8100</v>
       </c>
       <c r="H18" s="3">
-        <v>-9900</v>
+        <v>-134400</v>
       </c>
       <c r="I18" s="3">
-        <v>-23700</v>
+        <v>-9300</v>
       </c>
       <c r="J18" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-34000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-66900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-32800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-42800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-45700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-85500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>5900</v>
       </c>
       <c r="N20" s="3">
         <v>5900</v>
       </c>
       <c r="O20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1584,46 +1620,49 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
-        <v>900</v>
-      </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
-        <v>1500</v>
-      </c>
       <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>16</v>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,105 +1691,111 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6000</v>
+        <v>-5100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2200</v>
+        <v>-5600</v>
       </c>
       <c r="F23" s="3">
-        <v>-6700</v>
+        <v>-2100</v>
       </c>
       <c r="G23" s="3">
-        <v>-146000</v>
+        <v>-6200</v>
       </c>
       <c r="H23" s="3">
-        <v>-10000</v>
+        <v>-136400</v>
       </c>
       <c r="I23" s="3">
-        <v>-24500</v>
+        <v>-9300</v>
       </c>
       <c r="J23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-39600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-42400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-83000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1759,37 +1804,40 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2200</v>
+        <v>-5500</v>
       </c>
       <c r="F26" s="3">
-        <v>-6600</v>
+        <v>-2100</v>
       </c>
       <c r="G26" s="3">
-        <v>-145400</v>
+        <v>-6200</v>
       </c>
       <c r="H26" s="3">
-        <v>-9800</v>
+        <v>-135800</v>
       </c>
       <c r="I26" s="3">
-        <v>-24400</v>
+        <v>-9100</v>
       </c>
       <c r="J26" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-32400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-42600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-82600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-142300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-40200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-42800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-81600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-5900</v>
       </c>
       <c r="N32" s="3">
         <v>-5900</v>
       </c>
       <c r="O32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-142300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-40200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-42800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-81600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-142300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-40200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-42800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-81600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2746,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56300</v>
+        <v>51400</v>
       </c>
       <c r="E41" s="3">
-        <v>67400</v>
+        <v>52600</v>
       </c>
       <c r="F41" s="3">
-        <v>78100</v>
+        <v>63000</v>
       </c>
       <c r="G41" s="3">
-        <v>33700</v>
+        <v>72900</v>
       </c>
       <c r="H41" s="3">
-        <v>105400</v>
+        <v>31500</v>
       </c>
       <c r="I41" s="3">
-        <v>83300</v>
+        <v>98500</v>
       </c>
       <c r="J41" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K41" s="3">
         <v>93200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>89200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>125800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>159100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>112000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>157800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100100</v>
+        <v>90800</v>
       </c>
       <c r="E42" s="3">
-        <v>105500</v>
+        <v>93500</v>
       </c>
       <c r="F42" s="3">
-        <v>121800</v>
+        <v>98500</v>
       </c>
       <c r="G42" s="3">
-        <v>213600</v>
+        <v>113800</v>
       </c>
       <c r="H42" s="3">
-        <v>133500</v>
+        <v>199500</v>
       </c>
       <c r="I42" s="3">
-        <v>154100</v>
+        <v>124700</v>
       </c>
       <c r="J42" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K42" s="3">
         <v>220400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>201000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>233100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>217800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>169500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>130700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>150900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>153200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>341500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>457800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>511100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>493200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>500700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>524100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39500</v>
+        <v>18700</v>
       </c>
       <c r="E43" s="3">
-        <v>43200</v>
+        <v>36900</v>
       </c>
       <c r="F43" s="3">
-        <v>43600</v>
+        <v>40300</v>
       </c>
       <c r="G43" s="3">
-        <v>45400</v>
+        <v>40700</v>
       </c>
       <c r="H43" s="3">
-        <v>57300</v>
+        <v>42400</v>
       </c>
       <c r="I43" s="3">
-        <v>65500</v>
+        <v>53600</v>
       </c>
       <c r="J43" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K43" s="3">
         <v>81000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>98300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>174600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>158800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>175500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>146300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>72600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>151300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>172500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>156400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3028,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F45" s="3">
         <v>70000</v>
       </c>
-      <c r="E45" s="3">
-        <v>74900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>64000</v>
-      </c>
       <c r="G45" s="3">
-        <v>67700</v>
+        <v>59700</v>
       </c>
       <c r="H45" s="3">
-        <v>136500</v>
+        <v>63300</v>
       </c>
       <c r="I45" s="3">
-        <v>155500</v>
+        <v>127500</v>
       </c>
       <c r="J45" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K45" s="3">
         <v>167800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>262600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>279500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>277100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>295800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>284000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>253900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>163100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>153100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>214200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>167100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>148900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>492900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265800</v>
+        <v>217400</v>
       </c>
       <c r="E46" s="3">
-        <v>290900</v>
+        <v>248300</v>
       </c>
       <c r="F46" s="3">
-        <v>307400</v>
+        <v>271800</v>
       </c>
       <c r="G46" s="3">
-        <v>360400</v>
+        <v>287200</v>
       </c>
       <c r="H46" s="3">
-        <v>432800</v>
+        <v>336600</v>
       </c>
       <c r="I46" s="3">
-        <v>458400</v>
+        <v>404300</v>
       </c>
       <c r="J46" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K46" s="3">
         <v>562400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>588700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>657200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>727600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>679500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>670500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>699600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>643300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>656800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>755300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>994300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>970700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>934000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1093800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32000</v>
+        <v>29800</v>
       </c>
       <c r="E47" s="3">
-        <v>36300</v>
+        <v>29900</v>
       </c>
       <c r="F47" s="3">
-        <v>40900</v>
+        <v>33900</v>
       </c>
       <c r="G47" s="3">
-        <v>42100</v>
+        <v>38200</v>
       </c>
       <c r="H47" s="3">
-        <v>160700</v>
+        <v>39300</v>
       </c>
       <c r="I47" s="3">
-        <v>175100</v>
+        <v>150100</v>
       </c>
       <c r="J47" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K47" s="3">
         <v>211500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>286900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>292500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>228600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>192500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>198100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>193200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>185600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>142500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>72000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>47000</v>
+      </c>
+      <c r="L48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="M48" s="3">
+        <v>59500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="T48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="V48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="W48" s="3">
+        <v>24200</v>
+      </c>
+      <c r="X48" s="3">
         <v>25900</v>
       </c>
-      <c r="E48" s="3">
-        <v>26700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>27500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>47000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>50700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>59500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>58600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>60000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>28500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>25100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>22200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>21900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>22700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>24200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>25900</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60900</v>
+        <v>42300</v>
       </c>
       <c r="E49" s="3">
-        <v>61700</v>
+        <v>42900</v>
       </c>
       <c r="F49" s="3">
-        <v>62400</v>
+        <v>43500</v>
       </c>
       <c r="G49" s="3">
-        <v>63100</v>
+        <v>44100</v>
       </c>
       <c r="H49" s="3">
-        <v>67800</v>
+        <v>59000</v>
       </c>
       <c r="I49" s="3">
-        <v>69800</v>
+        <v>63300</v>
       </c>
       <c r="J49" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K49" s="3">
         <v>57200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>61300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>72600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>75200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>82300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>90300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>95800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>101200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>105900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>107600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15100</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>15200</v>
+        <v>28200</v>
       </c>
       <c r="F52" s="3">
-        <v>14100</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>14400</v>
+        <v>27300</v>
       </c>
       <c r="H52" s="3">
-        <v>7600</v>
+        <v>13400</v>
       </c>
       <c r="I52" s="3">
-        <v>9500</v>
+        <v>7100</v>
       </c>
       <c r="J52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K52" s="3">
         <v>26700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>53000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>68900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>88600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>399800</v>
+        <v>338600</v>
       </c>
       <c r="E54" s="3">
-        <v>430900</v>
+        <v>373500</v>
       </c>
       <c r="F54" s="3">
-        <v>452300</v>
+        <v>402500</v>
       </c>
       <c r="G54" s="3">
-        <v>504300</v>
+        <v>422500</v>
       </c>
       <c r="H54" s="3">
-        <v>704800</v>
+        <v>471100</v>
       </c>
       <c r="I54" s="3">
-        <v>752500</v>
+        <v>658300</v>
       </c>
       <c r="J54" s="3">
+        <v>702900</v>
+      </c>
+      <c r="K54" s="3">
         <v>904800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1015700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1099900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1109900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1027800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>997400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1017200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>951500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>942200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>988100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1179500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1177200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1141700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1333800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83600</v>
+        <v>56500</v>
       </c>
       <c r="E57" s="3">
-        <v>103200</v>
+        <v>78100</v>
       </c>
       <c r="F57" s="3">
-        <v>108800</v>
+        <v>96400</v>
       </c>
       <c r="G57" s="3">
-        <v>111400</v>
+        <v>101600</v>
       </c>
       <c r="H57" s="3">
-        <v>146100</v>
+        <v>104000</v>
       </c>
       <c r="I57" s="3">
-        <v>157600</v>
+        <v>136400</v>
       </c>
       <c r="J57" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K57" s="3">
         <v>178300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>278900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>276600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>227700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>198600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>236800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>182900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>166700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>126500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>218700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>173800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>142400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>148700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="F58" s="3">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="H58" s="3">
-        <v>3300</v>
+        <v>8900</v>
       </c>
       <c r="I58" s="3">
-        <v>8000</v>
+        <v>3100</v>
       </c>
       <c r="J58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K58" s="3">
         <v>32100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8800</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,183 +3934,192 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>98400</v>
+        <v>86300</v>
       </c>
       <c r="E59" s="3">
-        <v>102700</v>
+        <v>91900</v>
       </c>
       <c r="F59" s="3">
-        <v>108700</v>
+        <v>95900</v>
       </c>
       <c r="G59" s="3">
-        <v>154300</v>
+        <v>101500</v>
       </c>
       <c r="H59" s="3">
-        <v>178200</v>
+        <v>144100</v>
       </c>
       <c r="I59" s="3">
-        <v>196500</v>
+        <v>166500</v>
       </c>
       <c r="J59" s="3">
+        <v>183600</v>
+      </c>
+      <c r="K59" s="3">
         <v>279900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>343800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>292400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>315900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>271400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>273400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>268100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>284800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>254700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>307000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>380000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>416000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>358800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>509600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183700</v>
+        <v>144300</v>
       </c>
       <c r="E60" s="3">
-        <v>209100</v>
+        <v>171600</v>
       </c>
       <c r="F60" s="3">
-        <v>227000</v>
+        <v>195300</v>
       </c>
       <c r="G60" s="3">
-        <v>275200</v>
+        <v>212100</v>
       </c>
       <c r="H60" s="3">
-        <v>327600</v>
+        <v>257100</v>
       </c>
       <c r="I60" s="3">
-        <v>362100</v>
+        <v>306000</v>
       </c>
       <c r="J60" s="3">
+        <v>338200</v>
+      </c>
+      <c r="K60" s="3">
         <v>490300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>577200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>593400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>605400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>507900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>472000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>505000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>467600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>421400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>433500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>598600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>589800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>501200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>658400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3600</v>
-      </c>
       <c r="H61" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="I61" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="J61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>10600</v>
+        <v>9300</v>
       </c>
       <c r="G62" s="3">
-        <v>8200</v>
+        <v>9900</v>
       </c>
       <c r="H62" s="3">
-        <v>10100</v>
+        <v>7700</v>
       </c>
       <c r="I62" s="3">
-        <v>11100</v>
+        <v>9400</v>
       </c>
       <c r="J62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K62" s="3">
         <v>12500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>193800</v>
+        <v>151600</v>
       </c>
       <c r="E66" s="3">
-        <v>220100</v>
+        <v>181000</v>
       </c>
       <c r="F66" s="3">
-        <v>239200</v>
+        <v>205600</v>
       </c>
       <c r="G66" s="3">
-        <v>285900</v>
+        <v>223400</v>
       </c>
       <c r="H66" s="3">
-        <v>343400</v>
+        <v>267000</v>
       </c>
       <c r="I66" s="3">
-        <v>380600</v>
+        <v>320800</v>
       </c>
       <c r="J66" s="3">
+        <v>355500</v>
+      </c>
+      <c r="K66" s="3">
         <v>510000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>598400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>626400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>638600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>539900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>487800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>522100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>483700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>442000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>454500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>619600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>611800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>523200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>679600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1230700</v>
+        <v>-1154500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1225100</v>
+        <v>-1149600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1223100</v>
+        <v>-1144400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1216900</v>
+        <v>-1142500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1074600</v>
+        <v>-1136600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1065600</v>
+        <v>-1003700</v>
       </c>
       <c r="J72" s="3">
+        <v>-995400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-983300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-927000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-925200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-888600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-865800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-817600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-792300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-817100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-790000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-785800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-745800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-689100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206000</v>
+        <v>187000</v>
       </c>
       <c r="E76" s="3">
-        <v>210800</v>
+        <v>192500</v>
       </c>
       <c r="F76" s="3">
-        <v>213100</v>
+        <v>196900</v>
       </c>
       <c r="G76" s="3">
-        <v>218400</v>
+        <v>199000</v>
       </c>
       <c r="H76" s="3">
-        <v>361400</v>
+        <v>204000</v>
       </c>
       <c r="I76" s="3">
-        <v>371900</v>
+        <v>337500</v>
       </c>
       <c r="J76" s="3">
+        <v>347400</v>
+      </c>
+      <c r="K76" s="3">
         <v>394800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>417400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>473600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>471400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>487900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>509700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>495100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>467800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>533600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>559900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>565500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>618500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>654300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-142300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-40200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-42800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-81600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10800</v>
+        <v>6100</v>
       </c>
       <c r="E8" s="3">
-        <v>16900</v>
+        <v>10700</v>
       </c>
       <c r="F8" s="3">
-        <v>23700</v>
+        <v>16700</v>
       </c>
       <c r="G8" s="3">
-        <v>11400</v>
+        <v>23500</v>
       </c>
       <c r="H8" s="3">
-        <v>17500</v>
+        <v>11300</v>
       </c>
       <c r="I8" s="3">
-        <v>18200</v>
+        <v>17300</v>
       </c>
       <c r="J8" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>131300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>69700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>68300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>67700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>284100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5800</v>
+        <v>3700</v>
       </c>
       <c r="E9" s="3">
-        <v>11000</v>
+        <v>5700</v>
       </c>
       <c r="F9" s="3">
-        <v>13600</v>
+        <v>10900</v>
       </c>
       <c r="G9" s="3">
-        <v>7200</v>
+        <v>13400</v>
       </c>
       <c r="H9" s="3">
-        <v>10400</v>
+        <v>7100</v>
       </c>
       <c r="I9" s="3">
-        <v>8600</v>
+        <v>10300</v>
       </c>
       <c r="J9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>72700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>54200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>30400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>258700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
-        <v>5900</v>
-      </c>
       <c r="F10" s="3">
-        <v>10200</v>
+        <v>5800</v>
       </c>
       <c r="G10" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
-        <v>7100</v>
-      </c>
       <c r="I10" s="3">
-        <v>9600</v>
+        <v>7000</v>
       </c>
       <c r="J10" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>65400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>37300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,49 +1237,52 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5400</v>
       </c>
       <c r="O15" s="3">
         <v>5400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>16</v>
+      <c r="P15" s="3">
+        <v>5400</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>16</v>
@@ -1270,8 +1293,8 @@
       <c r="S15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17300</v>
+        <v>13800</v>
       </c>
       <c r="E17" s="3">
-        <v>25200</v>
+        <v>17100</v>
       </c>
       <c r="F17" s="3">
-        <v>27600</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="3">
-        <v>19500</v>
+        <v>27300</v>
       </c>
       <c r="H17" s="3">
-        <v>151900</v>
+        <v>19300</v>
       </c>
       <c r="I17" s="3">
-        <v>27500</v>
+        <v>150500</v>
       </c>
       <c r="J17" s="3">
         <v>27200</v>
       </c>
       <c r="K17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="L17" s="3">
         <v>61400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>136300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>111400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>90500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>86300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>102500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>129400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>111100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>113400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>369600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6500</v>
+        <v>-7700</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-134400</v>
+        <v>-8000</v>
       </c>
       <c r="I18" s="3">
-        <v>-9300</v>
+        <v>-133200</v>
       </c>
       <c r="J18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-66900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-32800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-42800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-45700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-85500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
-        <v>2100</v>
-      </c>
       <c r="G20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5900</v>
       </c>
       <c r="O20" s="3">
         <v>5900</v>
       </c>
       <c r="P20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,40 +1672,40 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>16</v>
@@ -1676,8 +1716,8 @@
       <c r="S22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,111 +1734,117 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-136400</v>
-      </c>
       <c r="I23" s="3">
-        <v>-9300</v>
+        <v>-135200</v>
       </c>
       <c r="J23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-39600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-42400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-83000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
@@ -1807,37 +1853,40 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-6200</v>
+        <v>-2000</v>
       </c>
       <c r="H26" s="3">
-        <v>-135800</v>
+        <v>-6100</v>
       </c>
       <c r="I26" s="3">
+        <v>-134600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-27600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-40200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-42600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-82600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
-        <v>-132900</v>
-      </c>
       <c r="I27" s="3">
-        <v>-8400</v>
+        <v>-131700</v>
       </c>
       <c r="J27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-27400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-40200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-42800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-81600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-5900</v>
       </c>
       <c r="O32" s="3">
         <v>-5900</v>
       </c>
       <c r="P32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="E33" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
-        <v>-132900</v>
-      </c>
       <c r="I33" s="3">
-        <v>-8400</v>
+        <v>-131700</v>
       </c>
       <c r="J33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-27400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-40200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-42800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-81600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="E35" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
-        <v>-132900</v>
-      </c>
       <c r="I35" s="3">
-        <v>-8400</v>
+        <v>-131700</v>
       </c>
       <c r="J35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-27400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-40200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-42800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-81600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,221 +2833,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51400</v>
+        <v>46800</v>
       </c>
       <c r="E41" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="F41" s="3">
-        <v>63000</v>
+        <v>52100</v>
       </c>
       <c r="G41" s="3">
-        <v>72900</v>
+        <v>62400</v>
       </c>
       <c r="H41" s="3">
-        <v>31500</v>
+        <v>72300</v>
       </c>
       <c r="I41" s="3">
-        <v>98500</v>
+        <v>31200</v>
       </c>
       <c r="J41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K41" s="3">
         <v>77800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>85200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>89900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>71800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>125800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>159100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>112000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>157800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90800</v>
+        <v>84500</v>
       </c>
       <c r="E42" s="3">
-        <v>93500</v>
+        <v>89900</v>
       </c>
       <c r="F42" s="3">
-        <v>98500</v>
+        <v>92700</v>
       </c>
       <c r="G42" s="3">
-        <v>113800</v>
+        <v>97600</v>
       </c>
       <c r="H42" s="3">
-        <v>199500</v>
+        <v>112700</v>
       </c>
       <c r="I42" s="3">
-        <v>124700</v>
+        <v>197700</v>
       </c>
       <c r="J42" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K42" s="3">
         <v>144000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>220400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>201000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>233100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>217800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>169500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>130700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>150900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>153200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>341500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>457800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>511100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>493200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>500700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>524100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18700</v>
+        <v>16600</v>
       </c>
       <c r="E43" s="3">
-        <v>36900</v>
+        <v>18500</v>
       </c>
       <c r="F43" s="3">
-        <v>40300</v>
+        <v>36600</v>
       </c>
       <c r="G43" s="3">
-        <v>40700</v>
+        <v>39900</v>
       </c>
       <c r="H43" s="3">
-        <v>42400</v>
+        <v>40400</v>
       </c>
       <c r="I43" s="3">
-        <v>53600</v>
+        <v>42100</v>
       </c>
       <c r="J43" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K43" s="3">
         <v>61200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>91600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>174600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>158800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>175500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>72600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>143000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>151300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>172500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>156400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56500</v>
+        <v>57200</v>
       </c>
       <c r="E45" s="3">
-        <v>65300</v>
+        <v>56000</v>
       </c>
       <c r="F45" s="3">
-        <v>70000</v>
+        <v>64800</v>
       </c>
       <c r="G45" s="3">
-        <v>59700</v>
+        <v>69300</v>
       </c>
       <c r="H45" s="3">
-        <v>63300</v>
+        <v>59200</v>
       </c>
       <c r="I45" s="3">
-        <v>127500</v>
+        <v>62700</v>
       </c>
       <c r="J45" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K45" s="3">
         <v>145200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>262600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>279500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>277100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>295800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>284000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>253900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>163100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>153100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>214200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>167100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>148900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>492900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>217400</v>
+        <v>205100</v>
       </c>
       <c r="E46" s="3">
-        <v>248300</v>
+        <v>215500</v>
       </c>
       <c r="F46" s="3">
-        <v>271800</v>
+        <v>246100</v>
       </c>
       <c r="G46" s="3">
-        <v>287200</v>
+        <v>269300</v>
       </c>
       <c r="H46" s="3">
-        <v>336600</v>
+        <v>284600</v>
       </c>
       <c r="I46" s="3">
-        <v>404300</v>
+        <v>333600</v>
       </c>
       <c r="J46" s="3">
+        <v>400600</v>
+      </c>
+      <c r="K46" s="3">
         <v>428200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>562400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>588700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>657200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>727600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>679500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>670500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>699600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>643300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>656800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>755300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>994300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>970700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>934000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1093800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="E47" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="F47" s="3">
-        <v>33900</v>
+        <v>29600</v>
       </c>
       <c r="G47" s="3">
-        <v>38200</v>
+        <v>33600</v>
       </c>
       <c r="H47" s="3">
-        <v>39300</v>
+        <v>37900</v>
       </c>
       <c r="I47" s="3">
-        <v>150100</v>
+        <v>39000</v>
       </c>
       <c r="J47" s="3">
+        <v>148700</v>
+      </c>
+      <c r="K47" s="3">
         <v>163500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>211500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>286900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>292500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>228600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>192500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>198100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>193200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>185600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>142500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>72000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21600</v>
+        <v>19400</v>
       </c>
       <c r="E48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>59500</v>
+      </c>
+      <c r="O48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="P48" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="R48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="U48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="V48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="W48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="X48" s="3">
         <v>24200</v>
       </c>
-      <c r="F48" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>33500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>37200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>47000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>50700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>59500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>58600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>28500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>25100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>22200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>21900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>22700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>24200</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>25900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42300</v>
+        <v>55300</v>
       </c>
       <c r="E49" s="3">
-        <v>42900</v>
+        <v>55800</v>
       </c>
       <c r="F49" s="3">
-        <v>43500</v>
+        <v>42500</v>
       </c>
       <c r="G49" s="3">
-        <v>44100</v>
+        <v>43100</v>
       </c>
       <c r="H49" s="3">
-        <v>59000</v>
+        <v>43700</v>
       </c>
       <c r="I49" s="3">
-        <v>63300</v>
+        <v>58400</v>
       </c>
       <c r="J49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K49" s="3">
         <v>65200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>67400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>72600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>75200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>82300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>90300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>95800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>101200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>105900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>107600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27500</v>
+        <v>13100</v>
       </c>
       <c r="E52" s="3">
-        <v>28200</v>
+        <v>13500</v>
       </c>
       <c r="F52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>26700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>28700</v>
+      </c>
+      <c r="O52" s="3">
+        <v>28500</v>
+      </c>
+      <c r="P52" s="3">
         <v>28300</v>
       </c>
-      <c r="G52" s="3">
-        <v>27300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>26700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>28100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>28700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>28500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>28300</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>48500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>53000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>71600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>68900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>88600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>338600</v>
+        <v>323200</v>
       </c>
       <c r="E54" s="3">
-        <v>373500</v>
+        <v>335500</v>
       </c>
       <c r="F54" s="3">
-        <v>402500</v>
+        <v>370100</v>
       </c>
       <c r="G54" s="3">
-        <v>422500</v>
+        <v>398900</v>
       </c>
       <c r="H54" s="3">
-        <v>471100</v>
+        <v>418700</v>
       </c>
       <c r="I54" s="3">
-        <v>658300</v>
+        <v>466800</v>
       </c>
       <c r="J54" s="3">
+        <v>652400</v>
+      </c>
+      <c r="K54" s="3">
         <v>702900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>904800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1015700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1099900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1109900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1027800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>997400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1017200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>951500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>942200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>988100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1179500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1177200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1141700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1333800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,120 +3925,124 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56500</v>
+        <v>54200</v>
       </c>
       <c r="E57" s="3">
-        <v>78100</v>
+        <v>56000</v>
       </c>
       <c r="F57" s="3">
-        <v>96400</v>
+        <v>77400</v>
       </c>
       <c r="G57" s="3">
-        <v>101600</v>
+        <v>95500</v>
       </c>
       <c r="H57" s="3">
-        <v>104000</v>
+        <v>100700</v>
       </c>
       <c r="I57" s="3">
-        <v>136400</v>
+        <v>103100</v>
       </c>
       <c r="J57" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K57" s="3">
         <v>147200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>178300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>278900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>276600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>227700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>198600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>236800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>182900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>166700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>126500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>218700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>173800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>142400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>148700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
-        <v>1600</v>
-      </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3100</v>
-      </c>
       <c r="J58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8800</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
@@ -3919,8 +4053,8 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3937,192 +4071,201 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86300</v>
+        <v>82300</v>
       </c>
       <c r="E59" s="3">
-        <v>91900</v>
+        <v>85500</v>
       </c>
       <c r="F59" s="3">
-        <v>95900</v>
+        <v>91100</v>
       </c>
       <c r="G59" s="3">
-        <v>101500</v>
+        <v>95100</v>
       </c>
       <c r="H59" s="3">
-        <v>144100</v>
+        <v>100600</v>
       </c>
       <c r="I59" s="3">
-        <v>166500</v>
+        <v>142800</v>
       </c>
       <c r="J59" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K59" s="3">
         <v>183600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>279900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>343800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>315900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>271400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>273400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>268100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>284800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>254700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>307000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>380000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>416000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>358800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>509600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144300</v>
+        <v>137900</v>
       </c>
       <c r="E60" s="3">
-        <v>171600</v>
+        <v>143000</v>
       </c>
       <c r="F60" s="3">
-        <v>195300</v>
+        <v>170000</v>
       </c>
       <c r="G60" s="3">
-        <v>212100</v>
+        <v>193600</v>
       </c>
       <c r="H60" s="3">
-        <v>257100</v>
+        <v>210100</v>
       </c>
       <c r="I60" s="3">
-        <v>306000</v>
+        <v>254800</v>
       </c>
       <c r="J60" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K60" s="3">
         <v>338200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>490300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>577200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>593400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>605400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>507900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>472000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>505000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>467600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>421400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>433500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>598600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>589800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>501200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>658400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>9300</v>
       </c>
-      <c r="G62" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="S62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="W62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>19000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>21400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="T62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="U62" s="3">
-        <v>6400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>7700</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151600</v>
+        <v>143700</v>
       </c>
       <c r="E66" s="3">
-        <v>181000</v>
+        <v>150200</v>
       </c>
       <c r="F66" s="3">
-        <v>205600</v>
+        <v>179400</v>
       </c>
       <c r="G66" s="3">
-        <v>223400</v>
+        <v>203800</v>
       </c>
       <c r="H66" s="3">
-        <v>267000</v>
+        <v>221400</v>
       </c>
       <c r="I66" s="3">
-        <v>320800</v>
+        <v>264600</v>
       </c>
       <c r="J66" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K66" s="3">
         <v>355500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>510000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>598400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>626400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>638600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>539900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>487800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>522100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>483700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>442000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>454500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>619600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>611800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>523200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>679600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1154500</v>
+        <v>-1150000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1149600</v>
+        <v>-1144100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1144400</v>
+        <v>-1139200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1142500</v>
+        <v>-1134100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1136600</v>
+        <v>-1132100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1003700</v>
+        <v>-1126400</v>
       </c>
       <c r="J72" s="3">
+        <v>-994700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-995400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-983300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-927000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-925200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-888600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-865800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-817600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-792300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-800600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-817100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-790000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-785800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-745800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-689100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>187000</v>
+        <v>179600</v>
       </c>
       <c r="E76" s="3">
-        <v>192500</v>
+        <v>185300</v>
       </c>
       <c r="F76" s="3">
-        <v>196900</v>
+        <v>190700</v>
       </c>
       <c r="G76" s="3">
-        <v>199000</v>
+        <v>195100</v>
       </c>
       <c r="H76" s="3">
-        <v>204000</v>
+        <v>197200</v>
       </c>
       <c r="I76" s="3">
-        <v>337500</v>
+        <v>202200</v>
       </c>
       <c r="J76" s="3">
+        <v>334500</v>
+      </c>
+      <c r="K76" s="3">
         <v>347400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>394800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>417400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>473600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>471400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>509700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>495100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>467800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>533600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>559900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>565500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>618500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>654300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="E81" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
-        <v>-132900</v>
-      </c>
       <c r="I81" s="3">
-        <v>-8400</v>
+        <v>-131700</v>
       </c>
       <c r="J81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-27400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-40200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-42800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-81600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6100</v>
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
-        <v>10700</v>
+        <v>5800</v>
       </c>
       <c r="F8" s="3">
-        <v>16700</v>
+        <v>10200</v>
       </c>
       <c r="G8" s="3">
-        <v>23500</v>
+        <v>16000</v>
       </c>
       <c r="H8" s="3">
-        <v>11300</v>
+        <v>22400</v>
       </c>
       <c r="I8" s="3">
-        <v>17300</v>
+        <v>10800</v>
       </c>
       <c r="J8" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K8" s="3">
         <v>18000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>69700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>119600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>68300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>67700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>284100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="E9" s="3">
-        <v>5700</v>
+        <v>3600</v>
       </c>
       <c r="F9" s="3">
-        <v>10900</v>
+        <v>5500</v>
       </c>
       <c r="G9" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H9" s="3">
-        <v>7100</v>
+        <v>12800</v>
       </c>
       <c r="I9" s="3">
-        <v>10300</v>
+        <v>6800</v>
       </c>
       <c r="J9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>72700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>31300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>54200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>32600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>30400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>258700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,73 +935,76 @@
         <v>2300</v>
       </c>
       <c r="E10" s="3">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="3">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="3">
-        <v>10100</v>
+        <v>5500</v>
       </c>
       <c r="H10" s="3">
-        <v>4200</v>
+        <v>9600</v>
       </c>
       <c r="I10" s="3">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="J10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K10" s="3">
         <v>9500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>58600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>34900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>65400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>25400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>18400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1240,52 +1260,55 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5400</v>
       </c>
       <c r="P15" s="3">
         <v>5400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>16</v>
+      <c r="Q15" s="3">
+        <v>5400</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>16</v>
@@ -1296,8 +1319,8 @@
       <c r="T15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13800</v>
+        <v>22200</v>
       </c>
       <c r="E17" s="3">
-        <v>17100</v>
+        <v>13100</v>
       </c>
       <c r="F17" s="3">
-        <v>25000</v>
+        <v>16300</v>
       </c>
       <c r="G17" s="3">
-        <v>27300</v>
+        <v>23800</v>
       </c>
       <c r="H17" s="3">
-        <v>19300</v>
+        <v>26000</v>
       </c>
       <c r="I17" s="3">
-        <v>150500</v>
+        <v>18400</v>
       </c>
       <c r="J17" s="3">
-        <v>27200</v>
+        <v>143500</v>
       </c>
       <c r="K17" s="3">
         <v>27200</v>
       </c>
       <c r="L17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="M17" s="3">
         <v>61400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>136300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>110800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>111400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>90500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>86300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>102500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>129400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>111100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>113400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>369600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7700</v>
+        <v>-17100</v>
       </c>
       <c r="E18" s="3">
-        <v>-6400</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>-8300</v>
+        <v>-6100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3800</v>
+        <v>-7900</v>
       </c>
       <c r="H18" s="3">
-        <v>-8000</v>
+        <v>-3600</v>
       </c>
       <c r="I18" s="3">
-        <v>-133200</v>
+        <v>-7600</v>
       </c>
       <c r="J18" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-66900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-32800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-42800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-45700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>2200</v>
-      </c>
       <c r="I20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5900</v>
       </c>
       <c r="P20" s="3">
         <v>5900</v>
       </c>
       <c r="Q20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,52 +1700,55 @@
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>16</v>
@@ -1719,8 +1759,8 @@
       <c r="T22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,117 +1777,123 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-18000</v>
       </c>
       <c r="E23" s="3">
-        <v>-5100</v>
+        <v>-5900</v>
       </c>
       <c r="F23" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="G23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-135200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-39600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-42400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-83000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>-600</v>
-      </c>
       <c r="J24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
@@ -1856,37 +1902,40 @@
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6100</v>
+        <v>-18000</v>
       </c>
       <c r="E26" s="3">
-        <v>-5300</v>
+        <v>-5800</v>
       </c>
       <c r="F26" s="3">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2000</v>
+        <v>-5200</v>
       </c>
       <c r="H26" s="3">
-        <v>-6100</v>
+        <v>-1900</v>
       </c>
       <c r="I26" s="3">
-        <v>-134600</v>
+        <v>-5800</v>
       </c>
       <c r="J26" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-27600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-40200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-82600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5900</v>
+        <v>-17600</v>
       </c>
       <c r="E27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-5800</v>
+        <v>-1800</v>
       </c>
       <c r="I27" s="3">
-        <v>-131700</v>
+        <v>-5500</v>
       </c>
       <c r="J27" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-27400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-40200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-42800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-81600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2900</v>
+        <v>-1500</v>
       </c>
       <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2200</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-5900</v>
       </c>
       <c r="P32" s="3">
         <v>-5900</v>
       </c>
       <c r="Q32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5900</v>
+        <v>-17600</v>
       </c>
       <c r="E33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-5800</v>
+        <v>-1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-131700</v>
+        <v>-5500</v>
       </c>
       <c r="J33" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-27400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-40200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-42800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-81600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5900</v>
+        <v>-17600</v>
       </c>
       <c r="E35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-5800</v>
+        <v>-1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-131700</v>
+        <v>-5500</v>
       </c>
       <c r="J35" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-27400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-40200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-42800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-81600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,230 +2920,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46800</v>
+        <v>41400</v>
       </c>
       <c r="E41" s="3">
-        <v>51000</v>
+        <v>44600</v>
       </c>
       <c r="F41" s="3">
-        <v>52100</v>
+        <v>48600</v>
       </c>
       <c r="G41" s="3">
-        <v>62400</v>
+        <v>49700</v>
       </c>
       <c r="H41" s="3">
-        <v>72300</v>
+        <v>59500</v>
       </c>
       <c r="I41" s="3">
-        <v>31200</v>
+        <v>68900</v>
       </c>
       <c r="J41" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>85200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>89200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>89900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>125800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>159100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>112000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>157800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84500</v>
+        <v>95600</v>
       </c>
       <c r="E42" s="3">
-        <v>89900</v>
+        <v>80500</v>
       </c>
       <c r="F42" s="3">
-        <v>92700</v>
+        <v>85700</v>
       </c>
       <c r="G42" s="3">
-        <v>97600</v>
+        <v>88300</v>
       </c>
       <c r="H42" s="3">
-        <v>112700</v>
+        <v>93100</v>
       </c>
       <c r="I42" s="3">
-        <v>197700</v>
+        <v>107500</v>
       </c>
       <c r="J42" s="3">
+        <v>188400</v>
+      </c>
+      <c r="K42" s="3">
         <v>123600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>144000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>220400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>201000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>233100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>217800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>169500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>130700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>150900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>153200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>341500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>457800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>511100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>493200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>524100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E43" s="3">
-        <v>18500</v>
+        <v>15800</v>
       </c>
       <c r="F43" s="3">
-        <v>36600</v>
+        <v>17700</v>
       </c>
       <c r="G43" s="3">
-        <v>39900</v>
+        <v>34800</v>
       </c>
       <c r="H43" s="3">
-        <v>40400</v>
+        <v>38100</v>
       </c>
       <c r="I43" s="3">
-        <v>42100</v>
+        <v>38500</v>
       </c>
       <c r="J43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K43" s="3">
         <v>53100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>91600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>98300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>174600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>165700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>158800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>175500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>146300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>72600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>151300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>172500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>156400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,378 +3226,396 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57200</v>
+        <v>44100</v>
       </c>
       <c r="E45" s="3">
-        <v>56000</v>
+        <v>54500</v>
       </c>
       <c r="F45" s="3">
-        <v>64800</v>
+        <v>53400</v>
       </c>
       <c r="G45" s="3">
-        <v>69300</v>
+        <v>61700</v>
       </c>
       <c r="H45" s="3">
-        <v>59200</v>
+        <v>66100</v>
       </c>
       <c r="I45" s="3">
-        <v>62700</v>
+        <v>56400</v>
       </c>
       <c r="J45" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K45" s="3">
         <v>126300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>145200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>167800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>262600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>279500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>277100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>295800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>284000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>253900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>163100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>153100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>214200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>167100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>148900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>492900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>205100</v>
+        <v>197800</v>
       </c>
       <c r="E46" s="3">
-        <v>215500</v>
+        <v>195500</v>
       </c>
       <c r="F46" s="3">
-        <v>246100</v>
+        <v>205400</v>
       </c>
       <c r="G46" s="3">
-        <v>269300</v>
+        <v>234600</v>
       </c>
       <c r="H46" s="3">
-        <v>284600</v>
+        <v>256700</v>
       </c>
       <c r="I46" s="3">
-        <v>333600</v>
+        <v>271300</v>
       </c>
       <c r="J46" s="3">
+        <v>318000</v>
+      </c>
+      <c r="K46" s="3">
         <v>400600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>428200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>562400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>588700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>657200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>727600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>679500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>670500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>699600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>643300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>656800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>755300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>994300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>970700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>934000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1093800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30300</v>
+        <v>31500</v>
       </c>
       <c r="E47" s="3">
-        <v>29500</v>
+        <v>28900</v>
       </c>
       <c r="F47" s="3">
-        <v>29600</v>
+        <v>28100</v>
       </c>
       <c r="G47" s="3">
-        <v>33600</v>
+        <v>28200</v>
       </c>
       <c r="H47" s="3">
-        <v>37900</v>
+        <v>32000</v>
       </c>
       <c r="I47" s="3">
-        <v>39000</v>
+        <v>36100</v>
       </c>
       <c r="J47" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K47" s="3">
         <v>148700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>163500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>211500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>286900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>292500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>228600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>192500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>198100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>193200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>185600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>142500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>72000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>18000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19400</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J48" s="3">
         <v>21400</v>
       </c>
-      <c r="F48" s="3">
-        <v>24000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>25400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>58600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>25900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55300</v>
+        <v>35600</v>
       </c>
       <c r="E49" s="3">
-        <v>55800</v>
+        <v>52700</v>
       </c>
       <c r="F49" s="3">
-        <v>42500</v>
+        <v>53200</v>
       </c>
       <c r="G49" s="3">
-        <v>43100</v>
+        <v>40500</v>
       </c>
       <c r="H49" s="3">
-        <v>43700</v>
+        <v>41100</v>
       </c>
       <c r="I49" s="3">
-        <v>58400</v>
+        <v>41600</v>
       </c>
       <c r="J49" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K49" s="3">
         <v>62800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>57200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>67400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>74000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>75200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>82300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>90300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>95800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>101200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>105900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>107600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="E52" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="F52" s="3">
-        <v>27900</v>
+        <v>12800</v>
       </c>
       <c r="G52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>26700</v>
+      </c>
+      <c r="N52" s="3">
         <v>28100</v>
       </c>
-      <c r="H52" s="3">
-        <v>27100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>26700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>28100</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>48500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>53000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>71600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>68900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>88600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323200</v>
+        <v>294800</v>
       </c>
       <c r="E54" s="3">
-        <v>335500</v>
+        <v>308100</v>
       </c>
       <c r="F54" s="3">
-        <v>370100</v>
+        <v>319900</v>
       </c>
       <c r="G54" s="3">
-        <v>398900</v>
+        <v>352800</v>
       </c>
       <c r="H54" s="3">
-        <v>418700</v>
+        <v>380200</v>
       </c>
       <c r="I54" s="3">
-        <v>466800</v>
+        <v>399100</v>
       </c>
       <c r="J54" s="3">
+        <v>445000</v>
+      </c>
+      <c r="K54" s="3">
         <v>652400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>702900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>904800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1015700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1099900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1109900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1027800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>997400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1017200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>951500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>942200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>988100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1179500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1177200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1141700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1333800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,126 +4056,130 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54200</v>
+        <v>53800</v>
       </c>
       <c r="E57" s="3">
-        <v>56000</v>
+        <v>51700</v>
       </c>
       <c r="F57" s="3">
-        <v>77400</v>
+        <v>53400</v>
       </c>
       <c r="G57" s="3">
-        <v>95500</v>
+        <v>73800</v>
       </c>
       <c r="H57" s="3">
-        <v>100700</v>
+        <v>91100</v>
       </c>
       <c r="I57" s="3">
-        <v>103100</v>
+        <v>96000</v>
       </c>
       <c r="J57" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K57" s="3">
         <v>135200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>147200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>178300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>278900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>276600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>227700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>198600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>236800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>182900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>166700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>126500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>218700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>173800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>142400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>148700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>32100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>31400</v>
+      </c>
+      <c r="O58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>8800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>32100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>31400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>22200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>12900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>8800</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4074,201 +4208,210 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82300</v>
+        <v>80600</v>
       </c>
       <c r="E59" s="3">
-        <v>85500</v>
+        <v>78500</v>
       </c>
       <c r="F59" s="3">
-        <v>91100</v>
+        <v>81500</v>
       </c>
       <c r="G59" s="3">
-        <v>95100</v>
+        <v>86800</v>
       </c>
       <c r="H59" s="3">
-        <v>100600</v>
+        <v>90600</v>
       </c>
       <c r="I59" s="3">
-        <v>142800</v>
+        <v>95900</v>
       </c>
       <c r="J59" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K59" s="3">
         <v>165000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>279900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>343800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>315900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>271400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>273400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>268100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>284800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>254700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>307000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>380000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>416000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>358800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>509600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>137900</v>
+        <v>135700</v>
       </c>
       <c r="E60" s="3">
-        <v>143000</v>
+        <v>131500</v>
       </c>
       <c r="F60" s="3">
-        <v>170000</v>
+        <v>136300</v>
       </c>
       <c r="G60" s="3">
-        <v>193600</v>
+        <v>162100</v>
       </c>
       <c r="H60" s="3">
-        <v>210100</v>
+        <v>184500</v>
       </c>
       <c r="I60" s="3">
-        <v>254800</v>
+        <v>200300</v>
       </c>
       <c r="J60" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K60" s="3">
         <v>303200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>490300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>577200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>593400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>605400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>507900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>472000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>505000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>467600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>421400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>433500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>598600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>589800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>501200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>658400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="E61" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F61" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="H61" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="I61" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="J61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="P62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="R62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="T62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W62" s="3">
         <v>6400</v>
       </c>
-      <c r="E62" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>19000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>21400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="U62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="V62" s="3">
-        <v>6400</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>143700</v>
+        <v>138500</v>
       </c>
       <c r="E66" s="3">
-        <v>150200</v>
+        <v>136900</v>
       </c>
       <c r="F66" s="3">
-        <v>179400</v>
+        <v>143200</v>
       </c>
       <c r="G66" s="3">
-        <v>203800</v>
+        <v>171000</v>
       </c>
       <c r="H66" s="3">
-        <v>221400</v>
+        <v>194200</v>
       </c>
       <c r="I66" s="3">
-        <v>264600</v>
+        <v>211000</v>
       </c>
       <c r="J66" s="3">
+        <v>252200</v>
+      </c>
+      <c r="K66" s="3">
         <v>317900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>510000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>598400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>626400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>638600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>539900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>487800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>522100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>483700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>442000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>454500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>619600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>611800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>523200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>679600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1150000</v>
+        <v>-1113900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1144100</v>
+        <v>-1096200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1139200</v>
+        <v>-1090600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1134100</v>
+        <v>-1085900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1132100</v>
+        <v>-1081000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1126400</v>
+        <v>-1079200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1073700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-994700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-995400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-983300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-927000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-925200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-888600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-865800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-817600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-792300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-800600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-817100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-790000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-785800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-745800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-689100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>179600</v>
+        <v>156300</v>
       </c>
       <c r="E76" s="3">
-        <v>185300</v>
+        <v>171200</v>
       </c>
       <c r="F76" s="3">
-        <v>190700</v>
+        <v>176700</v>
       </c>
       <c r="G76" s="3">
-        <v>195100</v>
+        <v>181800</v>
       </c>
       <c r="H76" s="3">
-        <v>197200</v>
+        <v>186000</v>
       </c>
       <c r="I76" s="3">
-        <v>202200</v>
+        <v>188000</v>
       </c>
       <c r="J76" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K76" s="3">
         <v>334500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>347400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>394800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>417400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>473600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>471400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>487900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>509700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>495100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>467800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>533600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>559900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>565500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>618500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>654300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5900</v>
+        <v>-17600</v>
       </c>
       <c r="E81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-5800</v>
+        <v>-1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-131700</v>
+        <v>-5500</v>
       </c>
       <c r="J81" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-27400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-40200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-42800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-81600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5200</v>
+        <v>11200</v>
       </c>
       <c r="E8" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="F8" s="3">
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="3">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="H8" s="3">
-        <v>22400</v>
+        <v>16500</v>
       </c>
       <c r="I8" s="3">
-        <v>10800</v>
+        <v>23100</v>
       </c>
       <c r="J8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K8" s="3">
         <v>16500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>69700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>119600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>68300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>67700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>284100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="E9" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="F9" s="3">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="G9" s="3">
-        <v>10400</v>
+        <v>5600</v>
       </c>
       <c r="H9" s="3">
-        <v>12800</v>
+        <v>10800</v>
       </c>
       <c r="I9" s="3">
-        <v>6800</v>
+        <v>13200</v>
       </c>
       <c r="J9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>72700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>54000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>31300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>34800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>54200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>32600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>30400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>258700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4800</v>
-      </c>
       <c r="G10" s="3">
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="H10" s="3">
-        <v>9600</v>
+        <v>5700</v>
       </c>
       <c r="I10" s="3">
-        <v>4000</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>34900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>65400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>37300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>16500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>18400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>15600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,55 +1283,58 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5400</v>
       </c>
       <c r="Q15" s="3">
         <v>5400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>16</v>
+      <c r="R15" s="3">
+        <v>5400</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>16</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22200</v>
+        <v>13200</v>
       </c>
       <c r="E17" s="3">
-        <v>13100</v>
+        <v>23000</v>
       </c>
       <c r="F17" s="3">
-        <v>16300</v>
+        <v>13500</v>
       </c>
       <c r="G17" s="3">
-        <v>23800</v>
+        <v>16800</v>
       </c>
       <c r="H17" s="3">
-        <v>26000</v>
+        <v>24600</v>
       </c>
       <c r="I17" s="3">
-        <v>18400</v>
+        <v>26900</v>
       </c>
       <c r="J17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K17" s="3">
         <v>143500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>27200</v>
       </c>
       <c r="L17" s="3">
         <v>27200</v>
       </c>
       <c r="M17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="N17" s="3">
         <v>61400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>136300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>140000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>110800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>111400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>90500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>86300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>129400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>111100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>113400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>369600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-17100</v>
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
-        <v>-7300</v>
+        <v>-17600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6100</v>
+        <v>-7600</v>
       </c>
       <c r="G18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-127000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-66900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-17400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-32800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-42800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-45700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-85500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>-900</v>
       </c>
       <c r="F20" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
-        <v>2100</v>
-      </c>
       <c r="J20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>5900</v>
       </c>
       <c r="Q20" s="3">
         <v>5900</v>
       </c>
       <c r="R20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1703,55 +1740,58 @@
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>16</v>
@@ -1762,8 +1802,8 @@
       <c r="U22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,123 +1820,129 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18000</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
-        <v>-5900</v>
+        <v>-18600</v>
       </c>
       <c r="F23" s="3">
-        <v>-4800</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="H23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
-        <v>-5900</v>
-      </c>
       <c r="J23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-128800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-26500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-39600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-42400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-83000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
@@ -1905,37 +1951,40 @@
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18000</v>
+        <v>-3300</v>
       </c>
       <c r="E26" s="3">
-        <v>-5800</v>
+        <v>-18600</v>
       </c>
       <c r="F26" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="G26" s="3">
         <v>-5200</v>
       </c>
       <c r="H26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-128300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-61800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-27600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-82600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17600</v>
+        <v>-3200</v>
       </c>
       <c r="E27" s="3">
-        <v>-5600</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
         <v>-4900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1800</v>
+        <v>-5000</v>
       </c>
       <c r="I27" s="3">
-        <v>-5500</v>
+        <v>-1900</v>
       </c>
       <c r="J27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-125500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-56500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-27400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-42800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-81600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1500</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q32" s="3">
         <v>-5900</v>
       </c>
       <c r="R32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17600</v>
+        <v>-3200</v>
       </c>
       <c r="E33" s="3">
-        <v>-5600</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
         <v>-4900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1800</v>
+        <v>-5000</v>
       </c>
       <c r="I33" s="3">
-        <v>-5500</v>
+        <v>-1900</v>
       </c>
       <c r="J33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-125500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-56500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-27400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-42800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-81600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17600</v>
+        <v>-3200</v>
       </c>
       <c r="E35" s="3">
-        <v>-5600</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
         <v>-4900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1800</v>
+        <v>-5000</v>
       </c>
       <c r="I35" s="3">
-        <v>-5500</v>
+        <v>-1900</v>
       </c>
       <c r="J35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-125500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-56500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-27400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-42800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-81600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3007,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41400</v>
+        <v>30600</v>
       </c>
       <c r="E41" s="3">
-        <v>44600</v>
+        <v>42700</v>
       </c>
       <c r="F41" s="3">
-        <v>48600</v>
+        <v>46000</v>
       </c>
       <c r="G41" s="3">
-        <v>49700</v>
+        <v>50100</v>
       </c>
       <c r="H41" s="3">
-        <v>59500</v>
+        <v>51200</v>
       </c>
       <c r="I41" s="3">
-        <v>68900</v>
+        <v>61400</v>
       </c>
       <c r="J41" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K41" s="3">
         <v>29700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>85200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>89200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>89900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>87800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>125800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>159100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>112000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>157800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95600</v>
+        <v>101900</v>
       </c>
       <c r="E42" s="3">
-        <v>80500</v>
+        <v>98600</v>
       </c>
       <c r="F42" s="3">
-        <v>85700</v>
+        <v>83100</v>
       </c>
       <c r="G42" s="3">
-        <v>88300</v>
+        <v>88500</v>
       </c>
       <c r="H42" s="3">
-        <v>93100</v>
+        <v>91100</v>
       </c>
       <c r="I42" s="3">
-        <v>107500</v>
+        <v>96000</v>
       </c>
       <c r="J42" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K42" s="3">
         <v>188400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>123600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>144000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>220400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>201000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>233100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>217800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>130700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>150900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>153200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>341500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>457800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>511100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>493200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>500700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>524100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16700</v>
+        <v>21600</v>
       </c>
       <c r="E43" s="3">
-        <v>15800</v>
+        <v>17300</v>
       </c>
       <c r="F43" s="3">
-        <v>17700</v>
+        <v>16400</v>
       </c>
       <c r="G43" s="3">
-        <v>34800</v>
+        <v>18200</v>
       </c>
       <c r="H43" s="3">
-        <v>38100</v>
+        <v>36000</v>
       </c>
       <c r="I43" s="3">
-        <v>38500</v>
+        <v>39300</v>
       </c>
       <c r="J43" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K43" s="3">
         <v>40100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>81000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>91600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>98300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>174600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>165700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>158800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>175500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>146300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>64400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>72600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>151300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>172500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>156400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,393 +3325,411 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44100</v>
+        <v>56100</v>
       </c>
       <c r="E45" s="3">
-        <v>54500</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>53400</v>
+        <v>56200</v>
       </c>
       <c r="G45" s="3">
-        <v>61700</v>
+        <v>55100</v>
       </c>
       <c r="H45" s="3">
-        <v>66100</v>
+        <v>63700</v>
       </c>
       <c r="I45" s="3">
-        <v>56400</v>
+        <v>68200</v>
       </c>
       <c r="J45" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K45" s="3">
         <v>59800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>145200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>250600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>262600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>279500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>277100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>295800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>284000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>253900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>163100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>153100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>214200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>167100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>148900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>492900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197800</v>
+        <v>210200</v>
       </c>
       <c r="E46" s="3">
-        <v>195500</v>
+        <v>204100</v>
       </c>
       <c r="F46" s="3">
-        <v>205400</v>
+        <v>201700</v>
       </c>
       <c r="G46" s="3">
-        <v>234600</v>
+        <v>211900</v>
       </c>
       <c r="H46" s="3">
-        <v>256700</v>
+        <v>242000</v>
       </c>
       <c r="I46" s="3">
-        <v>271300</v>
+        <v>264900</v>
       </c>
       <c r="J46" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K46" s="3">
         <v>318000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>428200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>562400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>588700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>657200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>727600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>679500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>670500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>699600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>643300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>656800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>755300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>994300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>970700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>934000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1093800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="E47" s="3">
-        <v>28900</v>
+        <v>32500</v>
       </c>
       <c r="F47" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="G47" s="3">
-        <v>28200</v>
+        <v>29000</v>
       </c>
       <c r="H47" s="3">
-        <v>32000</v>
+        <v>29100</v>
       </c>
       <c r="I47" s="3">
-        <v>36100</v>
+        <v>33000</v>
       </c>
       <c r="J47" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K47" s="3">
         <v>37100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>148700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>163500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>211500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>286900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>292500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>228600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>192500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>198100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>193200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>185600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>142500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>72000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>14500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>18000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="E48" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="F48" s="3">
-        <v>20400</v>
+        <v>19100</v>
       </c>
       <c r="G48" s="3">
-        <v>22900</v>
+        <v>21000</v>
       </c>
       <c r="H48" s="3">
         <v>23600</v>
       </c>
       <c r="I48" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>33200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>47000</v>
+      </c>
+      <c r="O48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>59500</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="R48" s="3">
+        <v>60000</v>
+      </c>
+      <c r="S48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="W48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="X48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="Z48" s="3">
         <v>24200</v>
       </c>
-      <c r="J48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>33200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>37200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>47000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>50700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>59500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>58600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>28500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>25100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>22200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>21400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>21900</v>
-      </c>
-      <c r="X48" s="3">
-        <v>22700</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>24200</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>25900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35600</v>
+        <v>36400</v>
       </c>
       <c r="E49" s="3">
-        <v>52700</v>
+        <v>36700</v>
       </c>
       <c r="F49" s="3">
-        <v>53200</v>
+        <v>54400</v>
       </c>
       <c r="G49" s="3">
-        <v>40500</v>
+        <v>54900</v>
       </c>
       <c r="H49" s="3">
-        <v>41100</v>
+        <v>41800</v>
       </c>
       <c r="I49" s="3">
-        <v>41600</v>
+        <v>42400</v>
       </c>
       <c r="J49" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K49" s="3">
         <v>55700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>65200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>61300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>67400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>72600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>74000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>75200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>82300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>90300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>95800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>101200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>105900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>107600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>13400</v>
       </c>
       <c r="E52" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="F52" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J52" s="3">
         <v>26600</v>
       </c>
-      <c r="H52" s="3">
-        <v>26800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>25800</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>53000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>68900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>88600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>294800</v>
+        <v>310300</v>
       </c>
       <c r="E54" s="3">
-        <v>308100</v>
+        <v>304100</v>
       </c>
       <c r="F54" s="3">
-        <v>319900</v>
+        <v>317900</v>
       </c>
       <c r="G54" s="3">
-        <v>352800</v>
+        <v>330000</v>
       </c>
       <c r="H54" s="3">
-        <v>380200</v>
+        <v>364000</v>
       </c>
       <c r="I54" s="3">
-        <v>399100</v>
+        <v>392300</v>
       </c>
       <c r="J54" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K54" s="3">
         <v>445000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>652400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>702900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>904800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1015700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1099900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1109900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1027800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>997400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1017200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>951500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>942200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>988100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1179500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1177200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1141700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1333800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53800</v>
+        <v>61500</v>
       </c>
       <c r="E57" s="3">
-        <v>51700</v>
+        <v>55500</v>
       </c>
       <c r="F57" s="3">
-        <v>53400</v>
+        <v>53300</v>
       </c>
       <c r="G57" s="3">
-        <v>73800</v>
+        <v>55100</v>
       </c>
       <c r="H57" s="3">
-        <v>91100</v>
+        <v>76100</v>
       </c>
       <c r="I57" s="3">
-        <v>96000</v>
+        <v>94000</v>
       </c>
       <c r="J57" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K57" s="3">
         <v>98300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>135200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>147200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>178300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>202000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>278900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>276600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>227700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>198600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>236800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>182900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>166700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>126500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>218700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>173800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>142400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>148700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,46 +4277,46 @@
         <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1400</v>
       </c>
       <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
-        <v>2800</v>
-      </c>
       <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K58" s="3">
         <v>8400</v>
       </c>
-      <c r="J58" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8800</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,162 +4345,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80600</v>
+        <v>84500</v>
       </c>
       <c r="E59" s="3">
-        <v>78500</v>
+        <v>83200</v>
       </c>
       <c r="F59" s="3">
-        <v>81500</v>
+        <v>81000</v>
       </c>
       <c r="G59" s="3">
-        <v>86800</v>
+        <v>84100</v>
       </c>
       <c r="H59" s="3">
-        <v>90600</v>
+        <v>89600</v>
       </c>
       <c r="I59" s="3">
-        <v>95900</v>
+        <v>93500</v>
       </c>
       <c r="J59" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K59" s="3">
         <v>136100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>165000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>279900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>343800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>315900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>271400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>273400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>268100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>284800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>254700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>307000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>380000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>416000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>358800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>509600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>135700</v>
+        <v>147300</v>
       </c>
       <c r="E60" s="3">
-        <v>131500</v>
+        <v>140000</v>
       </c>
       <c r="F60" s="3">
-        <v>136300</v>
+        <v>135600</v>
       </c>
       <c r="G60" s="3">
-        <v>162100</v>
+        <v>140600</v>
       </c>
       <c r="H60" s="3">
-        <v>184500</v>
+        <v>167200</v>
       </c>
       <c r="I60" s="3">
-        <v>200300</v>
+        <v>190400</v>
       </c>
       <c r="J60" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K60" s="3">
         <v>242800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>303200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>338200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>490300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>577200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>593400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>605400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>507900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>472000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>505000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>467600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>421400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>433500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>598600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>589800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>501200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>658400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,47 +4517,47 @@
         <v>1400</v>
       </c>
       <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
-        <v>2000</v>
-      </c>
       <c r="G61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
-        <v>2400</v>
-      </c>
       <c r="I61" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E62" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F62" s="3">
-        <v>7100</v>
+        <v>6300</v>
       </c>
       <c r="G62" s="3">
-        <v>8500</v>
+        <v>7400</v>
       </c>
       <c r="H62" s="3">
         <v>8800</v>
       </c>
       <c r="I62" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="J62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>138500</v>
+        <v>149600</v>
       </c>
       <c r="E66" s="3">
-        <v>136900</v>
+        <v>142900</v>
       </c>
       <c r="F66" s="3">
-        <v>143200</v>
+        <v>141300</v>
       </c>
       <c r="G66" s="3">
-        <v>171000</v>
+        <v>147700</v>
       </c>
       <c r="H66" s="3">
-        <v>194200</v>
+        <v>176400</v>
       </c>
       <c r="I66" s="3">
-        <v>211000</v>
+        <v>200400</v>
       </c>
       <c r="J66" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K66" s="3">
         <v>252200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>317900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>355500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>510000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>598400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>626400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>638600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>539900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>487800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>522100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>483700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>442000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>454500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>619600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>611800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>523200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>679600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1113900</v>
+        <v>-1152400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1096200</v>
+        <v>-1149200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1090600</v>
+        <v>-1131100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1085900</v>
+        <v>-1125200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1081000</v>
+        <v>-1120400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1079200</v>
+        <v>-1115300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1113500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1073700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-994700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-995400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-983300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-927000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-925200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-888600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-865800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-817600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-792300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-800600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-817100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-790000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-785800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-745800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-689100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>156300</v>
+        <v>160800</v>
       </c>
       <c r="E76" s="3">
-        <v>171200</v>
+        <v>161300</v>
       </c>
       <c r="F76" s="3">
-        <v>176700</v>
+        <v>176600</v>
       </c>
       <c r="G76" s="3">
-        <v>181800</v>
+        <v>182300</v>
       </c>
       <c r="H76" s="3">
-        <v>186000</v>
+        <v>187600</v>
       </c>
       <c r="I76" s="3">
-        <v>188000</v>
+        <v>191900</v>
       </c>
       <c r="J76" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K76" s="3">
         <v>192700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>334500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>347400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>394800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>417400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>473600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>471400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>487900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>509700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>495100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>467800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>500200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>533600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>559900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>565500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>618500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>654300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17600</v>
+        <v>-3200</v>
       </c>
       <c r="E81" s="3">
-        <v>-5600</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
         <v>-4900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1800</v>
+        <v>-5000</v>
       </c>
       <c r="I81" s="3">
-        <v>-5500</v>
+        <v>-1900</v>
       </c>
       <c r="J81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-125500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-56500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-27400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-42800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-81600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11200</v>
+        <v>3900</v>
       </c>
       <c r="E8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
-        <v>6000</v>
-      </c>
       <c r="G8" s="3">
-        <v>10500</v>
+        <v>5900</v>
       </c>
       <c r="H8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L8" s="3">
         <v>16500</v>
       </c>
-      <c r="I8" s="3">
-        <v>23100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>16500</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>68900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>69700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>119600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>68300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>67700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>284100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>4700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
-        <v>3700</v>
-      </c>
       <c r="G9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
-        <v>10800</v>
-      </c>
       <c r="I9" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>72700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>54000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>34800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>54200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>32600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>30400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>258700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6500</v>
+        <v>1700</v>
       </c>
       <c r="E10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
-        <v>5700</v>
-      </c>
       <c r="I10" s="3">
-        <v>9900</v>
+        <v>5600</v>
       </c>
       <c r="J10" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>58600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>34900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>65400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>35700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>37300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>25400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
-        <v>1900</v>
-      </c>
       <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>16500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>18400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>16100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1235,8 +1254,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1286,58 +1305,61 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5400</v>
       </c>
       <c r="R15" s="3">
         <v>5400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>16</v>
+      <c r="S15" s="3">
+        <v>5400</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>16</v>
@@ -1348,8 +1370,8 @@
       <c r="V15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13200</v>
+        <v>6800</v>
       </c>
       <c r="E17" s="3">
-        <v>23000</v>
+        <v>13100</v>
       </c>
       <c r="F17" s="3">
-        <v>13500</v>
+        <v>22700</v>
       </c>
       <c r="G17" s="3">
-        <v>16800</v>
+        <v>13400</v>
       </c>
       <c r="H17" s="3">
-        <v>24600</v>
+        <v>16700</v>
       </c>
       <c r="I17" s="3">
-        <v>26900</v>
+        <v>24300</v>
       </c>
       <c r="J17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K17" s="3">
         <v>19000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>27200</v>
       </c>
       <c r="M17" s="3">
         <v>27200</v>
       </c>
       <c r="N17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="O17" s="3">
         <v>61400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>136300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>140000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>97000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>111400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>90500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>86300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>102500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>129400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>111100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>113400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>369600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-17600</v>
-      </c>
       <c r="F18" s="3">
-        <v>-7600</v>
+        <v>-17500</v>
       </c>
       <c r="G18" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="H18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3800</v>
-      </c>
       <c r="J18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-127000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-66900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-17400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-32800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-42800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-45700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-85500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-900</v>
-      </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>-800</v>
       </c>
       <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>5900</v>
       </c>
       <c r="R20" s="3">
         <v>5900</v>
       </c>
       <c r="S20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,49 +1791,49 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>16</v>
@@ -1805,8 +1844,8 @@
       <c r="V22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1823,129 +1862,135 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3400</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
-        <v>-18600</v>
+        <v>-3300</v>
       </c>
       <c r="F23" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-128800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-61400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-26500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-39600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-42400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-83000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
@@ -1954,37 +1999,40 @@
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-18600</v>
-      </c>
       <c r="F26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-128300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-22500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-27600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-42600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-82600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3200</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>-18200</v>
+        <v>-3100</v>
       </c>
       <c r="F27" s="3">
-        <v>-5800</v>
+        <v>-18000</v>
       </c>
       <c r="G27" s="3">
-        <v>-4900</v>
+        <v>-5700</v>
       </c>
       <c r="H27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-125500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-22900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-27400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-81600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>900</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>800</v>
       </c>
       <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-5900</v>
       </c>
       <c r="R32" s="3">
         <v>-5900</v>
       </c>
       <c r="S32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3200</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>-18200</v>
+        <v>-3100</v>
       </c>
       <c r="F33" s="3">
-        <v>-5800</v>
+        <v>-18000</v>
       </c>
       <c r="G33" s="3">
-        <v>-4900</v>
+        <v>-5700</v>
       </c>
       <c r="H33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-125500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-22900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-27400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-81600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3200</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>-18200</v>
+        <v>-3100</v>
       </c>
       <c r="F35" s="3">
-        <v>-5800</v>
+        <v>-18000</v>
       </c>
       <c r="G35" s="3">
-        <v>-4900</v>
+        <v>-5700</v>
       </c>
       <c r="H35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-125500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-22900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-27400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-81600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,248 +3093,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30600</v>
+        <v>21900</v>
       </c>
       <c r="E41" s="3">
-        <v>42700</v>
+        <v>30200</v>
       </c>
       <c r="F41" s="3">
-        <v>46000</v>
+        <v>42300</v>
       </c>
       <c r="G41" s="3">
-        <v>50100</v>
+        <v>45600</v>
       </c>
       <c r="H41" s="3">
-        <v>51200</v>
+        <v>49600</v>
       </c>
       <c r="I41" s="3">
-        <v>61400</v>
+        <v>50700</v>
       </c>
       <c r="J41" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K41" s="3">
         <v>71100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>67200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>85200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>89200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>89900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>87800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>71800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>125800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>159100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>112000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>157800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101900</v>
+        <v>103000</v>
       </c>
       <c r="E42" s="3">
-        <v>98600</v>
+        <v>100800</v>
       </c>
       <c r="F42" s="3">
-        <v>83100</v>
+        <v>97600</v>
       </c>
       <c r="G42" s="3">
-        <v>88500</v>
+        <v>82200</v>
       </c>
       <c r="H42" s="3">
-        <v>91100</v>
+        <v>87600</v>
       </c>
       <c r="I42" s="3">
-        <v>96000</v>
+        <v>90200</v>
       </c>
       <c r="J42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K42" s="3">
         <v>110900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>188400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>123600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>144000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>220400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>201000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>233100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>217800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>169500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>130700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>150900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>153200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>341500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>457800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>511100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>493200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>500700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>524100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21600</v>
+        <v>4900</v>
       </c>
       <c r="E43" s="3">
-        <v>17300</v>
+        <v>21400</v>
       </c>
       <c r="F43" s="3">
-        <v>16400</v>
+        <v>17100</v>
       </c>
       <c r="G43" s="3">
-        <v>18200</v>
+        <v>16200</v>
       </c>
       <c r="H43" s="3">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="I43" s="3">
-        <v>39300</v>
+        <v>35600</v>
       </c>
       <c r="J43" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K43" s="3">
         <v>39700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>81000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>91600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>174600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>165700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>158800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>175500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>146300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>64400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>72600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>143000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>151300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>172500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>156400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,408 +3423,426 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56100</v>
+        <v>40800</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>55500</v>
       </c>
       <c r="F45" s="3">
-        <v>56200</v>
+        <v>45100</v>
       </c>
       <c r="G45" s="3">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="H45" s="3">
-        <v>63700</v>
+        <v>54500</v>
       </c>
       <c r="I45" s="3">
-        <v>68200</v>
+        <v>63000</v>
       </c>
       <c r="J45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K45" s="3">
         <v>58200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>262600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>279500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>277100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>295800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>284000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>253900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>163100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>153100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>214200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>167100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>148900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>492900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>210200</v>
+        <v>170600</v>
       </c>
       <c r="E46" s="3">
-        <v>204100</v>
+        <v>208000</v>
       </c>
       <c r="F46" s="3">
-        <v>201700</v>
+        <v>202000</v>
       </c>
       <c r="G46" s="3">
-        <v>211900</v>
+        <v>199700</v>
       </c>
       <c r="H46" s="3">
-        <v>242000</v>
+        <v>209700</v>
       </c>
       <c r="I46" s="3">
-        <v>264900</v>
+        <v>239500</v>
       </c>
       <c r="J46" s="3">
+        <v>262200</v>
+      </c>
+      <c r="K46" s="3">
         <v>279900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>318000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>428200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>562400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>588700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>657200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>727600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>679500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>670500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>699600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>643300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>656800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>755300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>994300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>970700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>934000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1093800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="E47" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F47" s="3">
-        <v>29800</v>
+        <v>32200</v>
       </c>
       <c r="G47" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="H47" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="I47" s="3">
-        <v>33000</v>
+        <v>28800</v>
       </c>
       <c r="J47" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K47" s="3">
         <v>37300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>163500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>211500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>286900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>292500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>228600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>192500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>198100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>193200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>185600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>142500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>72000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>14500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>18000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F48" s="3">
         <v>18000</v>
       </c>
-      <c r="E48" s="3">
-        <v>18100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>19100</v>
-      </c>
       <c r="G48" s="3">
-        <v>21000</v>
+        <v>18900</v>
       </c>
       <c r="H48" s="3">
-        <v>23600</v>
+        <v>20800</v>
       </c>
       <c r="I48" s="3">
-        <v>24300</v>
+        <v>23400</v>
       </c>
       <c r="J48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K48" s="3">
         <v>25000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>58600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>21900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>24200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>25900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36400</v>
+        <v>33800</v>
       </c>
       <c r="E49" s="3">
-        <v>36700</v>
+        <v>36000</v>
       </c>
       <c r="F49" s="3">
-        <v>54400</v>
+        <v>36300</v>
       </c>
       <c r="G49" s="3">
-        <v>54900</v>
+        <v>53800</v>
       </c>
       <c r="H49" s="3">
-        <v>41800</v>
+        <v>54300</v>
       </c>
       <c r="I49" s="3">
-        <v>42400</v>
+        <v>41400</v>
       </c>
       <c r="J49" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K49" s="3">
         <v>43000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>65200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>61300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>72600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>74000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>75200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>82300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>90300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>95800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>101200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>105900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>107600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="E52" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G52" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="H52" s="3">
-        <v>27500</v>
+        <v>13100</v>
       </c>
       <c r="I52" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="J52" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K52" s="3">
         <v>26600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>39200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>48500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>53000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>68900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>88600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>310300</v>
+        <v>266900</v>
       </c>
       <c r="E54" s="3">
-        <v>304100</v>
+        <v>307200</v>
       </c>
       <c r="F54" s="3">
-        <v>317900</v>
+        <v>301000</v>
       </c>
       <c r="G54" s="3">
-        <v>330000</v>
+        <v>314600</v>
       </c>
       <c r="H54" s="3">
-        <v>364000</v>
+        <v>326600</v>
       </c>
       <c r="I54" s="3">
-        <v>392300</v>
+        <v>360300</v>
       </c>
       <c r="J54" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K54" s="3">
         <v>411700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>445000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>652400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>702900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>904800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1015700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1099900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1109900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1027800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>997400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1017200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>951500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>942200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>988100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1179500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1177200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1141700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1333800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,138 +4317,142 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61500</v>
+        <v>37200</v>
       </c>
       <c r="E57" s="3">
-        <v>55500</v>
+        <v>60900</v>
       </c>
       <c r="F57" s="3">
-        <v>53300</v>
+        <v>54900</v>
       </c>
       <c r="G57" s="3">
-        <v>55100</v>
+        <v>52700</v>
       </c>
       <c r="H57" s="3">
-        <v>76100</v>
+        <v>54500</v>
       </c>
       <c r="I57" s="3">
-        <v>94000</v>
+        <v>75300</v>
       </c>
       <c r="J57" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K57" s="3">
         <v>99000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>98300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>135200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>147200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>178300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>202000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>278900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>276600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>227700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>198600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>236800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>182900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>166700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>126500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>218700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>173800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>142400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>148700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
       <c r="F58" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
         <v>1400</v>
       </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8800</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
@@ -4330,8 +4463,8 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4348,219 +4481,228 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84500</v>
+        <v>71800</v>
       </c>
       <c r="E59" s="3">
+        <v>83700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>82400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>80100</v>
+      </c>
+      <c r="H59" s="3">
         <v>83200</v>
       </c>
-      <c r="F59" s="3">
-        <v>81000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>84100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>89600</v>
-      </c>
       <c r="I59" s="3">
-        <v>93500</v>
+        <v>88600</v>
       </c>
       <c r="J59" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K59" s="3">
         <v>99000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>165000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>279900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>343800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>315900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>271400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>273400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>268100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>284800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>254700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>307000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>380000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>416000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>358800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>509600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147300</v>
+        <v>110100</v>
       </c>
       <c r="E60" s="3">
-        <v>140000</v>
+        <v>145800</v>
       </c>
       <c r="F60" s="3">
-        <v>135600</v>
+        <v>138500</v>
       </c>
       <c r="G60" s="3">
-        <v>140600</v>
+        <v>134300</v>
       </c>
       <c r="H60" s="3">
-        <v>167200</v>
+        <v>139200</v>
       </c>
       <c r="I60" s="3">
-        <v>190400</v>
+        <v>165500</v>
       </c>
       <c r="J60" s="3">
+        <v>188400</v>
+      </c>
+      <c r="K60" s="3">
         <v>206700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>242800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>303200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>338200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>490300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>577200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>593400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>605400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>507900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>472000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>505000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>467600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>421400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>433500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>598600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>589800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>501200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>658400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
         <v>1400</v>
       </c>
       <c r="F61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
-        <v>2100</v>
-      </c>
       <c r="H61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4588,88 +4730,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="O62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="T62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="V62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="X62" s="3">
         <v>6300</v>
       </c>
-      <c r="G62" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>10400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>19000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>21400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>149600</v>
+        <v>109400</v>
       </c>
       <c r="E66" s="3">
-        <v>142900</v>
+        <v>148000</v>
       </c>
       <c r="F66" s="3">
-        <v>141300</v>
+        <v>141400</v>
       </c>
       <c r="G66" s="3">
-        <v>147700</v>
+        <v>139800</v>
       </c>
       <c r="H66" s="3">
-        <v>176400</v>
+        <v>146200</v>
       </c>
       <c r="I66" s="3">
-        <v>200400</v>
+        <v>174600</v>
       </c>
       <c r="J66" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K66" s="3">
         <v>217700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>252200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>317900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>355500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>510000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>598400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>626400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>638600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>539900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>487800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>522100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>483700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>442000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>454500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>619600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>611800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>523200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>679600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1152400</v>
+        <v>-1141200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1149200</v>
+        <v>-1140600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1131100</v>
+        <v>-1137500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1125200</v>
+        <v>-1119500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1120400</v>
+        <v>-1113700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1115300</v>
+        <v>-1108900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1103900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1113500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1073700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-994700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-995400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-983300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-927000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-925200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-888600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-865800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-817600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-792300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-800600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-817100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-790000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-785800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-745800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-689100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>160800</v>
+        <v>157500</v>
       </c>
       <c r="E76" s="3">
-        <v>161300</v>
+        <v>159100</v>
       </c>
       <c r="F76" s="3">
-        <v>176600</v>
+        <v>159600</v>
       </c>
       <c r="G76" s="3">
-        <v>182300</v>
+        <v>174800</v>
       </c>
       <c r="H76" s="3">
-        <v>187600</v>
+        <v>180400</v>
       </c>
       <c r="I76" s="3">
-        <v>191900</v>
+        <v>185700</v>
       </c>
       <c r="J76" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K76" s="3">
         <v>194000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>334500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>347400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>394800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>417400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>473600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>471400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>487900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>509700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>495100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>467800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>500200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>533600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>559900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>565500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>618500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>654300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3200</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>-18200</v>
+        <v>-3100</v>
       </c>
       <c r="F81" s="3">
-        <v>-5800</v>
+        <v>-18000</v>
       </c>
       <c r="G81" s="3">
-        <v>-4900</v>
+        <v>-5700</v>
       </c>
       <c r="H81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-125500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-22900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-27400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-81600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3900</v>
+        <v>13800</v>
       </c>
       <c r="E8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>22900</v>
+      </c>
+      <c r="M8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>16300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>22900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>11100</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>27500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>69500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>131300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>80100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>69500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>71700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>110800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>73500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>68900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>69700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>119600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>68300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>67700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>284100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="E9" s="3">
-        <v>4700</v>
+        <v>3300</v>
       </c>
       <c r="F9" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="G9" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="H9" s="3">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="I9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>36100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>72700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>44200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>31300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>30600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>54000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>38400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>31300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>34800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>54200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>32600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>30400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>258700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>556600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2400</v>
-      </c>
       <c r="G10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
-        <v>4900</v>
-      </c>
       <c r="I10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>33400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>58600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>35900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>38200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>41100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>56900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>35100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>37700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>34900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>65400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>35700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>37300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>25400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>1600</v>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
         <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2200</v>
       </c>
       <c r="H12" s="3">
         <v>1900</v>
       </c>
       <c r="I12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1600</v>
       </c>
       <c r="L12" s="3">
         <v>1800</v>
       </c>
       <c r="M12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>12200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>12300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>12100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>11400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>10800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>12100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>16500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>18400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>21800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>23700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>24700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,25 +1259,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3">
-        <v>15900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1257,11 +1297,11 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1308,64 +1348,70 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>5600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>5400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>5400</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>16</v>
@@ -1373,11 +1419,11 @@
       <c r="W15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>6800</v>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="3">
-        <v>13100</v>
+        <v>11000</v>
       </c>
       <c r="F17" s="3">
-        <v>22700</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="3">
-        <v>13400</v>
+        <v>12700</v>
       </c>
       <c r="H17" s="3">
-        <v>16700</v>
+        <v>22000</v>
       </c>
       <c r="I17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K17" s="3">
         <v>24300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>143500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>27200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>61400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>136300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>140000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>110800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>97000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>87400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>111400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>90500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>86300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>102500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>129400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>111100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>113400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>369600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2900</v>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H18" s="3">
-        <v>-6200</v>
+        <v>-16900</v>
       </c>
       <c r="I18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-127000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-22200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-34000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-66900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-30700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-27500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-15700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-16900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-17400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-32800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-45700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-85500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-84900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>1800</v>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>4400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>7700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>6300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>6200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>2600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1782,64 +1856,70 @@
       <c r="AC21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>16</v>
@@ -1847,11 +1927,11 @@
       <c r="W22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1865,99 +1945,111 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-3300</v>
+        <v>-1000</v>
       </c>
       <c r="F23" s="3">
-        <v>-18400</v>
+        <v>-1200</v>
       </c>
       <c r="G23" s="3">
-        <v>-6000</v>
+        <v>-3200</v>
       </c>
       <c r="H23" s="3">
-        <v>-4900</v>
+        <v>-17800</v>
       </c>
       <c r="I23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-128800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-22900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-32500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-61400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-25900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-22600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-11400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-11700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-9700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-26500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-39600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-42400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-83000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1966,73 +2058,79 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>-400</v>
       </c>
       <c r="AC24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-18400</v>
-      </c>
       <c r="G26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-128300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-22800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-25700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-22500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-11100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-10300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-42600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-82600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-18000</v>
-      </c>
       <c r="G27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-125500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-31800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-25900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-22900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-11100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-10700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-42800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-81600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-1800</v>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-4400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-7700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-18000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-125500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-31800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-25900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-22900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-11100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-10700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-42800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-81600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-18000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-125500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-31800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-25900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-22900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-11100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-10700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-42800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-81600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3266,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21900</v>
+        <v>42600</v>
       </c>
       <c r="E41" s="3">
-        <v>30200</v>
+        <v>28900</v>
       </c>
       <c r="F41" s="3">
-        <v>42300</v>
+        <v>21200</v>
       </c>
       <c r="G41" s="3">
-        <v>45600</v>
+        <v>29300</v>
       </c>
       <c r="H41" s="3">
-        <v>49600</v>
+        <v>41000</v>
       </c>
       <c r="I41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K41" s="3">
         <v>50700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>60800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>71100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>29700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>97600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>77800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>93200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>45500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>63300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>55700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>67200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>85200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>89200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>89900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>87800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>71800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>125800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>159100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>112000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>157800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>210500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103000</v>
+        <v>108500</v>
       </c>
       <c r="E42" s="3">
-        <v>100800</v>
+        <v>99400</v>
       </c>
       <c r="F42" s="3">
-        <v>97600</v>
+        <v>99800</v>
       </c>
       <c r="G42" s="3">
-        <v>82200</v>
+        <v>97700</v>
       </c>
       <c r="H42" s="3">
-        <v>87600</v>
+        <v>94600</v>
       </c>
       <c r="I42" s="3">
+        <v>79700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K42" s="3">
         <v>90200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>95000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>110900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>188400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>123600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>144000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>220400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>201000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>233100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>217800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>169500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>130700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>150900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>153200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>341500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>457800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>511100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>493200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>500700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>524100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>572900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4900</v>
+        <v>11100</v>
       </c>
       <c r="E43" s="3">
-        <v>21400</v>
+        <v>9500</v>
       </c>
       <c r="F43" s="3">
-        <v>17100</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>16200</v>
+        <v>20800</v>
       </c>
       <c r="H43" s="3">
-        <v>18000</v>
+        <v>16600</v>
       </c>
       <c r="I43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K43" s="3">
         <v>35600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>39700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>40100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>53100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>61200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>81000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>91600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>98300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>174600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>165700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>158800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>175500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>146300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>64400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>72600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>143000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>151300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>172500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>156400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>170200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3618,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40800</v>
+        <v>35000</v>
       </c>
       <c r="E45" s="3">
-        <v>55500</v>
+        <v>36400</v>
       </c>
       <c r="F45" s="3">
-        <v>45100</v>
+        <v>39500</v>
       </c>
       <c r="G45" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="H45" s="3">
-        <v>54500</v>
+        <v>43700</v>
       </c>
       <c r="I45" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K45" s="3">
         <v>63000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>67500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>58200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>126300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>145200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>167800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>250600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>262600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>279500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>277100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>295800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>284000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>253900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>163100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>153100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>214200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>167100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>148900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>492900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>230200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>170600</v>
+        <v>197200</v>
       </c>
       <c r="E46" s="3">
-        <v>208000</v>
+        <v>174300</v>
       </c>
       <c r="F46" s="3">
-        <v>202000</v>
+        <v>165300</v>
       </c>
       <c r="G46" s="3">
-        <v>199700</v>
+        <v>201600</v>
       </c>
       <c r="H46" s="3">
-        <v>209700</v>
+        <v>195800</v>
       </c>
       <c r="I46" s="3">
+        <v>193500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K46" s="3">
         <v>239500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>262200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>279900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>318000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>428200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>562400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>588700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>657200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>727600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>679500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>670500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>699600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>643300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>656800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>755300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>994300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>970700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>934000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1093800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1183900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="E47" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="F47" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="G47" s="3">
-        <v>29500</v>
+        <v>31100</v>
       </c>
       <c r="H47" s="3">
-        <v>28700</v>
+        <v>31200</v>
       </c>
       <c r="I47" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K47" s="3">
         <v>28800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>32700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>37300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>37100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>148700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>163500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>211500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>286900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>292500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>228600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>192500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>198100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>193200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>185600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>142500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>72000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>14500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>10900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>8700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>18000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16800</v>
       </c>
-      <c r="E48" s="3">
-        <v>17800</v>
-      </c>
       <c r="F48" s="3">
-        <v>18000</v>
+        <v>16300</v>
       </c>
       <c r="G48" s="3">
-        <v>18900</v>
+        <v>17300</v>
       </c>
       <c r="H48" s="3">
-        <v>20800</v>
+        <v>17400</v>
       </c>
       <c r="I48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K48" s="3">
         <v>23400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>21400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>37200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>47000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>50700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>59500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>58600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>60000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>28500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>25100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>22200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>21400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>22000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>21900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>22700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>24200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>25900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>28700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33800</v>
+        <v>32400</v>
       </c>
       <c r="E49" s="3">
-        <v>36000</v>
+        <v>32600</v>
       </c>
       <c r="F49" s="3">
-        <v>36300</v>
+        <v>32800</v>
       </c>
       <c r="G49" s="3">
-        <v>53800</v>
+        <v>34900</v>
       </c>
       <c r="H49" s="3">
-        <v>54300</v>
+        <v>35200</v>
       </c>
       <c r="I49" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K49" s="3">
         <v>41400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>43000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>55700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>62800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>65200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>57200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>61300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>62100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>66600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>67400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>72600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>74000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>75200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>82300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>90300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>95800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>101200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>105900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>107600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12900</v>
+        <v>10100</v>
       </c>
       <c r="E52" s="3">
-        <v>13200</v>
+        <v>12100</v>
       </c>
       <c r="F52" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J52" s="3">
         <v>12700</v>
       </c>
-      <c r="H52" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>27200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>28100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>28700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>28300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>27700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>25300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>25100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>39200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>48500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>53000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>71600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>68900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>88600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266900</v>
+        <v>284400</v>
       </c>
       <c r="E54" s="3">
-        <v>307200</v>
+        <v>267400</v>
       </c>
       <c r="F54" s="3">
-        <v>301000</v>
+        <v>258700</v>
       </c>
       <c r="G54" s="3">
-        <v>314600</v>
+        <v>297700</v>
       </c>
       <c r="H54" s="3">
-        <v>326600</v>
+        <v>291800</v>
       </c>
       <c r="I54" s="3">
+        <v>304900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K54" s="3">
         <v>360300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>388300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>411700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>445000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>652400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>702900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>904800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1015700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1099900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1109900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1027800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>997400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1017200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>951500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>942200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>988100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1179500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1177200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1141700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1333800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1477700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,147 +4578,155 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37200</v>
+        <v>45300</v>
       </c>
       <c r="E57" s="3">
-        <v>60900</v>
+        <v>41300</v>
       </c>
       <c r="F57" s="3">
-        <v>54900</v>
+        <v>36100</v>
       </c>
       <c r="G57" s="3">
-        <v>52700</v>
+        <v>59000</v>
       </c>
       <c r="H57" s="3">
-        <v>54500</v>
+        <v>53300</v>
       </c>
       <c r="I57" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K57" s="3">
         <v>75300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>93000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>99000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>98300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>135200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>147200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>178300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>202000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>278900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>276600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>227700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>198600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>236800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>182900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>166700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>126500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>218700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>173800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>142400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>148700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>187700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>32100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>31400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>22200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8800</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
@@ -4466,11 +4734,11 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4484,231 +4752,249 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71800</v>
+        <v>87000</v>
       </c>
       <c r="E59" s="3">
-        <v>83700</v>
+        <v>73000</v>
       </c>
       <c r="F59" s="3">
-        <v>82400</v>
+        <v>69600</v>
       </c>
       <c r="G59" s="3">
-        <v>80100</v>
+        <v>81100</v>
       </c>
       <c r="H59" s="3">
-        <v>83200</v>
+        <v>79800</v>
       </c>
       <c r="I59" s="3">
+        <v>77700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K59" s="3">
         <v>88600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>92500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>99000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>136100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>165000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>183600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>279900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>343800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>292400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>315900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>271400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>273400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>268100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>284800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>254700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>307000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>380000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>416000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>358800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>509600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>555800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>110100</v>
+        <v>133300</v>
       </c>
       <c r="E60" s="3">
-        <v>145800</v>
+        <v>115500</v>
       </c>
       <c r="F60" s="3">
-        <v>138500</v>
+        <v>106700</v>
       </c>
       <c r="G60" s="3">
+        <v>141300</v>
+      </c>
+      <c r="H60" s="3">
         <v>134300</v>
       </c>
-      <c r="H60" s="3">
-        <v>139200</v>
-      </c>
       <c r="I60" s="3">
+        <v>130100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K60" s="3">
         <v>165500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>188400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>206700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>242800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>303200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>338200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>490300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>577200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>593400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>605400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>507900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>472000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>505000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>467600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>421400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>433500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>598600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>589800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>501200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>658400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>743500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>1400</v>
       </c>
       <c r="F61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4733,91 +5019,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="F62" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="R62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="S62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="T62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="U62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="V62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="X62" s="3">
         <v>6200</v>
       </c>
-      <c r="H62" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>10400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>19000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>21400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="V62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>5900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>6300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>6400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>7700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>7900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>11400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109400</v>
+        <v>130100</v>
       </c>
       <c r="E66" s="3">
-        <v>148000</v>
+        <v>116200</v>
       </c>
       <c r="F66" s="3">
-        <v>141400</v>
+        <v>106100</v>
       </c>
       <c r="G66" s="3">
-        <v>139800</v>
+        <v>143500</v>
       </c>
       <c r="H66" s="3">
-        <v>146200</v>
+        <v>137000</v>
       </c>
       <c r="I66" s="3">
+        <v>135500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K66" s="3">
         <v>174600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>198300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>217700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>252200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>317900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>355500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>510000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>598400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>626400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>638600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>539900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>487800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>522100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>483700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>442000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>454500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>619600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>611800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>523200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>679600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>767300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1141200</v>
+        <v>-1107000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1140600</v>
+        <v>-1107100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1137500</v>
+        <v>-1106100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1119500</v>
+        <v>-1105500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1113700</v>
+        <v>-1102500</v>
       </c>
       <c r="I72" s="3">
+        <v>-1085100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1079500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1103900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1113500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1073700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-994700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-995400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1042300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-983300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-927000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-925200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-888600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-865800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-817600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-792300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-800600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-817100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-790000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-785800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-745800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-689100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-611000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157500</v>
+        <v>154400</v>
       </c>
       <c r="E76" s="3">
-        <v>159100</v>
+        <v>151200</v>
       </c>
       <c r="F76" s="3">
-        <v>159600</v>
+        <v>152700</v>
       </c>
       <c r="G76" s="3">
-        <v>174800</v>
+        <v>154300</v>
       </c>
       <c r="H76" s="3">
-        <v>180400</v>
+        <v>154700</v>
       </c>
       <c r="I76" s="3">
+        <v>169400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K76" s="3">
         <v>185700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>189900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>194000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>192700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>334500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>347400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>394800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>417400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>473600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>471400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>487900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>509700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>495100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>467800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>500200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>533600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>559900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>565500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>618500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>654300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>710400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-18000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-125500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-31800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-25900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-22900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-11100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-10700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-42800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-81600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>TOUR</t>
   </si>
@@ -802,7 +802,7 @@
         <v>3800</v>
       </c>
       <c r="G8" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="H8" s="3">
         <v>5100</v>
@@ -885,7 +885,7 @@
         <v>4800</v>
       </c>
       <c r="E9" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F9" s="3">
         <v>2100</v>
@@ -1092,8 +1092,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
+      <c r="D12" s="3">
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
         <v>2000</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1478,11 +1478,11 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
+      <c r="D17" s="3">
+        <v>12900</v>
       </c>
       <c r="E17" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F17" s="3">
         <v>6600</v>
@@ -1491,7 +1491,7 @@
         <v>12700</v>
       </c>
       <c r="H17" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="I17" s="3">
         <v>13000</v>
@@ -1567,8 +1567,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
+      <c r="D18" s="3">
+        <v>900</v>
       </c>
       <c r="E18" s="3">
         <v>-2300</v>
@@ -1580,13 +1580,13 @@
         <v>-2000</v>
       </c>
       <c r="H18" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="I18" s="3">
         <v>-7300</v>
       </c>
       <c r="J18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="K18" s="3">
         <v>-8100</v>
@@ -1689,8 +1689,8 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
+      <c r="D20" s="3">
+        <v>-900</v>
       </c>
       <c r="E20" s="3">
         <v>1500</v>
@@ -1886,7 +1886,7 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1969,10 +1969,10 @@
         <v>-3200</v>
       </c>
       <c r="H23" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="I23" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3">
         <v>-4800</v>
@@ -2045,8 +2045,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
+      <c r="D24" s="3">
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
@@ -2236,7 +2236,7 @@
         <v>-3200</v>
       </c>
       <c r="H26" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="I26" s="3">
         <v>-5800</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
@@ -2325,7 +2325,7 @@
         <v>-3000</v>
       </c>
       <c r="H27" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="I27" s="3">
         <v>-5600</v>
@@ -2757,8 +2757,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
+      <c r="D32" s="3">
+        <v>900</v>
       </c>
       <c r="E32" s="3">
         <v>-1500</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
@@ -2859,7 +2859,7 @@
         <v>-3000</v>
       </c>
       <c r="H33" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="I33" s="3">
         <v>-5600</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
@@ -3037,7 +3037,7 @@
         <v>-3000</v>
       </c>
       <c r="H35" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="I35" s="3">
         <v>-5600</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="E41" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="F41" s="3">
         <v>21200</v>
       </c>
       <c r="G41" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="H41" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="I41" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="J41" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="K41" s="3">
         <v>50700</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108500</v>
+        <v>108700</v>
       </c>
       <c r="E42" s="3">
-        <v>99400</v>
+        <v>99600</v>
       </c>
       <c r="F42" s="3">
-        <v>99800</v>
+        <v>100000</v>
       </c>
       <c r="G42" s="3">
-        <v>97700</v>
+        <v>97900</v>
       </c>
       <c r="H42" s="3">
-        <v>94600</v>
+        <v>94800</v>
       </c>
       <c r="I42" s="3">
-        <v>79700</v>
+        <v>79900</v>
       </c>
       <c r="J42" s="3">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="K42" s="3">
         <v>90200</v>
@@ -3633,22 +3633,22 @@
         <v>35000</v>
       </c>
       <c r="E45" s="3">
-        <v>36400</v>
+        <v>36500</v>
       </c>
       <c r="F45" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="G45" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="H45" s="3">
-        <v>43700</v>
+        <v>43800</v>
       </c>
       <c r="I45" s="3">
-        <v>54000</v>
+        <v>54100</v>
       </c>
       <c r="J45" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="K45" s="3">
         <v>63000</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197200</v>
+        <v>197600</v>
       </c>
       <c r="E46" s="3">
-        <v>174300</v>
+        <v>174700</v>
       </c>
       <c r="F46" s="3">
-        <v>165300</v>
+        <v>165700</v>
       </c>
       <c r="G46" s="3">
-        <v>201600</v>
+        <v>202000</v>
       </c>
       <c r="H46" s="3">
-        <v>195800</v>
+        <v>196200</v>
       </c>
       <c r="I46" s="3">
-        <v>193500</v>
+        <v>194000</v>
       </c>
       <c r="J46" s="3">
-        <v>203300</v>
+        <v>203700</v>
       </c>
       <c r="K46" s="3">
         <v>239500</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E47" s="3">
         <v>31800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>31700</v>
       </c>
       <c r="F47" s="3">
         <v>31800</v>
       </c>
       <c r="G47" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="H47" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="I47" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="J47" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="K47" s="3">
         <v>28800</v>
@@ -3992,19 +3992,19 @@
         <v>32600</v>
       </c>
       <c r="F49" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="G49" s="3">
         <v>34900</v>
       </c>
       <c r="H49" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="I49" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="J49" s="3">
-        <v>52600</v>
+        <v>52800</v>
       </c>
       <c r="K49" s="3">
         <v>41400</v>
@@ -4253,7 +4253,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E52" s="3">
         <v>12100</v>
@@ -4268,7 +4268,7 @@
         <v>12100</v>
       </c>
       <c r="I52" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J52" s="3">
         <v>12700</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>284400</v>
+        <v>285100</v>
       </c>
       <c r="E54" s="3">
-        <v>267400</v>
+        <v>268000</v>
       </c>
       <c r="F54" s="3">
-        <v>258700</v>
+        <v>259300</v>
       </c>
       <c r="G54" s="3">
-        <v>297700</v>
+        <v>298400</v>
       </c>
       <c r="H54" s="3">
-        <v>291800</v>
+        <v>292400</v>
       </c>
       <c r="I54" s="3">
-        <v>304900</v>
+        <v>305600</v>
       </c>
       <c r="J54" s="3">
-        <v>316600</v>
+        <v>317300</v>
       </c>
       <c r="K54" s="3">
         <v>360300</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="E57" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="F57" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G57" s="3">
-        <v>59000</v>
+        <v>59100</v>
       </c>
       <c r="H57" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="I57" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="J57" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="K57" s="3">
         <v>75300</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87000</v>
+        <v>87200</v>
       </c>
       <c r="E59" s="3">
-        <v>73000</v>
+        <v>73100</v>
       </c>
       <c r="F59" s="3">
-        <v>69600</v>
+        <v>69700</v>
       </c>
       <c r="G59" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="H59" s="3">
-        <v>79800</v>
+        <v>80000</v>
       </c>
       <c r="I59" s="3">
-        <v>77700</v>
+        <v>77900</v>
       </c>
       <c r="J59" s="3">
-        <v>80700</v>
+        <v>80800</v>
       </c>
       <c r="K59" s="3">
         <v>88600</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="E60" s="3">
-        <v>115500</v>
+        <v>115700</v>
       </c>
       <c r="F60" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="G60" s="3">
-        <v>141300</v>
+        <v>141600</v>
       </c>
       <c r="H60" s="3">
-        <v>134300</v>
+        <v>134600</v>
       </c>
       <c r="I60" s="3">
-        <v>130100</v>
+        <v>130400</v>
       </c>
       <c r="J60" s="3">
-        <v>134900</v>
+        <v>135200</v>
       </c>
       <c r="K60" s="3">
         <v>165500</v>
@@ -4948,7 +4948,7 @@
         <v>1400</v>
       </c>
       <c r="F61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G61" s="3">
         <v>1400</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>130100</v>
+        <v>130400</v>
       </c>
       <c r="E66" s="3">
-        <v>116200</v>
+        <v>116400</v>
       </c>
       <c r="F66" s="3">
-        <v>106100</v>
+        <v>106300</v>
       </c>
       <c r="G66" s="3">
-        <v>143500</v>
+        <v>143800</v>
       </c>
       <c r="H66" s="3">
-        <v>137000</v>
+        <v>137300</v>
       </c>
       <c r="I66" s="3">
-        <v>135500</v>
+        <v>135800</v>
       </c>
       <c r="J66" s="3">
-        <v>141700</v>
+        <v>142000</v>
       </c>
       <c r="K66" s="3">
         <v>174600</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1107000</v>
+        <v>-1109400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1107100</v>
+        <v>-1109500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1106100</v>
+        <v>-1108500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1105500</v>
+        <v>-1107900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1102500</v>
+        <v>-1104900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1085100</v>
+        <v>-1087400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1079500</v>
+        <v>-1081800</v>
       </c>
       <c r="K72" s="3">
         <v>-1108900</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>154400</v>
+        <v>154700</v>
       </c>
       <c r="E76" s="3">
-        <v>151200</v>
+        <v>151500</v>
       </c>
       <c r="F76" s="3">
-        <v>152700</v>
+        <v>153000</v>
       </c>
       <c r="G76" s="3">
-        <v>154300</v>
+        <v>154600</v>
       </c>
       <c r="H76" s="3">
-        <v>154700</v>
+        <v>155100</v>
       </c>
       <c r="I76" s="3">
-        <v>169400</v>
+        <v>169800</v>
       </c>
       <c r="J76" s="3">
-        <v>174900</v>
+        <v>175200</v>
       </c>
       <c r="K76" s="3">
         <v>185700</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>
@@ -6505,7 +6505,7 @@
         <v>-3000</v>
       </c>
       <c r="H81" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="I81" s="3">
         <v>-5600</v>
